--- a/SIB-200 languages - ACL.xlsx
+++ b/SIB-200 languages - ACL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R205"/>
+  <dimension ref="A1:S205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,11 @@
           <t>F1 PolyLM-1.7b beam-search</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>F1 Bloomz-560M beam-search</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -594,6 +599,9 @@
       <c r="R2" t="n">
         <v>0.04656862745098039</v>
       </c>
+      <c r="S2" t="n">
+        <v>0.09070043103448276</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -664,6 +672,9 @@
       <c r="R3" t="n">
         <v>0.116461849162742</v>
       </c>
+      <c r="S3" t="n">
+        <v>0.3683862836593088</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -728,6 +739,9 @@
       <c r="R4" t="n">
         <v>0.1289839632211324</v>
       </c>
+      <c r="S4" t="n">
+        <v>0.3907859603789836</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -792,6 +806,9 @@
       <c r="R5" t="n">
         <v>0.08032407407407408</v>
       </c>
+      <c r="S5" t="n">
+        <v>0.4011704460054532</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -856,6 +873,9 @@
       <c r="R6" t="n">
         <v>0.06823489438271074</v>
       </c>
+      <c r="S6" t="n">
+        <v>0.3734657155709787</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -931,6 +951,9 @@
       </c>
       <c r="R7" t="n">
         <v>0.07299462924462925</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.3117627140301559</v>
       </c>
     </row>
     <row r="8">
@@ -996,6 +1019,9 @@
       <c r="R8" t="n">
         <v>0.11784510974201</v>
       </c>
+      <c r="S8" t="n">
+        <v>0.3540195576780942</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1072,6 +1098,9 @@
       <c r="R9" t="n">
         <v>0.04883003242314152</v>
       </c>
+      <c r="S9" t="n">
+        <v>0.296255737600408</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1140,6 +1169,9 @@
       <c r="R10" t="n">
         <v>0.0432999348321929</v>
       </c>
+      <c r="S10" t="n">
+        <v>0.3093343084953823</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1215,6 +1247,9 @@
       </c>
       <c r="R11" t="n">
         <v>0.03770949720670392</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.08756627522527154</v>
       </c>
     </row>
     <row r="12">
@@ -1280,6 +1315,9 @@
       <c r="R12" t="n">
         <v>0.1290329167687658</v>
       </c>
+      <c r="S12" t="n">
+        <v>0.3965951236852023</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1346,6 +1384,9 @@
       <c r="R13" t="n">
         <v>0.09491891499435269</v>
       </c>
+      <c r="S13" t="n">
+        <v>0.3767832752299624</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1410,6 +1451,9 @@
       <c r="R14" t="n">
         <v>0.04437229437229437</v>
       </c>
+      <c r="S14" t="n">
+        <v>0.1955820956146577</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1474,6 +1518,9 @@
       <c r="R15" t="n">
         <v>0.09921926292292205</v>
       </c>
+      <c r="S15" t="n">
+        <v>0.3714567361946708</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1538,6 +1585,9 @@
       <c r="R16" t="n">
         <v>0.1207316282537521</v>
       </c>
+      <c r="S16" t="n">
+        <v>0.3701715169520402</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1600,6 +1650,9 @@
       <c r="R17" t="n">
         <v>0.118021230281441</v>
       </c>
+      <c r="S17" t="n">
+        <v>0.3893145416379112</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1677,6 +1730,9 @@
       </c>
       <c r="R18" t="n">
         <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.3557140934176874</v>
       </c>
     </row>
     <row r="19">
@@ -1748,6 +1804,9 @@
       <c r="R19" t="n">
         <v>0.1046194546194546</v>
       </c>
+      <c r="S19" t="n">
+        <v>0.4531567683844723</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1818,6 +1877,9 @@
       <c r="R20" t="n">
         <v>0.03849865527606391</v>
       </c>
+      <c r="S20" t="n">
+        <v>0.3255910559257016</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1880,6 +1942,9 @@
       <c r="R21" t="n">
         <v>0.05352633477633478</v>
       </c>
+      <c r="S21" t="n">
+        <v>0.2678994640899403</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1942,6 +2007,9 @@
       <c r="R22" t="n">
         <v>0.03730158730158731</v>
       </c>
+      <c r="S22" t="n">
+        <v>0.1605946684894053</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2006,6 +2074,9 @@
       <c r="R23" t="n">
         <v>0.0552703373015873</v>
       </c>
+      <c r="S23" t="n">
+        <v>0.2365546218487395</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2080,6 +2151,9 @@
       <c r="R24" t="n">
         <v>0</v>
       </c>
+      <c r="S24" t="n">
+        <v>0.1172363379713652</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2155,6 +2229,9 @@
       </c>
       <c r="R25" t="n">
         <v>0.02939322301024429</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.2505002470355731</v>
       </c>
     </row>
     <row r="26">
@@ -2226,6 +2303,9 @@
       <c r="R26" t="n">
         <v>0.1072459991748637</v>
       </c>
+      <c r="S26" t="n">
+        <v>0.370645915881345</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2301,6 +2381,9 @@
       </c>
       <c r="R27" t="n">
         <v>0.06901808578745197</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.08881038448899112</v>
       </c>
     </row>
     <row r="28">
@@ -2372,6 +2455,9 @@
       <c r="R28" t="n">
         <v>0.06022809185459788</v>
       </c>
+      <c r="S28" t="n">
+        <v>0.2751988777521063</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2449,6 +2535,9 @@
       </c>
       <c r="R29" t="n">
         <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.3638318742130999</v>
       </c>
     </row>
     <row r="30">
@@ -2520,6 +2609,9 @@
       <c r="R30" t="n">
         <v>0.02599379132398</v>
       </c>
+      <c r="S30" t="n">
+        <v>0.301610305958132</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2582,6 +2674,9 @@
       <c r="R31" t="n">
         <v>0.03203125</v>
       </c>
+      <c r="S31" t="n">
+        <v>0.09680952380952382</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2644,6 +2739,9 @@
       <c r="R32" t="n">
         <v>0.0841221752630671</v>
       </c>
+      <c r="S32" t="n">
+        <v>0.3727749339952695</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2718,6 +2816,9 @@
       <c r="R33" t="n">
         <v>0.03235294117647058</v>
       </c>
+      <c r="S33" t="n">
+        <v>0.05386317222600408</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2793,6 +2894,9 @@
       </c>
       <c r="R34" t="n">
         <v>0.07151783638356529</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.3117566663297645</v>
       </c>
     </row>
     <row r="35">
@@ -2864,6 +2968,9 @@
       <c r="R35" t="n">
         <v>0.08899496775412413</v>
       </c>
+      <c r="S35" t="n">
+        <v>0.3423585884795018</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2940,6 +3047,9 @@
       <c r="R36" t="n">
         <v>0.05846508563899869</v>
       </c>
+      <c r="S36" t="n">
+        <v>0.146856097354824</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3017,6 +3127,9 @@
       </c>
       <c r="R37" t="n">
         <v>0.06680341055341055</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.456802037335402</v>
       </c>
     </row>
     <row r="38">
@@ -3088,6 +3201,9 @@
       <c r="R38" t="n">
         <v>0.09252694138660329</v>
       </c>
+      <c r="S38" t="n">
+        <v>0.3317517654669598</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3163,6 +3279,9 @@
       </c>
       <c r="R39" t="n">
         <v>0.04956501831501831</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.3015296708940777</v>
       </c>
     </row>
     <row r="40">
@@ -3228,6 +3347,9 @@
       <c r="R40" t="n">
         <v>0.06088033984731575</v>
       </c>
+      <c r="S40" t="n">
+        <v>0.2627459685417076</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3290,6 +3412,9 @@
       <c r="R41" t="n">
         <v>0.02228163992869875</v>
       </c>
+      <c r="S41" t="n">
+        <v>0.1345762516760939</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3360,6 +3485,9 @@
       <c r="R42" t="n">
         <v>0.05557141648690945</v>
       </c>
+      <c r="S42" t="n">
+        <v>0.2505593889923849</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3436,6 +3564,9 @@
       <c r="R43" t="n">
         <v>0.06854777167277168</v>
       </c>
+      <c r="S43" t="n">
+        <v>0.242181583404605</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3512,6 +3643,9 @@
       <c r="R44" t="n">
         <v>0.119688374014747</v>
       </c>
+      <c r="S44" t="n">
+        <v>0.3224900059138657</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3587,6 +3721,9 @@
       </c>
       <c r="R45" t="n">
         <v>0.1172670707627313</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.3425158540084919</v>
       </c>
     </row>
     <row r="46">
@@ -3650,6 +3787,9 @@
       <c r="R46" t="n">
         <v>0.05423806458853953</v>
       </c>
+      <c r="S46" t="n">
+        <v>0.2628034523702301</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3720,6 +3860,9 @@
       <c r="R47" t="n">
         <v>0.0756990446810171</v>
       </c>
+      <c r="S47" t="n">
+        <v>0.2761562232475772</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3794,6 +3937,9 @@
       <c r="R48" t="n">
         <v>0.03260869565217392</v>
       </c>
+      <c r="S48" t="n">
+        <v>0.04028925619834711</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3870,6 +4016,9 @@
       <c r="R49" t="n">
         <v>0.02892561983471074</v>
       </c>
+      <c r="S49" t="n">
+        <v>0.1420755395426053</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3947,6 +4096,9 @@
       </c>
       <c r="R50" t="n">
         <v>0.05380150539550035</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.4202765820303225</v>
       </c>
     </row>
     <row r="51">
@@ -4024,6 +4176,9 @@
       <c r="R51" t="n">
         <v>0.06616844116844117</v>
       </c>
+      <c r="S51" t="n">
+        <v>0.3413712145757019</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4100,6 +4255,9 @@
       <c r="R52" t="n">
         <v>0.09298962531721153</v>
       </c>
+      <c r="S52" t="n">
+        <v>0.2791354712754004</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4177,6 +4335,9 @@
       </c>
       <c r="R53" t="n">
         <v>0.06090346586395752</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.4030589001298249</v>
       </c>
     </row>
     <row r="54">
@@ -4252,6 +4413,9 @@
       <c r="R54" t="n">
         <v>0.04545940170940171</v>
       </c>
+      <c r="S54" t="n">
+        <v>0.2631649818013417</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4326,6 +4490,9 @@
       <c r="R55" t="n">
         <v>0.06445645451856633</v>
       </c>
+      <c r="S55" t="n">
+        <v>0.2299949733388913</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4400,6 +4567,9 @@
       <c r="R56" t="n">
         <v>0.05947871572871574</v>
       </c>
+      <c r="S56" t="n">
+        <v>0.2531380518865041</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4476,6 +4646,9 @@
       <c r="R57" t="n">
         <v>0.05425324675324676</v>
       </c>
+      <c r="S57" t="n">
+        <v>0.2808818362857735</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4548,6 +4721,9 @@
       <c r="R58" t="n">
         <v>0.02544544123602156</v>
       </c>
+      <c r="S58" t="n">
+        <v>0.2701452957327042</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4625,6 +4801,9 @@
       </c>
       <c r="R59" t="n">
         <v>0.1043923269201636</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.4293815696579533</v>
       </c>
     </row>
     <row r="60">
@@ -4696,6 +4875,9 @@
       <c r="R60" t="n">
         <v>0.0434939456678587</v>
       </c>
+      <c r="S60" t="n">
+        <v>0.3718636467653506</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4758,6 +4940,9 @@
       <c r="R61" t="n">
         <v>0.08753997405077615</v>
       </c>
+      <c r="S61" t="n">
+        <v>0.3035802676530116</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4826,6 +5011,9 @@
       <c r="R62" t="n">
         <v>0.06228913630229418</v>
       </c>
+      <c r="S62" t="n">
+        <v>0.1840219030756115</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4902,6 +5090,9 @@
       <c r="R63" t="n">
         <v>0.07772533973574365</v>
       </c>
+      <c r="S63" t="n">
+        <v>0.2250104733975702</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4978,6 +5169,9 @@
       <c r="R64" t="n">
         <v>0.0531873118373402</v>
       </c>
+      <c r="S64" t="n">
+        <v>0.2271187258687259</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5053,6 +5247,9 @@
       </c>
       <c r="R65" t="n">
         <v>0.1161213110295118</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.422134169961877</v>
       </c>
     </row>
     <row r="66">
@@ -5128,6 +5325,9 @@
       <c r="R66" t="n">
         <v>0.05536522301228183</v>
       </c>
+      <c r="S66" t="n">
+        <v>0.3150487080193367</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5205,6 +5405,9 @@
       </c>
       <c r="R67" t="n">
         <v>0.008474576271186441</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.3302532177919711</v>
       </c>
     </row>
     <row r="68">
@@ -5280,6 +5483,9 @@
       <c r="R68" t="n">
         <v>0.07918320105820106</v>
       </c>
+      <c r="S68" t="n">
+        <v>0.2879818931128506</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5356,6 +5562,9 @@
       <c r="R69" t="n">
         <v>0.04474194206446348</v>
       </c>
+      <c r="S69" t="n">
+        <v>0.3117668729737695</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5432,6 +5641,9 @@
       <c r="R70" t="n">
         <v>0.06838050316788069</v>
       </c>
+      <c r="S70" t="n">
+        <v>0.100731316369465</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5509,6 +5721,9 @@
       </c>
       <c r="R71" t="n">
         <v>0.006756756756756757</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.3254412159628695</v>
       </c>
     </row>
     <row r="72">
@@ -5574,6 +5789,9 @@
       <c r="R72" t="n">
         <v>0.02040816326530612</v>
       </c>
+      <c r="S72" t="n">
+        <v>0.2877494290652556</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5650,6 +5868,9 @@
       <c r="R73" t="n">
         <v>0.07500769463390879</v>
       </c>
+      <c r="S73" t="n">
+        <v>0.2816965024110335</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5726,6 +5947,9 @@
       <c r="R74" t="n">
         <v>0.0657846057986253</v>
       </c>
+      <c r="S74" t="n">
+        <v>0.28943290503387</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5802,6 +6026,9 @@
       <c r="R75" t="n">
         <v>0.03483606557377049</v>
       </c>
+      <c r="S75" t="n">
+        <v>0.03859060402684564</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5877,6 +6104,9 @@
       </c>
       <c r="R76" t="n">
         <v>0.1045085159405201</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.2735011441647597</v>
       </c>
     </row>
     <row r="77">
@@ -5948,6 +6178,9 @@
       <c r="R77" t="n">
         <v>0.07455071948134091</v>
       </c>
+      <c r="S77" t="n">
+        <v>0.3619225881294846</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -6025,6 +6258,9 @@
       </c>
       <c r="R78" t="n">
         <v>0.08981481481481482</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0.4085303909989531</v>
       </c>
     </row>
     <row r="79">
@@ -6102,6 +6338,9 @@
       <c r="R79" t="n">
         <v>0.04743092824488173</v>
       </c>
+      <c r="S79" t="n">
+        <v>0.2289802925250098</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -6178,6 +6417,9 @@
       <c r="R80" t="n">
         <v>0.1105694980694981</v>
       </c>
+      <c r="S80" t="n">
+        <v>0.4039683680249718</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6254,6 +6496,9 @@
       <c r="R81" t="n">
         <v>0.09582624500253337</v>
       </c>
+      <c r="S81" t="n">
+        <v>0.3947003214297173</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -6329,6 +6574,9 @@
       </c>
       <c r="R82" t="n">
         <v>0.06713497245385748</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0.235208102041176</v>
       </c>
     </row>
     <row r="83">
@@ -6400,6 +6648,9 @@
       <c r="R83" t="n">
         <v>0.05896328048808147</v>
       </c>
+      <c r="S83" t="n">
+        <v>0.1238629862700229</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -6470,6 +6721,9 @@
       <c r="R84" t="n">
         <v>0.03052184466019418</v>
       </c>
+      <c r="S84" t="n">
+        <v>0.27211174487944</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -6540,6 +6794,9 @@
       <c r="R85" t="n">
         <v>0.05681818181818182</v>
       </c>
+      <c r="S85" t="n">
+        <v>0.2780394157159739</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -6617,6 +6874,9 @@
       </c>
       <c r="R86" t="n">
         <v>0.01285797779076564</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0.3301407220242923</v>
       </c>
     </row>
     <row r="87">
@@ -6692,6 +6952,9 @@
       <c r="R87" t="n">
         <v>0.02598566308243727</v>
       </c>
+      <c r="S87" t="n">
+        <v>0.2494397759103641</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6766,6 +7029,9 @@
       <c r="R88" t="n">
         <v>0.01985785953177258</v>
       </c>
+      <c r="S88" t="n">
+        <v>0.213216176939003</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -6842,6 +7108,9 @@
       <c r="R89" t="n">
         <v>0.01960784313725491</v>
       </c>
+      <c r="S89" t="n">
+        <v>0.1196394977511837</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6917,6 +7186,9 @@
       </c>
       <c r="R90" t="n">
         <v>0.01744851258581236</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0.1254913592810057</v>
       </c>
     </row>
     <row r="91">
@@ -6980,6 +7252,9 @@
       <c r="R91" t="n">
         <v>0.01507321274763135</v>
       </c>
+      <c r="S91" t="n">
+        <v>0.2805411160778968</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -7044,6 +7319,9 @@
       <c r="R92" t="n">
         <v>0.083774284535961</v>
       </c>
+      <c r="S92" t="n">
+        <v>0.3751131932583546</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -7112,6 +7390,9 @@
       <c r="R93" t="n">
         <v>0.03803483750292261</v>
       </c>
+      <c r="S93" t="n">
+        <v>0.08239831697054699</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -7188,6 +7469,9 @@
       <c r="R94" t="n">
         <v>0</v>
       </c>
+      <c r="S94" t="n">
+        <v>0.1809535756764793</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -7264,6 +7548,9 @@
       <c r="R95" t="n">
         <v>0.05827991452991452</v>
       </c>
+      <c r="S95" t="n">
+        <v>0.2829564048620851</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -7340,6 +7627,9 @@
       <c r="R96" t="n">
         <v>0.04777200237816287</v>
       </c>
+      <c r="S96" t="n">
+        <v>0.3233153896982801</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -7415,6 +7705,9 @@
       </c>
       <c r="R97" t="n">
         <v>0.02172904423136406</v>
+      </c>
+      <c r="S97" t="n">
+        <v>0.1321063396900866</v>
       </c>
     </row>
     <row r="98">
@@ -7486,6 +7779,9 @@
       <c r="R98" t="n">
         <v>0.06011085087570781</v>
       </c>
+      <c r="S98" t="n">
+        <v>0.2634822884887972</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -7553,6 +7849,9 @@
       </c>
       <c r="R99" t="n">
         <v>0.04640485016991042</v>
+      </c>
+      <c r="S99" t="n">
+        <v>0.2287671328469243</v>
       </c>
     </row>
     <row r="100">
@@ -7616,6 +7915,9 @@
       <c r="R100" t="n">
         <v>0.0302547770700637</v>
       </c>
+      <c r="S100" t="n">
+        <v>0.06261534877887079</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -7678,6 +7980,9 @@
       <c r="R101" t="n">
         <v>0.08740765347908205</v>
       </c>
+      <c r="S101" t="n">
+        <v>0.2957986484227619</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -7752,6 +8057,9 @@
       <c r="R102" t="n">
         <v>0.1035795418491021</v>
       </c>
+      <c r="S102" t="n">
+        <v>0.3358617947123999</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -7828,6 +8136,9 @@
       <c r="R103" t="n">
         <v>0.03728070175438596</v>
       </c>
+      <c r="S103" t="n">
+        <v>0.1331778206778207</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -7903,6 +8214,9 @@
       </c>
       <c r="R104" t="n">
         <v>0.0339265850945495</v>
+      </c>
+      <c r="S104" t="n">
+        <v>0.1798729979558371</v>
       </c>
     </row>
     <row r="105">
@@ -7966,6 +8280,9 @@
       <c r="R105" t="n">
         <v>0.09471677920473101</v>
       </c>
+      <c r="S105" t="n">
+        <v>0.3550461033219654</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -8040,6 +8357,9 @@
       <c r="R106" t="n">
         <v>0.0832019239464641</v>
       </c>
+      <c r="S106" t="n">
+        <v>0.3137721998016115</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -8116,6 +8436,9 @@
       <c r="R107" t="n">
         <v>0.1202591036414566</v>
       </c>
+      <c r="S107" t="n">
+        <v>0.341674852024036</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -8191,6 +8514,9 @@
       </c>
       <c r="R108" t="n">
         <v>0.035</v>
+      </c>
+      <c r="S108" t="n">
+        <v>0.2495034503621055</v>
       </c>
     </row>
     <row r="109">
@@ -8254,6 +8580,9 @@
       <c r="R109" t="n">
         <v>0.09746453873382344</v>
       </c>
+      <c r="S109" t="n">
+        <v>0.3199567088656211</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -8316,6 +8645,9 @@
       <c r="R110" t="n">
         <v>0.06451481791155704</v>
       </c>
+      <c r="S110" t="n">
+        <v>0.2696602365642613</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -8390,6 +8722,9 @@
       <c r="R111" t="n">
         <v>0.1045088915034884</v>
       </c>
+      <c r="S111" t="n">
+        <v>0.3238945427830517</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -8460,6 +8795,9 @@
       <c r="R112" t="n">
         <v>0.0807578262562398</v>
       </c>
+      <c r="S112" t="n">
+        <v>0.3209640284752728</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -8535,6 +8873,9 @@
       </c>
       <c r="R113" t="n">
         <v>0.09996951542396673</v>
+      </c>
+      <c r="S113" t="n">
+        <v>0.2595320473136083</v>
       </c>
     </row>
     <row r="114">
@@ -8608,6 +8949,9 @@
       <c r="R114" t="n">
         <v>0.06117548537052229</v>
       </c>
+      <c r="S114" t="n">
+        <v>0.2609109931827034</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -8678,6 +9022,9 @@
       <c r="R115" t="n">
         <v>0.07906480117820323</v>
       </c>
+      <c r="S115" t="n">
+        <v>0.3219597399003874</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -8745,6 +9092,9 @@
       </c>
       <c r="R116" t="n">
         <v>0.02381627636874375</v>
+      </c>
+      <c r="S116" t="n">
+        <v>0.2656881766010174</v>
       </c>
     </row>
     <row r="117">
@@ -8816,6 +9166,9 @@
       <c r="R117" t="n">
         <v>0.03125</v>
       </c>
+      <c r="S117" t="n">
+        <v>0.3248954599761051</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -8886,6 +9239,9 @@
       <c r="R118" t="n">
         <v>0.02</v>
       </c>
+      <c r="S118" t="n">
+        <v>0.3459200185834674</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -8964,6 +9320,9 @@
       <c r="R119" t="n">
         <v>0.0275</v>
       </c>
+      <c r="S119" t="n">
+        <v>0.3500042593784162</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -9041,6 +9400,9 @@
       </c>
       <c r="R120" t="n">
         <v>0</v>
+      </c>
+      <c r="S120" t="n">
+        <v>0.3194923972298946</v>
       </c>
     </row>
     <row r="121">
@@ -9112,6 +9474,9 @@
       <c r="R121" t="n">
         <v>0.04109149277688603</v>
       </c>
+      <c r="S121" t="n">
+        <v>0.1132762943109637</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -9182,6 +9547,9 @@
       <c r="R122" t="n">
         <v>0.1137653563297978</v>
       </c>
+      <c r="S122" t="n">
+        <v>0.3645563801085215</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -9257,6 +9625,9 @@
       </c>
       <c r="R123" t="n">
         <v>0.07273056255081199</v>
+      </c>
+      <c r="S123" t="n">
+        <v>0.1299435028248588</v>
       </c>
     </row>
     <row r="124">
@@ -9332,6 +9703,9 @@
       <c r="R124" t="n">
         <v>0.03348152264517922</v>
       </c>
+      <c r="S124" t="n">
+        <v>0.3001043480924582</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -9404,6 +9778,9 @@
       <c r="R125" t="n">
         <v>0</v>
       </c>
+      <c r="S125" t="n">
+        <v>0.1534391534391534</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -9474,6 +9851,9 @@
       <c r="R126" t="n">
         <v>0.02124907612712491</v>
       </c>
+      <c r="S126" t="n">
+        <v>0.2714341887843866</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -9548,6 +9928,9 @@
       <c r="R127" t="n">
         <v>0.05235192739303079</v>
       </c>
+      <c r="S127" t="n">
+        <v>0.2440288421170891</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -9624,6 +10007,9 @@
       <c r="R128" t="n">
         <v>0.06453099233679309</v>
       </c>
+      <c r="S128" t="n">
+        <v>0.1114580732562118</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -9699,6 +10085,9 @@
       </c>
       <c r="R129" t="n">
         <v>0.07872691034455739</v>
+      </c>
+      <c r="S129" t="n">
+        <v>0.3339136302294197</v>
       </c>
     </row>
     <row r="130">
@@ -9774,6 +10163,9 @@
       <c r="R130" t="n">
         <v>0.1107526763791345</v>
       </c>
+      <c r="S130" t="n">
+        <v>0.2966895455734742</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -9848,6 +10240,9 @@
       <c r="R131" t="n">
         <v>0.1151382766831962</v>
       </c>
+      <c r="S131" t="n">
+        <v>0.2908797131821687</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -9918,6 +10313,9 @@
       <c r="R132" t="n">
         <v>0.03194915254237288</v>
       </c>
+      <c r="S132" t="n">
+        <v>0.3388694366635543</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -9989,6 +10387,9 @@
       </c>
       <c r="R133" t="n">
         <v>0.06636936791298122</v>
+      </c>
+      <c r="S133" t="n">
+        <v>0.2745280691848198</v>
       </c>
     </row>
     <row r="134">
@@ -10052,6 +10453,9 @@
       <c r="R134" t="n">
         <v>0.03057747489239598</v>
       </c>
+      <c r="S134" t="n">
+        <v>0.1905942675983437</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -10127,6 +10531,9 @@
       </c>
       <c r="R135" t="n">
         <v>0.06470494111623143</v>
+      </c>
+      <c r="S135" t="n">
+        <v>0.2919585162440262</v>
       </c>
     </row>
     <row r="136">
@@ -10202,6 +10609,9 @@
       <c r="R136" t="n">
         <v>0.09065745909038381</v>
       </c>
+      <c r="S136" t="n">
+        <v>0.450389721832541</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -10271,6 +10681,9 @@
       </c>
       <c r="R137" t="n">
         <v>0.004545454545454545</v>
+      </c>
+      <c r="S137" t="n">
+        <v>0.3196635791744487</v>
       </c>
     </row>
     <row r="138">
@@ -10342,6 +10755,9 @@
       <c r="R138" t="n">
         <v>0.08680482990827819</v>
       </c>
+      <c r="S138" t="n">
+        <v>0.3484545291839161</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -10419,6 +10835,9 @@
       </c>
       <c r="R139" t="n">
         <v>0</v>
+      </c>
+      <c r="S139" t="n">
+        <v>0.3178021978021978</v>
       </c>
     </row>
     <row r="140">
@@ -10490,6 +10909,9 @@
       <c r="R140" t="n">
         <v>0.1064993784264799</v>
       </c>
+      <c r="S140" t="n">
+        <v>0.3956769954183747</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -10558,6 +10980,9 @@
       <c r="R141" t="n">
         <v>0.04970760233918128</v>
       </c>
+      <c r="S141" t="n">
+        <v>0.191105808352049</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -10625,6 +11050,9 @@
       </c>
       <c r="R142" t="n">
         <v>0.03785555528565876</v>
+      </c>
+      <c r="S142" t="n">
+        <v>0.2707260579313739</v>
       </c>
     </row>
     <row r="143">
@@ -10688,6 +11116,9 @@
       <c r="R143" t="n">
         <v>0.07430048547343068</v>
       </c>
+      <c r="S143" t="n">
+        <v>0.3421073163720223</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -10764,6 +11195,9 @@
       <c r="R144" t="n">
         <v>0.08607824106909552</v>
       </c>
+      <c r="S144" t="n">
+        <v>0.281365443302563</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -10841,6 +11275,9 @@
       </c>
       <c r="R145" t="n">
         <v>0.1169253147464157</v>
+      </c>
+      <c r="S145" t="n">
+        <v>0.4133212858637307</v>
       </c>
     </row>
     <row r="146">
@@ -10904,6 +11341,9 @@
       <c r="R146" t="n">
         <v>0.05448480355819126</v>
       </c>
+      <c r="S146" t="n">
+        <v>0.244881538290351</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -10966,6 +11406,9 @@
       <c r="R147" t="n">
         <v>0.04315872403369991</v>
       </c>
+      <c r="S147" t="n">
+        <v>0.3241471415309218</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -11042,6 +11485,9 @@
       <c r="R148" t="n">
         <v>0.06639758765358106</v>
       </c>
+      <c r="S148" t="n">
+        <v>0.3759947104901882</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -11118,6 +11564,9 @@
       <c r="R149" t="n">
         <v>0.07208325440581705</v>
       </c>
+      <c r="S149" t="n">
+        <v>0.3062924735111436</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -11193,6 +11642,9 @@
       </c>
       <c r="R150" t="n">
         <v>0.0903130946203079</v>
+      </c>
+      <c r="S150" t="n">
+        <v>0.1757912176390437</v>
       </c>
     </row>
     <row r="151">
@@ -11268,6 +11720,9 @@
       <c r="R151" t="n">
         <v>0.05698005698005698</v>
       </c>
+      <c r="S151" t="n">
+        <v>0.286403825888414</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -11343,6 +11798,9 @@
       </c>
       <c r="R152" t="n">
         <v>0.02528735632183908</v>
+      </c>
+      <c r="S152" t="n">
+        <v>0.271362380229575</v>
       </c>
     </row>
     <row r="153">
@@ -11414,6 +11872,9 @@
       <c r="R153" t="n">
         <v>0.04166666666666666</v>
       </c>
+      <c r="S153" t="n">
+        <v>0.04868951612903226</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -11484,6 +11945,9 @@
       <c r="R154" t="n">
         <v>0.05838509316770187</v>
       </c>
+      <c r="S154" t="n">
+        <v>0.3029636273113897</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -11554,6 +12018,9 @@
       <c r="R155" t="n">
         <v>0.06452991452991452</v>
       </c>
+      <c r="S155" t="n">
+        <v>0.2470174662106029</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -11630,6 +12097,9 @@
       <c r="R156" t="n">
         <v>0.005681818181818182</v>
       </c>
+      <c r="S156" t="n">
+        <v>0.08347647828954491</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -11706,6 +12176,9 @@
       <c r="R157" t="n">
         <v>0.05371223064885036</v>
       </c>
+      <c r="S157" t="n">
+        <v>0.3239355397611124</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -11781,6 +12254,9 @@
       </c>
       <c r="R158" t="n">
         <v>0.06914578111946533</v>
+      </c>
+      <c r="S158" t="n">
+        <v>0.3125143935110596</v>
       </c>
     </row>
     <row r="159">
@@ -11856,6 +12332,9 @@
       <c r="R159" t="n">
         <v>0.03363095238095238</v>
       </c>
+      <c r="S159" t="n">
+        <v>0.2780813953488372</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -11932,6 +12411,9 @@
       <c r="R160" t="n">
         <v>0.07692273526746851</v>
       </c>
+      <c r="S160" t="n">
+        <v>0.2875833960150123</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -12008,6 +12490,9 @@
       <c r="R161" t="n">
         <v>0.01954341058457281</v>
       </c>
+      <c r="S161" t="n">
+        <v>0.1883932848930054</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -12084,6 +12569,9 @@
       <c r="R162" t="n">
         <v>0.05202973698507558</v>
       </c>
+      <c r="S162" t="n">
+        <v>0.2496171533792287</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -12160,6 +12648,9 @@
       <c r="R163" t="n">
         <v>0.05017212725546059</v>
       </c>
+      <c r="S163" t="n">
+        <v>0.301229913703318</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -12237,6 +12728,9 @@
       </c>
       <c r="R164" t="n">
         <v>0.1399074926168522</v>
+      </c>
+      <c r="S164" t="n">
+        <v>0.4369411888896962</v>
       </c>
     </row>
     <row r="165">
@@ -12312,6 +12806,9 @@
       <c r="R165" t="n">
         <v>0.1088595930960038</v>
       </c>
+      <c r="S165" t="n">
+        <v>0.3729404404404404</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -12387,6 +12884,9 @@
       </c>
       <c r="R166" t="n">
         <v>0.126178033436098</v>
+      </c>
+      <c r="S166" t="n">
+        <v>0.1511588167629157</v>
       </c>
     </row>
     <row r="167">
@@ -12462,6 +12962,9 @@
       <c r="R167" t="n">
         <v>0.0819451471456278</v>
       </c>
+      <c r="S167" t="n">
+        <v>0.2692744755244755</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -12538,6 +13041,9 @@
       <c r="R168" t="n">
         <v>0.07520363408521304</v>
       </c>
+      <c r="S168" t="n">
+        <v>0.3775288126507639</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -12614,6 +13120,9 @@
       <c r="R169" t="n">
         <v>0.1239348749654601</v>
       </c>
+      <c r="S169" t="n">
+        <v>0.2982500580728793</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -12683,6 +13192,9 @@
       </c>
       <c r="R170" t="n">
         <v>0.07579153693213789</v>
+      </c>
+      <c r="S170" t="n">
+        <v>0.3351247048335514</v>
       </c>
     </row>
     <row r="171">
@@ -12746,6 +13258,9 @@
       <c r="R171" t="n">
         <v>0.07872941012475897</v>
       </c>
+      <c r="S171" t="n">
+        <v>0.2315814393939394</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -12823,6 +13338,9 @@
       </c>
       <c r="R172" t="n">
         <v>0</v>
+      </c>
+      <c r="S172" t="n">
+        <v>0.310705841603398</v>
       </c>
     </row>
     <row r="173">
@@ -12886,6 +13404,9 @@
       <c r="R173" t="n">
         <v>0.05866682643952728</v>
       </c>
+      <c r="S173" t="n">
+        <v>0.2325446828689753</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -12948,6 +13469,9 @@
       <c r="R174" t="n">
         <v>0.02040816326530612</v>
       </c>
+      <c r="S174" t="n">
+        <v>0.0405549130560489</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -13022,6 +13546,9 @@
       <c r="R175" t="n">
         <v>0.01333570412517781</v>
       </c>
+      <c r="S175" t="n">
+        <v>0.1180874450415242</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -13099,6 +13626,9 @@
       </c>
       <c r="R176" t="n">
         <v>0.01207590569292697</v>
+      </c>
+      <c r="S176" t="n">
+        <v>0.3414307238551444</v>
       </c>
     </row>
     <row r="177">
@@ -13174,6 +13704,9 @@
       <c r="R177" t="n">
         <v>0.02708510940608127</v>
       </c>
+      <c r="S177" t="n">
+        <v>0.1254240845200192</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -13250,6 +13783,9 @@
       <c r="R178" t="n">
         <v>0.07931857500010667</v>
       </c>
+      <c r="S178" t="n">
+        <v>0.3253770295706729</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -13325,6 +13861,9 @@
       </c>
       <c r="R179" t="n">
         <v>0.08429164612350548</v>
+      </c>
+      <c r="S179" t="n">
+        <v>0.1056126219331954</v>
       </c>
     </row>
     <row r="180">
@@ -13400,6 +13939,9 @@
       <c r="R180" t="n">
         <v>0.04411764705882353</v>
       </c>
+      <c r="S180" t="n">
+        <v>0.07669671000788023</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -13470,6 +14012,9 @@
       <c r="R181" t="n">
         <v>0.07588803691331782</v>
       </c>
+      <c r="S181" t="n">
+        <v>0.3500054848897665</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -13546,6 +14091,9 @@
       <c r="R182" t="n">
         <v>0.09012640991034415</v>
       </c>
+      <c r="S182" t="n">
+        <v>0.2755578250718032</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -13621,6 +14169,9 @@
       </c>
       <c r="R183" t="n">
         <v>0.0617003367003367</v>
+      </c>
+      <c r="S183" t="n">
+        <v>0.2747765862527946</v>
       </c>
     </row>
     <row r="184">
@@ -13696,6 +14247,9 @@
       <c r="R184" t="n">
         <v>0.05019109658189511</v>
       </c>
+      <c r="S184" t="n">
+        <v>0.2512373497581082</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -13768,6 +14322,9 @@
       <c r="R185" t="n">
         <v>0.07363351254480287</v>
       </c>
+      <c r="S185" t="n">
+        <v>0.2696115270205416</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -13843,6 +14400,9 @@
       </c>
       <c r="R186" t="n">
         <v>0.03412700700931585</v>
+      </c>
+      <c r="S186" t="n">
+        <v>0.2623324646314222</v>
       </c>
     </row>
     <row r="187">
@@ -13918,6 +14478,9 @@
       <c r="R187" t="n">
         <v>0.04255106446020051</v>
       </c>
+      <c r="S187" t="n">
+        <v>0.2996831865706038</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -13982,6 +14545,9 @@
       <c r="R188" t="n">
         <v>0.009615384615384614</v>
       </c>
+      <c r="S188" t="n">
+        <v>0.04738516878804649</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -14058,6 +14624,9 @@
       <c r="R189" t="n">
         <v>0.0447806191561767</v>
       </c>
+      <c r="S189" t="n">
+        <v>0.09310055542698449</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -14133,6 +14702,9 @@
       </c>
       <c r="R190" t="n">
         <v>0.06980056980056981</v>
+      </c>
+      <c r="S190" t="n">
+        <v>0.1099094953213683</v>
       </c>
     </row>
     <row r="191">
@@ -14204,6 +14776,9 @@
       <c r="R191" t="n">
         <v>0.05092817088788591</v>
       </c>
+      <c r="S191" t="n">
+        <v>0.2233161897529714</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -14281,6 +14856,9 @@
       </c>
       <c r="R192" t="n">
         <v>0.01416122004357299</v>
+      </c>
+      <c r="S192" t="n">
+        <v>0.320144613947038</v>
       </c>
     </row>
     <row r="193">
@@ -14349,6 +14927,9 @@
       </c>
       <c r="R193" t="n">
         <v>0.07269790856451473</v>
+      </c>
+      <c r="S193" t="n">
+        <v>0.2548226409262225</v>
       </c>
     </row>
     <row r="194">
@@ -14412,6 +14993,9 @@
       <c r="R194" t="n">
         <v>0.07833333333333334</v>
       </c>
+      <c r="S194" t="n">
+        <v>0.3438971974563001</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -14489,6 +15073,9 @@
       </c>
       <c r="R195" t="n">
         <v>0.09274741092922911</v>
+      </c>
+      <c r="S195" t="n">
+        <v>0.3237704939392229</v>
       </c>
     </row>
     <row r="196">
@@ -14560,6 +15147,9 @@
       <c r="R196" t="n">
         <v>0.09364492917506874</v>
       </c>
+      <c r="S196" t="n">
+        <v>0.3654845305159475</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -14636,6 +15226,9 @@
       <c r="R197" t="n">
         <v>0.07019048984892616</v>
       </c>
+      <c r="S197" t="n">
+        <v>0.2976210233842759</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -14713,6 +15306,9 @@
       </c>
       <c r="R198" t="n">
         <v>0.09793447586169104</v>
+      </c>
+      <c r="S198" t="n">
+        <v>0.2886705677495535</v>
       </c>
     </row>
     <row r="199">
@@ -14782,6 +15378,9 @@
       <c r="R199" t="n">
         <v>0.03378378378378379</v>
       </c>
+      <c r="S199" t="n">
+        <v>0.1213393519254198</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -14857,6 +15456,9 @@
       </c>
       <c r="R200" t="n">
         <v>0.0506388959877332</v>
+      </c>
+      <c r="S200" t="n">
+        <v>0.2365736672807519</v>
       </c>
     </row>
     <row r="201">
@@ -14922,6 +15524,9 @@
       <c r="R201" t="n">
         <v>0.0579187678244282</v>
       </c>
+      <c r="S201" t="n">
+        <v>0.3084219194924347</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -15000,6 +15605,9 @@
       <c r="R202" t="n">
         <v>0.07599955488060328</v>
       </c>
+      <c r="S202" t="n">
+        <v>0.2943820240646866</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -15077,6 +15685,9 @@
       </c>
       <c r="R203" t="n">
         <v>0.09005952380952381</v>
+      </c>
+      <c r="S203" t="n">
+        <v>0.2806850160687845</v>
       </c>
     </row>
     <row r="204">
@@ -15146,6 +15757,9 @@
       <c r="R204" t="n">
         <v>0.0903265236886045</v>
       </c>
+      <c r="S204" t="n">
+        <v>0.4006585026958826</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -15221,6 +15835,9 @@
       </c>
       <c r="R205" t="n">
         <v>0.07018808548009368</v>
+      </c>
+      <c r="S205" t="n">
+        <v>0.2735147900229422</v>
       </c>
     </row>
   </sheetData>

--- a/SIB-200 languages - ACL.xlsx
+++ b/SIB-200 languages - ACL.xlsx
@@ -600,7 +600,7 @@
         <v>0.04656862745098039</v>
       </c>
       <c r="S2" t="n">
-        <v>0.09070043103448276</v>
+        <v>0.1051919359293013</v>
       </c>
     </row>
     <row r="3">
@@ -673,7 +673,7 @@
         <v>0.116461849162742</v>
       </c>
       <c r="S3" t="n">
-        <v>0.3683862836593088</v>
+        <v>0.3528883593808499</v>
       </c>
     </row>
     <row r="4">
@@ -740,7 +740,7 @@
         <v>0.1289839632211324</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3907859603789836</v>
+        <v>0.4595071456405616</v>
       </c>
     </row>
     <row r="5">
@@ -807,7 +807,7 @@
         <v>0.08032407407407408</v>
       </c>
       <c r="S5" t="n">
-        <v>0.4011704460054532</v>
+        <v>0.4603651206592383</v>
       </c>
     </row>
     <row r="6">
@@ -874,7 +874,7 @@
         <v>0.06823489438271074</v>
       </c>
       <c r="S6" t="n">
-        <v>0.3734657155709787</v>
+        <v>0.4552987264663793</v>
       </c>
     </row>
     <row r="7">
@@ -953,7 +953,7 @@
         <v>0.07299462924462925</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3117627140301559</v>
+        <v>0.4149810195974722</v>
       </c>
     </row>
     <row r="8">
@@ -1020,7 +1020,7 @@
         <v>0.11784510974201</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3540195576780942</v>
+        <v>0.4376203563877983</v>
       </c>
     </row>
     <row r="9">
@@ -1099,7 +1099,7 @@
         <v>0.04883003242314152</v>
       </c>
       <c r="S9" t="n">
-        <v>0.296255737600408</v>
+        <v>0.310248032497588</v>
       </c>
     </row>
     <row r="10">
@@ -1170,7 +1170,7 @@
         <v>0.0432999348321929</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3093343084953823</v>
+        <v>0.2690240048716606</v>
       </c>
     </row>
     <row r="11">
@@ -1249,7 +1249,7 @@
         <v>0.03770949720670392</v>
       </c>
       <c r="S11" t="n">
-        <v>0.08756627522527154</v>
+        <v>0.0691921403578806</v>
       </c>
     </row>
     <row r="12">
@@ -1316,7 +1316,7 @@
         <v>0.1290329167687658</v>
       </c>
       <c r="S12" t="n">
-        <v>0.3965951236852023</v>
+        <v>0.4509892034665022</v>
       </c>
     </row>
     <row r="13">
@@ -1385,7 +1385,7 @@
         <v>0.09491891499435269</v>
       </c>
       <c r="S13" t="n">
-        <v>0.3767832752299624</v>
+        <v>0.4568021014073646</v>
       </c>
     </row>
     <row r="14">
@@ -1452,7 +1452,7 @@
         <v>0.04437229437229437</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1955820956146577</v>
+        <v>0.2270427227713659</v>
       </c>
     </row>
     <row r="15">
@@ -1519,7 +1519,7 @@
         <v>0.09921926292292205</v>
       </c>
       <c r="S15" t="n">
-        <v>0.3714567361946708</v>
+        <v>0.4585028122708691</v>
       </c>
     </row>
     <row r="16">
@@ -1586,7 +1586,7 @@
         <v>0.1207316282537521</v>
       </c>
       <c r="S16" t="n">
-        <v>0.3701715169520402</v>
+        <v>0.439471210603868</v>
       </c>
     </row>
     <row r="17">
@@ -1651,7 +1651,7 @@
         <v>0.118021230281441</v>
       </c>
       <c r="S17" t="n">
-        <v>0.3893145416379112</v>
+        <v>0.4907216943175632</v>
       </c>
     </row>
     <row r="18">
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0.3557140934176874</v>
+        <v>0.3580787342234046</v>
       </c>
     </row>
     <row r="19">
@@ -1805,7 +1805,7 @@
         <v>0.1046194546194546</v>
       </c>
       <c r="S19" t="n">
-        <v>0.4531567683844723</v>
+        <v>0.4884241240462051</v>
       </c>
     </row>
     <row r="20">
@@ -1878,7 +1878,7 @@
         <v>0.03849865527606391</v>
       </c>
       <c r="S20" t="n">
-        <v>0.3255910559257016</v>
+        <v>0.3044471358150603</v>
       </c>
     </row>
     <row r="21">
@@ -1943,7 +1943,7 @@
         <v>0.05352633477633478</v>
       </c>
       <c r="S21" t="n">
-        <v>0.2678994640899403</v>
+        <v>0.2969859473482495</v>
       </c>
     </row>
     <row r="22">
@@ -2008,7 +2008,7 @@
         <v>0.03730158730158731</v>
       </c>
       <c r="S22" t="n">
-        <v>0.1605946684894053</v>
+        <v>0.1701496350178728</v>
       </c>
     </row>
     <row r="23">
@@ -2075,7 +2075,7 @@
         <v>0.0552703373015873</v>
       </c>
       <c r="S23" t="n">
-        <v>0.2365546218487395</v>
+        <v>0.2165937999771226</v>
       </c>
     </row>
     <row r="24">
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0.1172363379713652</v>
+        <v>0.1199379651153131</v>
       </c>
     </row>
     <row r="25">
@@ -2231,7 +2231,7 @@
         <v>0.02939322301024429</v>
       </c>
       <c r="S25" t="n">
-        <v>0.2505002470355731</v>
+        <v>0.2381400853513182</v>
       </c>
     </row>
     <row r="26">
@@ -2304,7 +2304,7 @@
         <v>0.1072459991748637</v>
       </c>
       <c r="S26" t="n">
-        <v>0.370645915881345</v>
+        <v>0.3947338361045388</v>
       </c>
     </row>
     <row r="27">
@@ -2383,7 +2383,7 @@
         <v>0.06901808578745197</v>
       </c>
       <c r="S27" t="n">
-        <v>0.08881038448899112</v>
+        <v>0.06390497469335644</v>
       </c>
     </row>
     <row r="28">
@@ -2456,7 +2456,7 @@
         <v>0.06022809185459788</v>
       </c>
       <c r="S28" t="n">
-        <v>0.2751988777521063</v>
+        <v>0.2651773149451168</v>
       </c>
     </row>
     <row r="29">
@@ -2537,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0.3638318742130999</v>
+        <v>0.4507358407690966</v>
       </c>
     </row>
     <row r="30">
@@ -2610,7 +2610,7 @@
         <v>0.02599379132398</v>
       </c>
       <c r="S30" t="n">
-        <v>0.301610305958132</v>
+        <v>0.2938244023728921</v>
       </c>
     </row>
     <row r="31">
@@ -2675,7 +2675,7 @@
         <v>0.03203125</v>
       </c>
       <c r="S31" t="n">
-        <v>0.09680952380952382</v>
+        <v>0.1077215001921532</v>
       </c>
     </row>
     <row r="32">
@@ -2740,7 +2740,7 @@
         <v>0.0841221752630671</v>
       </c>
       <c r="S32" t="n">
-        <v>0.3727749339952695</v>
+        <v>0.3681583940497875</v>
       </c>
     </row>
     <row r="33">
@@ -2817,7 +2817,7 @@
         <v>0.03235294117647058</v>
       </c>
       <c r="S33" t="n">
-        <v>0.05386317222600408</v>
+        <v>0.05972305240087667</v>
       </c>
     </row>
     <row r="34">
@@ -2896,7 +2896,7 @@
         <v>0.07151783638356529</v>
       </c>
       <c r="S34" t="n">
-        <v>0.3117566663297645</v>
+        <v>0.2900944317644398</v>
       </c>
     </row>
     <row r="35">
@@ -2969,7 +2969,7 @@
         <v>0.08899496775412413</v>
       </c>
       <c r="S35" t="n">
-        <v>0.3423585884795018</v>
+        <v>0.3821148618024516</v>
       </c>
     </row>
     <row r="36">
@@ -3048,7 +3048,7 @@
         <v>0.05846508563899869</v>
       </c>
       <c r="S36" t="n">
-        <v>0.146856097354824</v>
+        <v>0.1291534105494061</v>
       </c>
     </row>
     <row r="37">
@@ -3129,7 +3129,7 @@
         <v>0.06680341055341055</v>
       </c>
       <c r="S37" t="n">
-        <v>0.456802037335402</v>
+        <v>0.494547665855617</v>
       </c>
     </row>
     <row r="38">
@@ -3202,7 +3202,7 @@
         <v>0.09252694138660329</v>
       </c>
       <c r="S38" t="n">
-        <v>0.3317517654669598</v>
+        <v>0.3795776905641622</v>
       </c>
     </row>
     <row r="39">
@@ -3281,7 +3281,7 @@
         <v>0.04956501831501831</v>
       </c>
       <c r="S39" t="n">
-        <v>0.3015296708940777</v>
+        <v>0.3004836245038967</v>
       </c>
     </row>
     <row r="40">
@@ -3348,7 +3348,7 @@
         <v>0.06088033984731575</v>
       </c>
       <c r="S40" t="n">
-        <v>0.2627459685417076</v>
+        <v>0.3362904366960932</v>
       </c>
     </row>
     <row r="41">
@@ -3413,7 +3413,7 @@
         <v>0.02228163992869875</v>
       </c>
       <c r="S41" t="n">
-        <v>0.1345762516760939</v>
+        <v>0.07048595685199432</v>
       </c>
     </row>
     <row r="42">
@@ -3486,7 +3486,7 @@
         <v>0.05557141648690945</v>
       </c>
       <c r="S42" t="n">
-        <v>0.2505593889923849</v>
+        <v>0.3010844251903023</v>
       </c>
     </row>
     <row r="43">
@@ -3565,7 +3565,7 @@
         <v>0.06854777167277168</v>
       </c>
       <c r="S43" t="n">
-        <v>0.242181583404605</v>
+        <v>0.3052283246725594</v>
       </c>
     </row>
     <row r="44">
@@ -3644,7 +3644,7 @@
         <v>0.119688374014747</v>
       </c>
       <c r="S44" t="n">
-        <v>0.3224900059138657</v>
+        <v>0.4004265492393984</v>
       </c>
     </row>
     <row r="45">
@@ -3723,7 +3723,7 @@
         <v>0.1172670707627313</v>
       </c>
       <c r="S45" t="n">
-        <v>0.3425158540084919</v>
+        <v>0.3958613437075879</v>
       </c>
     </row>
     <row r="46">
@@ -3788,7 +3788,7 @@
         <v>0.05423806458853953</v>
       </c>
       <c r="S46" t="n">
-        <v>0.2628034523702301</v>
+        <v>0.2599193718304864</v>
       </c>
     </row>
     <row r="47">
@@ -3861,7 +3861,7 @@
         <v>0.0756990446810171</v>
       </c>
       <c r="S47" t="n">
-        <v>0.2761562232475772</v>
+        <v>0.3386894786079296</v>
       </c>
     </row>
     <row r="48">
@@ -3938,7 +3938,7 @@
         <v>0.03260869565217392</v>
       </c>
       <c r="S48" t="n">
-        <v>0.04028925619834711</v>
+        <v>0.0468384074941452</v>
       </c>
     </row>
     <row r="49">
@@ -4017,7 +4017,7 @@
         <v>0.02892561983471074</v>
       </c>
       <c r="S49" t="n">
-        <v>0.1420755395426053</v>
+        <v>0.1159680531732418</v>
       </c>
     </row>
     <row r="50">
@@ -4098,7 +4098,7 @@
         <v>0.05380150539550035</v>
       </c>
       <c r="S50" t="n">
-        <v>0.4202765820303225</v>
+        <v>0.5217400167074505</v>
       </c>
     </row>
     <row r="51">
@@ -4177,7 +4177,7 @@
         <v>0.06616844116844117</v>
       </c>
       <c r="S51" t="n">
-        <v>0.3413712145757019</v>
+        <v>0.3474284157929726</v>
       </c>
     </row>
     <row r="52">
@@ -4256,7 +4256,7 @@
         <v>0.09298962531721153</v>
       </c>
       <c r="S52" t="n">
-        <v>0.2791354712754004</v>
+        <v>0.3303312679848648</v>
       </c>
     </row>
     <row r="53">
@@ -4337,7 +4337,7 @@
         <v>0.06090346586395752</v>
       </c>
       <c r="S53" t="n">
-        <v>0.4030589001298249</v>
+        <v>0.4387968835643254</v>
       </c>
     </row>
     <row r="54">
@@ -4414,7 +4414,7 @@
         <v>0.04545940170940171</v>
       </c>
       <c r="S54" t="n">
-        <v>0.2631649818013417</v>
+        <v>0.288177418183139</v>
       </c>
     </row>
     <row r="55">
@@ -4491,7 +4491,7 @@
         <v>0.06445645451856633</v>
       </c>
       <c r="S55" t="n">
-        <v>0.2299949733388913</v>
+        <v>0.2196705295021234</v>
       </c>
     </row>
     <row r="56">
@@ -4568,7 +4568,7 @@
         <v>0.05947871572871574</v>
       </c>
       <c r="S56" t="n">
-        <v>0.2531380518865041</v>
+        <v>0.3196315388149465</v>
       </c>
     </row>
     <row r="57">
@@ -4647,7 +4647,7 @@
         <v>0.05425324675324676</v>
       </c>
       <c r="S57" t="n">
-        <v>0.2808818362857735</v>
+        <v>0.2567556139183135</v>
       </c>
     </row>
     <row r="58">
@@ -4722,7 +4722,7 @@
         <v>0.02544544123602156</v>
       </c>
       <c r="S58" t="n">
-        <v>0.2701452957327042</v>
+        <v>0.2378989011581146</v>
       </c>
     </row>
     <row r="59">
@@ -4803,7 +4803,7 @@
         <v>0.1043923269201636</v>
       </c>
       <c r="S59" t="n">
-        <v>0.4293815696579533</v>
+        <v>0.5243499555999556</v>
       </c>
     </row>
     <row r="60">
@@ -4876,7 +4876,7 @@
         <v>0.0434939456678587</v>
       </c>
       <c r="S60" t="n">
-        <v>0.3718636467653506</v>
+        <v>0.4037783198638674</v>
       </c>
     </row>
     <row r="61">
@@ -4941,7 +4941,7 @@
         <v>0.08753997405077615</v>
       </c>
       <c r="S61" t="n">
-        <v>0.3035802676530116</v>
+        <v>0.3013049294171221</v>
       </c>
     </row>
     <row r="62">
@@ -5012,7 +5012,7 @@
         <v>0.06228913630229418</v>
       </c>
       <c r="S62" t="n">
-        <v>0.1840219030756115</v>
+        <v>0.1657409654323659</v>
       </c>
     </row>
     <row r="63">
@@ -5091,7 +5091,7 @@
         <v>0.07772533973574365</v>
       </c>
       <c r="S63" t="n">
-        <v>0.2250104733975702</v>
+        <v>0.229257785893367</v>
       </c>
     </row>
     <row r="64">
@@ -5170,7 +5170,7 @@
         <v>0.0531873118373402</v>
       </c>
       <c r="S64" t="n">
-        <v>0.2271187258687259</v>
+        <v>0.2040362358674175</v>
       </c>
     </row>
     <row r="65">
@@ -5249,7 +5249,7 @@
         <v>0.1161213110295118</v>
       </c>
       <c r="S65" t="n">
-        <v>0.422134169961877</v>
+        <v>0.5172431982575088</v>
       </c>
     </row>
     <row r="66">
@@ -5326,7 +5326,7 @@
         <v>0.05536522301228183</v>
       </c>
       <c r="S66" t="n">
-        <v>0.3150487080193367</v>
+        <v>0.3478402930853429</v>
       </c>
     </row>
     <row r="67">
@@ -5407,7 +5407,7 @@
         <v>0.008474576271186441</v>
       </c>
       <c r="S67" t="n">
-        <v>0.3302532177919711</v>
+        <v>0.3845072479730258</v>
       </c>
     </row>
     <row r="68">
@@ -5484,7 +5484,7 @@
         <v>0.07918320105820106</v>
       </c>
       <c r="S68" t="n">
-        <v>0.2879818931128506</v>
+        <v>0.3005369355851769</v>
       </c>
     </row>
     <row r="69">
@@ -5563,7 +5563,7 @@
         <v>0.04474194206446348</v>
       </c>
       <c r="S69" t="n">
-        <v>0.3117668729737695</v>
+        <v>0.2370531275000187</v>
       </c>
     </row>
     <row r="70">
@@ -5642,7 +5642,7 @@
         <v>0.06838050316788069</v>
       </c>
       <c r="S70" t="n">
-        <v>0.100731316369465</v>
+        <v>0.05272000726546181</v>
       </c>
     </row>
     <row r="71">
@@ -5723,7 +5723,7 @@
         <v>0.006756756756756757</v>
       </c>
       <c r="S71" t="n">
-        <v>0.3254412159628695</v>
+        <v>0.3611615433549396</v>
       </c>
     </row>
     <row r="72">
@@ -5790,7 +5790,7 @@
         <v>0.02040816326530612</v>
       </c>
       <c r="S72" t="n">
-        <v>0.2877494290652556</v>
+        <v>0.3284486373165619</v>
       </c>
     </row>
     <row r="73">
@@ -5869,7 +5869,7 @@
         <v>0.07500769463390879</v>
       </c>
       <c r="S73" t="n">
-        <v>0.2816965024110335</v>
+        <v>0.2816808424775204</v>
       </c>
     </row>
     <row r="74">
@@ -5948,7 +5948,7 @@
         <v>0.0657846057986253</v>
       </c>
       <c r="S74" t="n">
-        <v>0.28943290503387</v>
+        <v>0.2756712337296094</v>
       </c>
     </row>
     <row r="75">
@@ -6027,7 +6027,7 @@
         <v>0.03483606557377049</v>
       </c>
       <c r="S75" t="n">
-        <v>0.03859060402684564</v>
+        <v>0.04492795950155764</v>
       </c>
     </row>
     <row r="76">
@@ -6106,7 +6106,7 @@
         <v>0.1045085159405201</v>
       </c>
       <c r="S76" t="n">
-        <v>0.2735011441647597</v>
+        <v>0.2696717407032516</v>
       </c>
     </row>
     <row r="77">
@@ -6179,7 +6179,7 @@
         <v>0.07455071948134091</v>
       </c>
       <c r="S77" t="n">
-        <v>0.3619225881294846</v>
+        <v>0.3759902399748635</v>
       </c>
     </row>
     <row r="78">
@@ -6260,7 +6260,7 @@
         <v>0.08981481481481482</v>
       </c>
       <c r="S78" t="n">
-        <v>0.4085303909989531</v>
+        <v>0.4582668860944492</v>
       </c>
     </row>
     <row r="79">
@@ -6339,7 +6339,7 @@
         <v>0.04743092824488173</v>
       </c>
       <c r="S79" t="n">
-        <v>0.2289802925250098</v>
+        <v>0.2027819016174661</v>
       </c>
     </row>
     <row r="80">
@@ -6418,7 +6418,7 @@
         <v>0.1105694980694981</v>
       </c>
       <c r="S80" t="n">
-        <v>0.4039683680249718</v>
+        <v>0.4410312805474096</v>
       </c>
     </row>
     <row r="81">
@@ -6497,7 +6497,7 @@
         <v>0.09582624500253337</v>
       </c>
       <c r="S81" t="n">
-        <v>0.3947003214297173</v>
+        <v>0.4008526564712406</v>
       </c>
     </row>
     <row r="82">
@@ -6576,7 +6576,7 @@
         <v>0.06713497245385748</v>
       </c>
       <c r="S82" t="n">
-        <v>0.235208102041176</v>
+        <v>0.2427859952793076</v>
       </c>
     </row>
     <row r="83">
@@ -6649,7 +6649,7 @@
         <v>0.05896328048808147</v>
       </c>
       <c r="S83" t="n">
-        <v>0.1238629862700229</v>
+        <v>0.1407950965296273</v>
       </c>
     </row>
     <row r="84">
@@ -6722,7 +6722,7 @@
         <v>0.03052184466019418</v>
       </c>
       <c r="S84" t="n">
-        <v>0.27211174487944</v>
+        <v>0.2451198873472341</v>
       </c>
     </row>
     <row r="85">
@@ -6795,7 +6795,7 @@
         <v>0.05681818181818182</v>
       </c>
       <c r="S85" t="n">
-        <v>0.2780394157159739</v>
+        <v>0.2730351111736561</v>
       </c>
     </row>
     <row r="86">
@@ -6876,7 +6876,7 @@
         <v>0.01285797779076564</v>
       </c>
       <c r="S86" t="n">
-        <v>0.3301407220242923</v>
+        <v>0.4155700502492404</v>
       </c>
     </row>
     <row r="87">
@@ -6953,7 +6953,7 @@
         <v>0.02598566308243727</v>
       </c>
       <c r="S87" t="n">
-        <v>0.2494397759103641</v>
+        <v>0.2845611273464116</v>
       </c>
     </row>
     <row r="88">
@@ -7030,7 +7030,7 @@
         <v>0.01985785953177258</v>
       </c>
       <c r="S88" t="n">
-        <v>0.213216176939003</v>
+        <v>0.205271050327213</v>
       </c>
     </row>
     <row r="89">
@@ -7109,7 +7109,7 @@
         <v>0.01960784313725491</v>
       </c>
       <c r="S89" t="n">
-        <v>0.1196394977511837</v>
+        <v>0.1094513318359023</v>
       </c>
     </row>
     <row r="90">
@@ -7188,7 +7188,7 @@
         <v>0.01744851258581236</v>
       </c>
       <c r="S90" t="n">
-        <v>0.1254913592810057</v>
+        <v>0.1475353707927126</v>
       </c>
     </row>
     <row r="91">
@@ -7253,7 +7253,7 @@
         <v>0.01507321274763135</v>
       </c>
       <c r="S91" t="n">
-        <v>0.2805411160778968</v>
+        <v>0.2547059330978768</v>
       </c>
     </row>
     <row r="92">
@@ -7320,7 +7320,7 @@
         <v>0.083774284535961</v>
       </c>
       <c r="S92" t="n">
-        <v>0.3751131932583546</v>
+        <v>0.3832232891990386</v>
       </c>
     </row>
     <row r="93">
@@ -7391,7 +7391,7 @@
         <v>0.03803483750292261</v>
       </c>
       <c r="S93" t="n">
-        <v>0.08239831697054699</v>
+        <v>0.09248267307279752</v>
       </c>
     </row>
     <row r="94">
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="S94" t="n">
-        <v>0.1809535756764793</v>
+        <v>0.1899591149591149</v>
       </c>
     </row>
     <row r="95">
@@ -7549,7 +7549,7 @@
         <v>0.05827991452991452</v>
       </c>
       <c r="S95" t="n">
-        <v>0.2829564048620851</v>
+        <v>0.3004678350313753</v>
       </c>
     </row>
     <row r="96">
@@ -7628,7 +7628,7 @@
         <v>0.04777200237816287</v>
       </c>
       <c r="S96" t="n">
-        <v>0.3233153896982801</v>
+        <v>0.3289811586801084</v>
       </c>
     </row>
     <row r="97">
@@ -7707,7 +7707,7 @@
         <v>0.02172904423136406</v>
       </c>
       <c r="S97" t="n">
-        <v>0.1321063396900866</v>
+        <v>0.1158916473227696</v>
       </c>
     </row>
     <row r="98">
@@ -7780,7 +7780,7 @@
         <v>0.06011085087570781</v>
       </c>
       <c r="S98" t="n">
-        <v>0.2634822884887972</v>
+        <v>0.2781733130770774</v>
       </c>
     </row>
     <row r="99">
@@ -7851,7 +7851,7 @@
         <v>0.04640485016991042</v>
       </c>
       <c r="S99" t="n">
-        <v>0.2287671328469243</v>
+        <v>0.2236010297893227</v>
       </c>
     </row>
     <row r="100">
@@ -7916,7 +7916,7 @@
         <v>0.0302547770700637</v>
       </c>
       <c r="S100" t="n">
-        <v>0.06261534877887079</v>
+        <v>0.08520084905956185</v>
       </c>
     </row>
     <row r="101">
@@ -7981,7 +7981,7 @@
         <v>0.08740765347908205</v>
       </c>
       <c r="S101" t="n">
-        <v>0.2957986484227619</v>
+        <v>0.2884179309261655</v>
       </c>
     </row>
     <row r="102">
@@ -8058,7 +8058,7 @@
         <v>0.1035795418491021</v>
       </c>
       <c r="S102" t="n">
-        <v>0.3358617947123999</v>
+        <v>0.3275991735341438</v>
       </c>
     </row>
     <row r="103">
@@ -8137,7 +8137,7 @@
         <v>0.03728070175438596</v>
       </c>
       <c r="S103" t="n">
-        <v>0.1331778206778207</v>
+        <v>0.1131149023390403</v>
       </c>
     </row>
     <row r="104">
@@ -8216,7 +8216,7 @@
         <v>0.0339265850945495</v>
       </c>
       <c r="S104" t="n">
-        <v>0.1798729979558371</v>
+        <v>0.1371817756810744</v>
       </c>
     </row>
     <row r="105">
@@ -8281,7 +8281,7 @@
         <v>0.09471677920473101</v>
       </c>
       <c r="S105" t="n">
-        <v>0.3550461033219654</v>
+        <v>0.4536359050632002</v>
       </c>
     </row>
     <row r="106">
@@ -8358,7 +8358,7 @@
         <v>0.0832019239464641</v>
       </c>
       <c r="S106" t="n">
-        <v>0.3137721998016115</v>
+        <v>0.3424676931255878</v>
       </c>
     </row>
     <row r="107">
@@ -8437,7 +8437,7 @@
         <v>0.1202591036414566</v>
       </c>
       <c r="S107" t="n">
-        <v>0.341674852024036</v>
+        <v>0.3541884707588369</v>
       </c>
     </row>
     <row r="108">
@@ -8516,7 +8516,7 @@
         <v>0.035</v>
       </c>
       <c r="S108" t="n">
-        <v>0.2495034503621055</v>
+        <v>0.2370319508875645</v>
       </c>
     </row>
     <row r="109">
@@ -8581,7 +8581,7 @@
         <v>0.09746453873382344</v>
       </c>
       <c r="S109" t="n">
-        <v>0.3199567088656211</v>
+        <v>0.3555986302254959</v>
       </c>
     </row>
     <row r="110">
@@ -8646,7 +8646,7 @@
         <v>0.06451481791155704</v>
       </c>
       <c r="S110" t="n">
-        <v>0.2696602365642613</v>
+        <v>0.2455785097616342</v>
       </c>
     </row>
     <row r="111">
@@ -8723,7 +8723,7 @@
         <v>0.1045088915034884</v>
       </c>
       <c r="S111" t="n">
-        <v>0.3238945427830517</v>
+        <v>0.3572259527323154</v>
       </c>
     </row>
     <row r="112">
@@ -8796,7 +8796,7 @@
         <v>0.0807578262562398</v>
       </c>
       <c r="S112" t="n">
-        <v>0.3209640284752728</v>
+        <v>0.348834509325548</v>
       </c>
     </row>
     <row r="113">
@@ -8875,7 +8875,7 @@
         <v>0.09996951542396673</v>
       </c>
       <c r="S113" t="n">
-        <v>0.2595320473136083</v>
+        <v>0.2676852641414497</v>
       </c>
     </row>
     <row r="114">
@@ -8950,7 +8950,7 @@
         <v>0.06117548537052229</v>
       </c>
       <c r="S114" t="n">
-        <v>0.2609109931827034</v>
+        <v>0.278430119659505</v>
       </c>
     </row>
     <row r="115">
@@ -9023,7 +9023,7 @@
         <v>0.07906480117820323</v>
       </c>
       <c r="S115" t="n">
-        <v>0.3219597399003874</v>
+        <v>0.3767827274258948</v>
       </c>
     </row>
     <row r="116">
@@ -9094,7 +9094,7 @@
         <v>0.02381627636874375</v>
       </c>
       <c r="S116" t="n">
-        <v>0.2656881766010174</v>
+        <v>0.2829722742470525</v>
       </c>
     </row>
     <row r="117">
@@ -9167,7 +9167,7 @@
         <v>0.03125</v>
       </c>
       <c r="S117" t="n">
-        <v>0.3248954599761051</v>
+        <v>0.3651799748892278</v>
       </c>
     </row>
     <row r="118">
@@ -9240,7 +9240,7 @@
         <v>0.02</v>
       </c>
       <c r="S118" t="n">
-        <v>0.3459200185834674</v>
+        <v>0.3633101912255343</v>
       </c>
     </row>
     <row r="119">
@@ -9321,7 +9321,7 @@
         <v>0.0275</v>
       </c>
       <c r="S119" t="n">
-        <v>0.3500042593784162</v>
+        <v>0.3940721003134797</v>
       </c>
     </row>
     <row r="120">
@@ -9402,7 +9402,7 @@
         <v>0</v>
       </c>
       <c r="S120" t="n">
-        <v>0.3194923972298946</v>
+        <v>0.393811051235561</v>
       </c>
     </row>
     <row r="121">
@@ -9475,7 +9475,7 @@
         <v>0.04109149277688603</v>
       </c>
       <c r="S121" t="n">
-        <v>0.1132762943109637</v>
+        <v>0.07944918858231551</v>
       </c>
     </row>
     <row r="122">
@@ -9548,7 +9548,7 @@
         <v>0.1137653563297978</v>
       </c>
       <c r="S122" t="n">
-        <v>0.3645563801085215</v>
+        <v>0.3654329767851605</v>
       </c>
     </row>
     <row r="123">
@@ -9627,7 +9627,7 @@
         <v>0.07273056255081199</v>
       </c>
       <c r="S123" t="n">
-        <v>0.1299435028248588</v>
+        <v>0.1402751167207706</v>
       </c>
     </row>
     <row r="124">
@@ -9704,7 +9704,7 @@
         <v>0.03348152264517922</v>
       </c>
       <c r="S124" t="n">
-        <v>0.3001043480924582</v>
+        <v>0.3489246542224936</v>
       </c>
     </row>
     <row r="125">
@@ -9779,7 +9779,7 @@
         <v>0</v>
       </c>
       <c r="S125" t="n">
-        <v>0.1534391534391534</v>
+        <v>0.168749633642289</v>
       </c>
     </row>
     <row r="126">
@@ -9852,7 +9852,7 @@
         <v>0.02124907612712491</v>
       </c>
       <c r="S126" t="n">
-        <v>0.2714341887843866</v>
+        <v>0.2392114426271403</v>
       </c>
     </row>
     <row r="127">
@@ -9929,7 +9929,7 @@
         <v>0.05235192739303079</v>
       </c>
       <c r="S127" t="n">
-        <v>0.2440288421170891</v>
+        <v>0.260150249152926</v>
       </c>
     </row>
     <row r="128">
@@ -10008,7 +10008,7 @@
         <v>0.06453099233679309</v>
       </c>
       <c r="S128" t="n">
-        <v>0.1114580732562118</v>
+        <v>0.09399791732090289</v>
       </c>
     </row>
     <row r="129">
@@ -10087,7 +10087,7 @@
         <v>0.07872691034455739</v>
       </c>
       <c r="S129" t="n">
-        <v>0.3339136302294197</v>
+        <v>0.3490490102933881</v>
       </c>
     </row>
     <row r="130">
@@ -10164,7 +10164,7 @@
         <v>0.1107526763791345</v>
       </c>
       <c r="S130" t="n">
-        <v>0.2966895455734742</v>
+        <v>0.3065918099309473</v>
       </c>
     </row>
     <row r="131">
@@ -10241,7 +10241,7 @@
         <v>0.1151382766831962</v>
       </c>
       <c r="S131" t="n">
-        <v>0.2908797131821687</v>
+        <v>0.3049493674493674</v>
       </c>
     </row>
     <row r="132">
@@ -10314,7 +10314,7 @@
         <v>0.03194915254237288</v>
       </c>
       <c r="S132" t="n">
-        <v>0.3388694366635543</v>
+        <v>0.3797122576790298</v>
       </c>
     </row>
     <row r="133">
@@ -10389,7 +10389,7 @@
         <v>0.06636936791298122</v>
       </c>
       <c r="S133" t="n">
-        <v>0.2745280691848198</v>
+        <v>0.3179982642356503</v>
       </c>
     </row>
     <row r="134">
@@ -10454,7 +10454,7 @@
         <v>0.03057747489239598</v>
       </c>
       <c r="S134" t="n">
-        <v>0.1905942675983437</v>
+        <v>0.1560795454545454</v>
       </c>
     </row>
     <row r="135">
@@ -10533,7 +10533,7 @@
         <v>0.06470494111623143</v>
       </c>
       <c r="S135" t="n">
-        <v>0.2919585162440262</v>
+        <v>0.3316350632979521</v>
       </c>
     </row>
     <row r="136">
@@ -10610,7 +10610,7 @@
         <v>0.09065745909038381</v>
       </c>
       <c r="S136" t="n">
-        <v>0.450389721832541</v>
+        <v>0.4468454484570604</v>
       </c>
     </row>
     <row r="137">
@@ -10683,7 +10683,7 @@
         <v>0.004545454545454545</v>
       </c>
       <c r="S137" t="n">
-        <v>0.3196635791744487</v>
+        <v>0.398363107814965</v>
       </c>
     </row>
     <row r="138">
@@ -10756,7 +10756,7 @@
         <v>0.08680482990827819</v>
       </c>
       <c r="S138" t="n">
-        <v>0.3484545291839161</v>
+        <v>0.4337481512947919</v>
       </c>
     </row>
     <row r="139">
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="S139" t="n">
-        <v>0.3178021978021978</v>
+        <v>0.3825382022478995</v>
       </c>
     </row>
     <row r="140">
@@ -10910,7 +10910,7 @@
         <v>0.1064993784264799</v>
       </c>
       <c r="S140" t="n">
-        <v>0.3956769954183747</v>
+        <v>0.3888908724574127</v>
       </c>
     </row>
     <row r="141">
@@ -10981,7 +10981,7 @@
         <v>0.04970760233918128</v>
       </c>
       <c r="S141" t="n">
-        <v>0.191105808352049</v>
+        <v>0.2183779194362718</v>
       </c>
     </row>
     <row r="142">
@@ -11052,7 +11052,7 @@
         <v>0.03785555528565876</v>
       </c>
       <c r="S142" t="n">
-        <v>0.2707260579313739</v>
+        <v>0.3134697570904499</v>
       </c>
     </row>
     <row r="143">
@@ -11117,7 +11117,7 @@
         <v>0.07430048547343068</v>
       </c>
       <c r="S143" t="n">
-        <v>0.3421073163720223</v>
+        <v>0.3097744137515521</v>
       </c>
     </row>
     <row r="144">
@@ -11196,7 +11196,7 @@
         <v>0.08607824106909552</v>
       </c>
       <c r="S144" t="n">
-        <v>0.281365443302563</v>
+        <v>0.2966560989574239</v>
       </c>
     </row>
     <row r="145">
@@ -11277,7 +11277,7 @@
         <v>0.1169253147464157</v>
       </c>
       <c r="S145" t="n">
-        <v>0.4133212858637307</v>
+        <v>0.511097244046414</v>
       </c>
     </row>
     <row r="146">
@@ -11342,7 +11342,7 @@
         <v>0.05448480355819126</v>
       </c>
       <c r="S146" t="n">
-        <v>0.244881538290351</v>
+        <v>0.3011426178910938</v>
       </c>
     </row>
     <row r="147">
@@ -11407,7 +11407,7 @@
         <v>0.04315872403369991</v>
       </c>
       <c r="S147" t="n">
-        <v>0.3241471415309218</v>
+        <v>0.3767704730377686</v>
       </c>
     </row>
     <row r="148">
@@ -11486,7 +11486,7 @@
         <v>0.06639758765358106</v>
       </c>
       <c r="S148" t="n">
-        <v>0.3759947104901882</v>
+        <v>0.4360415905492632</v>
       </c>
     </row>
     <row r="149">
@@ -11565,7 +11565,7 @@
         <v>0.07208325440581705</v>
       </c>
       <c r="S149" t="n">
-        <v>0.3062924735111436</v>
+        <v>0.3161502676679203</v>
       </c>
     </row>
     <row r="150">
@@ -11644,7 +11644,7 @@
         <v>0.0903130946203079</v>
       </c>
       <c r="S150" t="n">
-        <v>0.1757912176390437</v>
+        <v>0.1800394118504217</v>
       </c>
     </row>
     <row r="151">
@@ -11721,7 +11721,7 @@
         <v>0.05698005698005698</v>
       </c>
       <c r="S151" t="n">
-        <v>0.286403825888414</v>
+        <v>0.3016066828994325</v>
       </c>
     </row>
     <row r="152">
@@ -11800,7 +11800,7 @@
         <v>0.02528735632183908</v>
       </c>
       <c r="S152" t="n">
-        <v>0.271362380229575</v>
+        <v>0.2826964463083545</v>
       </c>
     </row>
     <row r="153">
@@ -11873,7 +11873,7 @@
         <v>0.04166666666666666</v>
       </c>
       <c r="S153" t="n">
-        <v>0.04868951612903226</v>
+        <v>0.05252566363677475</v>
       </c>
     </row>
     <row r="154">
@@ -11946,7 +11946,7 @@
         <v>0.05838509316770187</v>
       </c>
       <c r="S154" t="n">
-        <v>0.3029636273113897</v>
+        <v>0.3703796511844616</v>
       </c>
     </row>
     <row r="155">
@@ -12019,7 +12019,7 @@
         <v>0.06452991452991452</v>
       </c>
       <c r="S155" t="n">
-        <v>0.2470174662106029</v>
+        <v>0.182806600036989</v>
       </c>
     </row>
     <row r="156">
@@ -12098,7 +12098,7 @@
         <v>0.005681818181818182</v>
       </c>
       <c r="S156" t="n">
-        <v>0.08347647828954491</v>
+        <v>0.06838952293497748</v>
       </c>
     </row>
     <row r="157">
@@ -12177,7 +12177,7 @@
         <v>0.05371223064885036</v>
       </c>
       <c r="S157" t="n">
-        <v>0.3239355397611124</v>
+        <v>0.3574697903645272</v>
       </c>
     </row>
     <row r="158">
@@ -12256,7 +12256,7 @@
         <v>0.06914578111946533</v>
       </c>
       <c r="S158" t="n">
-        <v>0.3125143935110596</v>
+        <v>0.3028561554724346</v>
       </c>
     </row>
     <row r="159">
@@ -12333,7 +12333,7 @@
         <v>0.03363095238095238</v>
       </c>
       <c r="S159" t="n">
-        <v>0.2780813953488372</v>
+        <v>0.2703779859381213</v>
       </c>
     </row>
     <row r="160">
@@ -12412,7 +12412,7 @@
         <v>0.07692273526746851</v>
       </c>
       <c r="S160" t="n">
-        <v>0.2875833960150123</v>
+        <v>0.2822332003559516</v>
       </c>
     </row>
     <row r="161">
@@ -12491,7 +12491,7 @@
         <v>0.01954341058457281</v>
       </c>
       <c r="S161" t="n">
-        <v>0.1883932848930054</v>
+        <v>0.21614888953581</v>
       </c>
     </row>
     <row r="162">
@@ -12570,7 +12570,7 @@
         <v>0.05202973698507558</v>
       </c>
       <c r="S162" t="n">
-        <v>0.2496171533792287</v>
+        <v>0.2416461089930478</v>
       </c>
     </row>
     <row r="163">
@@ -12649,7 +12649,7 @@
         <v>0.05017212725546059</v>
       </c>
       <c r="S163" t="n">
-        <v>0.301229913703318</v>
+        <v>0.3016214779372674</v>
       </c>
     </row>
     <row r="164">
@@ -12730,7 +12730,7 @@
         <v>0.1399074926168522</v>
       </c>
       <c r="S164" t="n">
-        <v>0.4369411888896962</v>
+        <v>0.4886778969439165</v>
       </c>
     </row>
     <row r="165">
@@ -12807,7 +12807,7 @@
         <v>0.1088595930960038</v>
       </c>
       <c r="S165" t="n">
-        <v>0.3729404404404404</v>
+        <v>0.4245944607709313</v>
       </c>
     </row>
     <row r="166">
@@ -12886,7 +12886,7 @@
         <v>0.126178033436098</v>
       </c>
       <c r="S166" t="n">
-        <v>0.1511588167629157</v>
+        <v>0.1679673628982385</v>
       </c>
     </row>
     <row r="167">
@@ -12963,7 +12963,7 @@
         <v>0.0819451471456278</v>
       </c>
       <c r="S167" t="n">
-        <v>0.2692744755244755</v>
+        <v>0.2572720814165501</v>
       </c>
     </row>
     <row r="168">
@@ -13042,7 +13042,7 @@
         <v>0.07520363408521304</v>
       </c>
       <c r="S168" t="n">
-        <v>0.3775288126507639</v>
+        <v>0.4018762930141342</v>
       </c>
     </row>
     <row r="169">
@@ -13121,7 +13121,7 @@
         <v>0.1239348749654601</v>
       </c>
       <c r="S169" t="n">
-        <v>0.2982500580728793</v>
+        <v>0.3351179121060107</v>
       </c>
     </row>
     <row r="170">
@@ -13194,7 +13194,7 @@
         <v>0.07579153693213789</v>
       </c>
       <c r="S170" t="n">
-        <v>0.3351247048335514</v>
+        <v>0.3162987370080736</v>
       </c>
     </row>
     <row r="171">
@@ -13259,7 +13259,7 @@
         <v>0.07872941012475897</v>
       </c>
       <c r="S171" t="n">
-        <v>0.2315814393939394</v>
+        <v>0.2798772277712496</v>
       </c>
     </row>
     <row r="172">
@@ -13340,7 +13340,7 @@
         <v>0</v>
       </c>
       <c r="S172" t="n">
-        <v>0.310705841603398</v>
+        <v>0.3827682151981046</v>
       </c>
     </row>
     <row r="173">
@@ -13405,7 +13405,7 @@
         <v>0.05866682643952728</v>
       </c>
       <c r="S173" t="n">
-        <v>0.2325446828689753</v>
+        <v>0.2848706719561191</v>
       </c>
     </row>
     <row r="174">
@@ -13470,7 +13470,7 @@
         <v>0.02040816326530612</v>
       </c>
       <c r="S174" t="n">
-        <v>0.0405549130560489</v>
+        <v>0.0665214058812162</v>
       </c>
     </row>
     <row r="175">
@@ -13547,7 +13547,7 @@
         <v>0.01333570412517781</v>
       </c>
       <c r="S175" t="n">
-        <v>0.1180874450415242</v>
+        <v>0.09088122605363985</v>
       </c>
     </row>
     <row r="176">
@@ -13628,7 +13628,7 @@
         <v>0.01207590569292697</v>
       </c>
       <c r="S176" t="n">
-        <v>0.3414307238551444</v>
+        <v>0.4517532997786543</v>
       </c>
     </row>
     <row r="177">
@@ -13705,7 +13705,7 @@
         <v>0.02708510940608127</v>
       </c>
       <c r="S177" t="n">
-        <v>0.1254240845200192</v>
+        <v>0.1245708946096665</v>
       </c>
     </row>
     <row r="178">
@@ -13784,7 +13784,7 @@
         <v>0.07931857500010667</v>
       </c>
       <c r="S178" t="n">
-        <v>0.3253770295706729</v>
+        <v>0.4048008768724881</v>
       </c>
     </row>
     <row r="179">
@@ -13863,7 +13863,7 @@
         <v>0.08429164612350548</v>
       </c>
       <c r="S179" t="n">
-        <v>0.1056126219331954</v>
+        <v>0.1037524965940505</v>
       </c>
     </row>
     <row r="180">
@@ -13940,7 +13940,7 @@
         <v>0.04411764705882353</v>
       </c>
       <c r="S180" t="n">
-        <v>0.07669671000788023</v>
+        <v>0.07819068897907074</v>
       </c>
     </row>
     <row r="181">
@@ -14013,7 +14013,7 @@
         <v>0.07588803691331782</v>
       </c>
       <c r="S181" t="n">
-        <v>0.3500054848897665</v>
+        <v>0.393920268565058</v>
       </c>
     </row>
     <row r="182">
@@ -14092,7 +14092,7 @@
         <v>0.09012640991034415</v>
       </c>
       <c r="S182" t="n">
-        <v>0.2755578250718032</v>
+        <v>0.3174907204680559</v>
       </c>
     </row>
     <row r="183">
@@ -14171,7 +14171,7 @@
         <v>0.0617003367003367</v>
       </c>
       <c r="S183" t="n">
-        <v>0.2747765862527946</v>
+        <v>0.2739054257778704</v>
       </c>
     </row>
     <row r="184">
@@ -14248,7 +14248,7 @@
         <v>0.05019109658189511</v>
       </c>
       <c r="S184" t="n">
-        <v>0.2512373497581082</v>
+        <v>0.2623931623931624</v>
       </c>
     </row>
     <row r="185">
@@ -14323,7 +14323,7 @@
         <v>0.07363351254480287</v>
       </c>
       <c r="S185" t="n">
-        <v>0.2696115270205416</v>
+        <v>0.2544030794975366</v>
       </c>
     </row>
     <row r="186">
@@ -14402,7 +14402,7 @@
         <v>0.03412700700931585</v>
       </c>
       <c r="S186" t="n">
-        <v>0.2623324646314222</v>
+        <v>0.3426942714432075</v>
       </c>
     </row>
     <row r="187">
@@ -14479,7 +14479,7 @@
         <v>0.04255106446020051</v>
       </c>
       <c r="S187" t="n">
-        <v>0.2996831865706038</v>
+        <v>0.3185596008615901</v>
       </c>
     </row>
     <row r="188">
@@ -14546,7 +14546,7 @@
         <v>0.009615384615384614</v>
       </c>
       <c r="S188" t="n">
-        <v>0.04738516878804649</v>
+        <v>0.06213255356609661</v>
       </c>
     </row>
     <row r="189">
@@ -14625,7 +14625,7 @@
         <v>0.0447806191561767</v>
       </c>
       <c r="S189" t="n">
-        <v>0.09310055542698449</v>
+        <v>0.0745081531371854</v>
       </c>
     </row>
     <row r="190">
@@ -14704,7 +14704,7 @@
         <v>0.06980056980056981</v>
       </c>
       <c r="S190" t="n">
-        <v>0.1099094953213683</v>
+        <v>0.07821035423663798</v>
       </c>
     </row>
     <row r="191">
@@ -14777,7 +14777,7 @@
         <v>0.05092817088788591</v>
       </c>
       <c r="S191" t="n">
-        <v>0.2233161897529714</v>
+        <v>0.2902410112198076</v>
       </c>
     </row>
     <row r="192">
@@ -14858,7 +14858,7 @@
         <v>0.01416122004357299</v>
       </c>
       <c r="S192" t="n">
-        <v>0.320144613947038</v>
+        <v>0.4011727243497276</v>
       </c>
     </row>
     <row r="193">
@@ -14929,7 +14929,7 @@
         <v>0.07269790856451473</v>
       </c>
       <c r="S193" t="n">
-        <v>0.2548226409262225</v>
+        <v>0.3183819271034576</v>
       </c>
     </row>
     <row r="194">
@@ -14994,7 +14994,7 @@
         <v>0.07833333333333334</v>
       </c>
       <c r="S194" t="n">
-        <v>0.3438971974563001</v>
+        <v>0.3811719935289729</v>
       </c>
     </row>
     <row r="195">
@@ -15075,7 +15075,7 @@
         <v>0.09274741092922911</v>
       </c>
       <c r="S195" t="n">
-        <v>0.3237704939392229</v>
+        <v>0.3820677196008129</v>
       </c>
     </row>
     <row r="196">
@@ -15148,7 +15148,7 @@
         <v>0.09364492917506874</v>
       </c>
       <c r="S196" t="n">
-        <v>0.3654845305159475</v>
+        <v>0.3835606114369122</v>
       </c>
     </row>
     <row r="197">
@@ -15227,7 +15227,7 @@
         <v>0.07019048984892616</v>
       </c>
       <c r="S197" t="n">
-        <v>0.2976210233842759</v>
+        <v>0.3311119964892831</v>
       </c>
     </row>
     <row r="198">
@@ -15308,7 +15308,7 @@
         <v>0.09793447586169104</v>
       </c>
       <c r="S198" t="n">
-        <v>0.2886705677495535</v>
+        <v>0.268159902041481</v>
       </c>
     </row>
     <row r="199">
@@ -15379,7 +15379,7 @@
         <v>0.03378378378378379</v>
       </c>
       <c r="S199" t="n">
-        <v>0.1213393519254198</v>
+        <v>0.05281229378935478</v>
       </c>
     </row>
     <row r="200">
@@ -15458,7 +15458,7 @@
         <v>0.0506388959877332</v>
       </c>
       <c r="S200" t="n">
-        <v>0.2365736672807519</v>
+        <v>0.2761076876215469</v>
       </c>
     </row>
     <row r="201">
@@ -15525,7 +15525,7 @@
         <v>0.0579187678244282</v>
       </c>
       <c r="S201" t="n">
-        <v>0.3084219194924347</v>
+        <v>0.3445803790600845</v>
       </c>
     </row>
     <row r="202">
@@ -15606,7 +15606,7 @@
         <v>0.07599955488060328</v>
       </c>
       <c r="S202" t="n">
-        <v>0.2943820240646866</v>
+        <v>0.3277587714927868</v>
       </c>
     </row>
     <row r="203">
@@ -15687,7 +15687,7 @@
         <v>0.09005952380952381</v>
       </c>
       <c r="S203" t="n">
-        <v>0.2806850160687845</v>
+        <v>0.3372632407344874</v>
       </c>
     </row>
     <row r="204">
@@ -15758,7 +15758,7 @@
         <v>0.0903265236886045</v>
       </c>
       <c r="S204" t="n">
-        <v>0.4006585026958826</v>
+        <v>0.3927895120730486</v>
       </c>
     </row>
     <row r="205">
@@ -15837,7 +15837,7 @@
         <v>0.07018808548009368</v>
       </c>
       <c r="S205" t="n">
-        <v>0.2735147900229422</v>
+        <v>0.2479965665267173</v>
       </c>
     </row>
   </sheetData>

--- a/SIB-200 languages - ACL.xlsx
+++ b/SIB-200 languages - ACL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK205"/>
+  <dimension ref="A1:AO205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,7 +531,7 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>F1 bloom-560M top_logprobs</t>
+          <t>F1 bloom-560m top_logprobs</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>F1 bloomz-560M generate</t>
+          <t>F1 bloomz-560m generate</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>F1 bloom-560M top_logprobs 2-shot</t>
+          <t>F1 bloom-560m top_logprobs 2-shot</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
@@ -596,19 +596,19 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>F1 bloom-560m top_logprobs 5-shot</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>F1 bloom-1b1 top_logprobs 5-shot</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
           <t>F1 bloom-3b top_logprobs 2-shot</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>F1 bloom-560M top_logprobs 5-shot</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>F1 bloom-1b1 top_logprobs 5-shot</t>
-        </is>
-      </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>F1 bloom-1b7 top_logprobs 5-shot</t>
@@ -617,6 +617,26 @@
       <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>F1 bloom-3b top_logprobs 5-shot</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>F1 bloom-560m generate 2-shot</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>F1 bloom-560m generate 5-shot</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>F1 xglm-564M generate 2-shot</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>F1 bloomz-560m generate 2-shot</t>
         </is>
       </c>
     </row>
@@ -720,14 +740,24 @@
       <c r="AC2" t="n">
         <v>0.102028873024681</v>
       </c>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
+      <c r="AD2" t="n">
+        <v>0.08003240557676909</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.1087820752920069</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.1105843104285818</v>
+      </c>
       <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -829,14 +859,22 @@
       <c r="AC3" t="n">
         <v>0.411151149942641</v>
       </c>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
+      <c r="AD3" t="n">
+        <v>0.1514754465832485</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.1849633792911104</v>
+      </c>
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -932,14 +970,22 @@
       <c r="AC4" t="n">
         <v>0.491920691382189</v>
       </c>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
+      <c r="AD4" t="n">
+        <v>0.1827755102040816</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.231597767312053</v>
+      </c>
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="inlineStr"/>
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1035,14 +1081,22 @@
       <c r="AC5" t="n">
         <v>0.496479038101379</v>
       </c>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
+      <c r="AD5" t="n">
+        <v>0.1749999409573878</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.2364892119746883</v>
+      </c>
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="inlineStr"/>
       <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1138,14 +1192,26 @@
       <c r="AC6" t="n">
         <v>0.466281905484891</v>
       </c>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
+      <c r="AD6" t="n">
+        <v>0.1675706242605418</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.2113001486861669</v>
+      </c>
       <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
+      <c r="AG6" t="n">
+        <v>0.03066202090592335</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.2430638635018073</v>
+      </c>
       <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1251,14 +1317,24 @@
       <c r="AC7" t="n">
         <v>0.370527169345519</v>
       </c>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
+      <c r="AD7" t="n">
+        <v>0.1311418733446719</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.1230247306599375</v>
+      </c>
       <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
+      <c r="AG7" t="n">
+        <v>0.07174649250120949</v>
+      </c>
       <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1354,14 +1430,22 @@
       <c r="AC8" t="n">
         <v>0.486685279850708</v>
       </c>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
+      <c r="AD8" t="n">
+        <v>0.1646397852793202</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.2457048937867352</v>
+      </c>
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="inlineStr"/>
       <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1471,14 +1555,24 @@
       <c r="AC9" t="n">
         <v>0.404000173882803</v>
       </c>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
+      <c r="AD9" t="n">
+        <v>0.1620550143911561</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.1120092631771752</v>
+      </c>
       <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr"/>
+      <c r="AH9" t="n">
+        <v>0.09683908045977012</v>
+      </c>
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1576,14 +1670,22 @@
       <c r="AC10" t="n">
         <v>0.317035916981569</v>
       </c>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
+      <c r="AD10" t="n">
+        <v>0.1616983676013326</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.1326881168373213</v>
+      </c>
       <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="inlineStr"/>
       <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1689,14 +1791,22 @@
       <c r="AC11" t="n">
         <v>0.0962876782512168</v>
       </c>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
+      <c r="AD11" t="n">
+        <v>0.1039418253123784</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.1032891707408108</v>
+      </c>
       <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1792,14 +1902,28 @@
       <c r="AC12" t="n">
         <v>0.488297614449688</v>
       </c>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
+      <c r="AD12" t="n">
+        <v>0.1794048434867424</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.2220751841560934</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.3258329867461591</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.06904999762142619</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0.2344459395104876</v>
+      </c>
       <c r="AI12" t="inlineStr"/>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1899,14 +2023,24 @@
       <c r="AC13" t="n">
         <v>0.500647008274361</v>
       </c>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
+      <c r="AD13" t="n">
+        <v>0.1866775596446967</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.2421485797668189</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.3609580417416591</v>
+      </c>
       <c r="AG13" t="inlineStr"/>
       <c r="AH13" t="inlineStr"/>
       <c r="AI13" t="inlineStr"/>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2000,14 +2134,22 @@
       <c r="AC14" t="n">
         <v>0.209396172803068</v>
       </c>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
+      <c r="AD14" t="n">
+        <v>0.1310068107406435</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.1140581345422717</v>
+      </c>
       <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="inlineStr"/>
       <c r="AH14" t="inlineStr"/>
       <c r="AI14" t="inlineStr"/>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr"/>
+      <c r="AO14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2103,14 +2245,24 @@
       <c r="AC15" t="n">
         <v>0.502391341382103</v>
       </c>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
+      <c r="AD15" t="n">
+        <v>0.1824976509981837</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.2432832080200501</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.3399817608921823</v>
+      </c>
       <c r="AG15" t="inlineStr"/>
       <c r="AH15" t="inlineStr"/>
       <c r="AI15" t="inlineStr"/>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2206,14 +2358,24 @@
       <c r="AC16" t="n">
         <v>0.508502193075378</v>
       </c>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
+      <c r="AD16" t="n">
+        <v>0.1395402776965561</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.2456164871493793</v>
+      </c>
       <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
+      <c r="AG16" t="n">
+        <v>0.08614673440254836</v>
+      </c>
       <c r="AH16" t="inlineStr"/>
       <c r="AI16" t="inlineStr"/>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2307,14 +2469,22 @@
       <c r="AC17" t="n">
         <v>0.502548178199186</v>
       </c>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
+      <c r="AD17" t="n">
+        <v>0.14922707267059</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.2335408877140324</v>
+      </c>
       <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="inlineStr"/>
       <c r="AH17" t="inlineStr"/>
       <c r="AI17" t="inlineStr"/>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr"/>
+      <c r="AO17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2422,14 +2592,22 @@
       <c r="AC18" t="n">
         <v>0.491881204843077</v>
       </c>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
+      <c r="AD18" t="n">
+        <v>0.1304997727424763</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.1147423622386596</v>
+      </c>
       <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="inlineStr"/>
       <c r="AH18" t="inlineStr"/>
       <c r="AI18" t="inlineStr"/>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr"/>
+      <c r="AO18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2531,14 +2709,24 @@
       <c r="AC19" t="n">
         <v>0.528717318172795</v>
       </c>
-      <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr"/>
+      <c r="AD19" t="n">
+        <v>0.2023097518011632</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.2176695163191135</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.269304306610794</v>
+      </c>
       <c r="AG19" t="inlineStr"/>
       <c r="AH19" t="inlineStr"/>
       <c r="AI19" t="inlineStr"/>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr"/>
+      <c r="AO19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2640,14 +2828,22 @@
       <c r="AC20" t="n">
         <v>0.505319832911455</v>
       </c>
-      <c r="AD20" t="inlineStr"/>
-      <c r="AE20" t="inlineStr"/>
+      <c r="AD20" t="n">
+        <v>0.07156110170714745</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.2578474081940469</v>
+      </c>
       <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="inlineStr"/>
       <c r="AH20" t="inlineStr"/>
       <c r="AI20" t="inlineStr"/>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2741,14 +2937,24 @@
       <c r="AC21" t="n">
         <v>0.24263853013853</v>
       </c>
-      <c r="AD21" t="inlineStr"/>
-      <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr"/>
+      <c r="AD21" t="n">
+        <v>0.1305153067956303</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.1286693465264894</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.1336350576448533</v>
+      </c>
       <c r="AG21" t="inlineStr"/>
       <c r="AH21" t="inlineStr"/>
       <c r="AI21" t="inlineStr"/>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2842,14 +3048,22 @@
       <c r="AC22" t="n">
         <v>0.222245255730468</v>
       </c>
-      <c r="AD22" t="inlineStr"/>
-      <c r="AE22" t="inlineStr"/>
+      <c r="AD22" t="n">
+        <v>0.0706015037593985</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.1084259624507892</v>
+      </c>
       <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="inlineStr"/>
       <c r="AI22" t="inlineStr"/>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr"/>
+      <c r="AO22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2943,14 +3157,22 @@
       <c r="AC23" t="n">
         <v>0.280789440734459</v>
       </c>
-      <c r="AD23" t="inlineStr"/>
-      <c r="AE23" t="inlineStr"/>
+      <c r="AD23" t="n">
+        <v>0.08738461458930616</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0.09430414252046092</v>
+      </c>
       <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="inlineStr"/>
       <c r="AH23" t="inlineStr"/>
       <c r="AI23" t="inlineStr"/>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr"/>
+      <c r="AO23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3056,14 +3278,26 @@
       <c r="AC24" t="n">
         <v>0.194097051597052</v>
       </c>
-      <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="inlineStr"/>
+      <c r="AD24" t="n">
+        <v>0.1159892916595883</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0.109541151658674</v>
+      </c>
       <c r="AF24" t="inlineStr"/>
-      <c r="AG24" t="inlineStr"/>
-      <c r="AH24" t="inlineStr"/>
+      <c r="AG24" t="n">
+        <v>0.09188091718639067</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0.0824311615967432</v>
+      </c>
       <c r="AI24" t="inlineStr"/>
       <c r="AJ24" t="inlineStr"/>
       <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr"/>
+      <c r="AO24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3173,14 +3407,22 @@
       <c r="AC25" t="n">
         <v>0.36031318389759</v>
       </c>
-      <c r="AD25" t="inlineStr"/>
-      <c r="AE25" t="inlineStr"/>
+      <c r="AD25" t="n">
+        <v>0.1209307965610487</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.09907671015262233</v>
+      </c>
       <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="inlineStr"/>
       <c r="AH25" t="inlineStr"/>
       <c r="AI25" t="inlineStr"/>
       <c r="AJ25" t="inlineStr"/>
       <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr"/>
+      <c r="AO25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3282,14 +3524,26 @@
       <c r="AC26" t="n">
         <v>0.419503148383898</v>
       </c>
-      <c r="AD26" t="inlineStr"/>
-      <c r="AE26" t="inlineStr"/>
+      <c r="AD26" t="n">
+        <v>0.1566092343920065</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.1938117250978508</v>
+      </c>
       <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="inlineStr"/>
-      <c r="AH26" t="inlineStr"/>
+      <c r="AG26" t="n">
+        <v>0.1434845578519342</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0.2140210680376232</v>
+      </c>
       <c r="AI26" t="inlineStr"/>
       <c r="AJ26" t="inlineStr"/>
       <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr"/>
+      <c r="AN26" t="inlineStr"/>
+      <c r="AO26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3395,14 +3649,22 @@
       <c r="AC27" t="n">
         <v>0.11332435846297</v>
       </c>
-      <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="inlineStr"/>
+      <c r="AD27" t="n">
+        <v>0.1142363234834428</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.09703497560640417</v>
+      </c>
       <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="inlineStr"/>
       <c r="AH27" t="inlineStr"/>
       <c r="AI27" t="inlineStr"/>
       <c r="AJ27" t="inlineStr"/>
       <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
+      <c r="AN27" t="inlineStr"/>
+      <c r="AO27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3504,14 +3766,24 @@
       <c r="AC28" t="n">
         <v>0.295577355936472</v>
       </c>
-      <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr"/>
-      <c r="AF28" t="inlineStr"/>
+      <c r="AD28" t="n">
+        <v>0.1026828635524288</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.1377839246061482</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0.1187820589739566</v>
+      </c>
       <c r="AG28" t="inlineStr"/>
       <c r="AH28" t="inlineStr"/>
       <c r="AI28" t="inlineStr"/>
       <c r="AJ28" t="inlineStr"/>
       <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
+      <c r="AN28" t="inlineStr"/>
+      <c r="AO28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3623,14 +3895,22 @@
       <c r="AC29" t="n">
         <v>0.524179984582101</v>
       </c>
-      <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="inlineStr"/>
+      <c r="AD29" t="n">
+        <v>0.2185667356573035</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0.1887353202619413</v>
+      </c>
       <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="inlineStr"/>
       <c r="AH29" t="inlineStr"/>
       <c r="AI29" t="inlineStr"/>
       <c r="AJ29" t="inlineStr"/>
       <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr"/>
+      <c r="AN29" t="inlineStr"/>
+      <c r="AO29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3732,14 +4012,24 @@
       <c r="AC30" t="n">
         <v>0.493125734489198</v>
       </c>
-      <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="inlineStr"/>
+      <c r="AD30" t="n">
+        <v>0.09997906855049711</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0.2101381697460129</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0.2667104696661347</v>
+      </c>
       <c r="AG30" t="inlineStr"/>
       <c r="AH30" t="inlineStr"/>
       <c r="AI30" t="inlineStr"/>
       <c r="AJ30" t="inlineStr"/>
       <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
+      <c r="AN30" t="inlineStr"/>
+      <c r="AO30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3833,14 +4123,22 @@
       <c r="AC31" t="n">
         <v>0.118785975928833</v>
       </c>
-      <c r="AD31" t="inlineStr"/>
-      <c r="AE31" t="inlineStr"/>
+      <c r="AD31" t="n">
+        <v>0.09703667381012919</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0.1244692329278795</v>
+      </c>
       <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="inlineStr"/>
       <c r="AH31" t="inlineStr"/>
       <c r="AI31" t="inlineStr"/>
       <c r="AJ31" t="inlineStr"/>
       <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr"/>
+      <c r="AN31" t="inlineStr"/>
+      <c r="AO31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3934,14 +4232,22 @@
       <c r="AC32" t="n">
         <v>0.449490021053794</v>
       </c>
-      <c r="AD32" t="inlineStr"/>
-      <c r="AE32" t="inlineStr"/>
+      <c r="AD32" t="n">
+        <v>0.2041958687215836</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.2009338413492241</v>
+      </c>
       <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="inlineStr"/>
       <c r="AH32" t="inlineStr"/>
       <c r="AI32" t="inlineStr"/>
       <c r="AJ32" t="inlineStr"/>
       <c r="AK32" t="inlineStr"/>
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="inlineStr"/>
+      <c r="AN32" t="inlineStr"/>
+      <c r="AO32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4047,14 +4353,22 @@
       <c r="AC33" t="n">
         <v>0.0964885954381753</v>
       </c>
-      <c r="AD33" t="inlineStr"/>
-      <c r="AE33" t="inlineStr"/>
+      <c r="AD33" t="n">
+        <v>0.06527578208646549</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.1088023567597424</v>
+      </c>
       <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="inlineStr"/>
       <c r="AH33" t="inlineStr"/>
       <c r="AI33" t="inlineStr"/>
       <c r="AJ33" t="inlineStr"/>
       <c r="AK33" t="inlineStr"/>
+      <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="inlineStr"/>
+      <c r="AN33" t="inlineStr"/>
+      <c r="AO33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4160,14 +4474,26 @@
       <c r="AC34" t="n">
         <v>0.378776397539368</v>
       </c>
-      <c r="AD34" t="inlineStr"/>
-      <c r="AE34" t="inlineStr"/>
-      <c r="AF34" t="inlineStr"/>
-      <c r="AG34" t="inlineStr"/>
+      <c r="AD34" t="n">
+        <v>0.1584085335850898</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0.1483054565819413</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0.1260747050220734</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0.06621271226727914</v>
+      </c>
       <c r="AH34" t="inlineStr"/>
       <c r="AI34" t="inlineStr"/>
       <c r="AJ34" t="inlineStr"/>
       <c r="AK34" t="inlineStr"/>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="inlineStr"/>
+      <c r="AN34" t="inlineStr"/>
+      <c r="AO34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4269,14 +4595,22 @@
       <c r="AC35" t="n">
         <v>0.388534779593326</v>
       </c>
-      <c r="AD35" t="inlineStr"/>
-      <c r="AE35" t="inlineStr"/>
+      <c r="AD35" t="n">
+        <v>0.1575732454045182</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.1660946310414361</v>
+      </c>
       <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="inlineStr"/>
       <c r="AH35" t="inlineStr"/>
       <c r="AI35" t="inlineStr"/>
       <c r="AJ35" t="inlineStr"/>
       <c r="AK35" t="inlineStr"/>
+      <c r="AL35" t="inlineStr"/>
+      <c r="AM35" t="inlineStr"/>
+      <c r="AN35" t="inlineStr"/>
+      <c r="AO35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4384,14 +4718,24 @@
       <c r="AC36" t="n">
         <v>0.336846579163695</v>
       </c>
-      <c r="AD36" t="inlineStr"/>
-      <c r="AE36" t="inlineStr"/>
-      <c r="AF36" t="inlineStr"/>
+      <c r="AD36" t="n">
+        <v>0.118597943786623</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0.08268870028989492</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0.1342735340481625</v>
+      </c>
       <c r="AG36" t="inlineStr"/>
       <c r="AH36" t="inlineStr"/>
       <c r="AI36" t="inlineStr"/>
       <c r="AJ36" t="inlineStr"/>
       <c r="AK36" t="inlineStr"/>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="inlineStr"/>
+      <c r="AN36" t="inlineStr"/>
+      <c r="AO36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4503,14 +4847,22 @@
       <c r="AC37" t="n">
         <v>0.529206485338561</v>
       </c>
-      <c r="AD37" t="inlineStr"/>
-      <c r="AE37" t="inlineStr"/>
+      <c r="AD37" t="n">
+        <v>0.2342924390708774</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0.2414079221432163</v>
+      </c>
       <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="inlineStr"/>
       <c r="AH37" t="inlineStr"/>
       <c r="AI37" t="inlineStr"/>
       <c r="AJ37" t="inlineStr"/>
       <c r="AK37" t="inlineStr"/>
+      <c r="AL37" t="inlineStr"/>
+      <c r="AM37" t="inlineStr"/>
+      <c r="AN37" t="inlineStr"/>
+      <c r="AO37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4612,14 +4964,28 @@
       <c r="AC38" t="n">
         <v>0.402451255420139</v>
       </c>
-      <c r="AD38" t="inlineStr"/>
-      <c r="AE38" t="inlineStr"/>
-      <c r="AF38" t="inlineStr"/>
-      <c r="AG38" t="inlineStr"/>
-      <c r="AH38" t="inlineStr"/>
+      <c r="AD38" t="n">
+        <v>0.115044199497981</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0.1422047600800936</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0.1212718298019463</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0.1169841435611384</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0.1926447271274858</v>
+      </c>
       <c r="AI38" t="inlineStr"/>
       <c r="AJ38" t="inlineStr"/>
       <c r="AK38" t="inlineStr"/>
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="inlineStr"/>
+      <c r="AN38" t="inlineStr"/>
+      <c r="AO38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4725,14 +5091,24 @@
       <c r="AC39" t="n">
         <v>0.323620175556151</v>
       </c>
-      <c r="AD39" t="inlineStr"/>
-      <c r="AE39" t="inlineStr"/>
-      <c r="AF39" t="inlineStr"/>
+      <c r="AD39" t="n">
+        <v>0.126685399834704</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0.1421882452991258</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0.1454161487643958</v>
+      </c>
       <c r="AG39" t="inlineStr"/>
       <c r="AH39" t="inlineStr"/>
       <c r="AI39" t="inlineStr"/>
       <c r="AJ39" t="inlineStr"/>
       <c r="AK39" t="inlineStr"/>
+      <c r="AL39" t="inlineStr"/>
+      <c r="AM39" t="inlineStr"/>
+      <c r="AN39" t="inlineStr"/>
+      <c r="AO39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4828,14 +5204,22 @@
       <c r="AC40" t="n">
         <v>0.263291814021219</v>
       </c>
-      <c r="AD40" t="inlineStr"/>
-      <c r="AE40" t="inlineStr"/>
+      <c r="AD40" t="n">
+        <v>0.1007565277343834</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0.1086609408628783</v>
+      </c>
       <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="inlineStr"/>
       <c r="AH40" t="inlineStr"/>
       <c r="AI40" t="inlineStr"/>
       <c r="AJ40" t="inlineStr"/>
       <c r="AK40" t="inlineStr"/>
+      <c r="AL40" t="inlineStr"/>
+      <c r="AM40" t="inlineStr"/>
+      <c r="AN40" t="inlineStr"/>
+      <c r="AO40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4929,14 +5313,22 @@
       <c r="AC41" t="n">
         <v>0.170070957010978</v>
       </c>
-      <c r="AD41" t="inlineStr"/>
-      <c r="AE41" t="inlineStr"/>
+      <c r="AD41" t="n">
+        <v>0.09508597697452188</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0.1172252141490327</v>
+      </c>
       <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="inlineStr"/>
       <c r="AH41" t="inlineStr"/>
       <c r="AI41" t="inlineStr"/>
       <c r="AJ41" t="inlineStr"/>
       <c r="AK41" t="inlineStr"/>
+      <c r="AL41" t="inlineStr"/>
+      <c r="AM41" t="inlineStr"/>
+      <c r="AN41" t="inlineStr"/>
+      <c r="AO41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5038,14 +5430,22 @@
       <c r="AC42" t="n">
         <v>0.293239572144647</v>
       </c>
-      <c r="AD42" t="inlineStr"/>
-      <c r="AE42" t="inlineStr"/>
+      <c r="AD42" t="n">
+        <v>0.07207622492616921</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0.09701222722952731</v>
+      </c>
       <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="inlineStr"/>
       <c r="AH42" t="inlineStr"/>
       <c r="AI42" t="inlineStr"/>
       <c r="AJ42" t="inlineStr"/>
       <c r="AK42" t="inlineStr"/>
+      <c r="AL42" t="inlineStr"/>
+      <c r="AM42" t="inlineStr"/>
+      <c r="AN42" t="inlineStr"/>
+      <c r="AO42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5151,14 +5551,24 @@
       <c r="AC43" t="n">
         <v>0.255321182372266</v>
       </c>
-      <c r="AD43" t="inlineStr"/>
-      <c r="AE43" t="inlineStr"/>
-      <c r="AF43" t="inlineStr"/>
+      <c r="AD43" t="n">
+        <v>0.1577956435099292</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0.09137155570498957</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0.1076276553218071</v>
+      </c>
       <c r="AG43" t="inlineStr"/>
       <c r="AH43" t="inlineStr"/>
       <c r="AI43" t="inlineStr"/>
       <c r="AJ43" t="inlineStr"/>
       <c r="AK43" t="inlineStr"/>
+      <c r="AL43" t="inlineStr"/>
+      <c r="AM43" t="inlineStr"/>
+      <c r="AN43" t="inlineStr"/>
+      <c r="AO43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5264,14 +5674,22 @@
       <c r="AC44" t="n">
         <v>0.395028064923513</v>
       </c>
-      <c r="AD44" t="inlineStr"/>
-      <c r="AE44" t="inlineStr"/>
+      <c r="AD44" t="n">
+        <v>0.1044196862760241</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0.1645331413640485</v>
+      </c>
       <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="inlineStr"/>
       <c r="AH44" t="inlineStr"/>
       <c r="AI44" t="inlineStr"/>
       <c r="AJ44" t="inlineStr"/>
       <c r="AK44" t="inlineStr"/>
+      <c r="AL44" t="inlineStr"/>
+      <c r="AM44" t="inlineStr"/>
+      <c r="AN44" t="inlineStr"/>
+      <c r="AO44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5379,14 +5797,28 @@
       <c r="AC45" t="n">
         <v>0.5102298482155611</v>
       </c>
-      <c r="AD45" t="inlineStr"/>
-      <c r="AE45" t="inlineStr"/>
-      <c r="AF45" t="inlineStr"/>
-      <c r="AG45" t="inlineStr"/>
-      <c r="AH45" t="inlineStr"/>
+      <c r="AD45" t="n">
+        <v>0.1052425764537755</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0.1725263163365461</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0.1736420124694516</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0.08602405947445084</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0.1513768167583868</v>
+      </c>
       <c r="AI45" t="inlineStr"/>
       <c r="AJ45" t="inlineStr"/>
       <c r="AK45" t="inlineStr"/>
+      <c r="AL45" t="inlineStr"/>
+      <c r="AM45" t="inlineStr"/>
+      <c r="AN45" t="inlineStr"/>
+      <c r="AO45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5480,14 +5912,28 @@
       <c r="AC46" t="n">
         <v>0.27313262298287</v>
       </c>
-      <c r="AD46" t="inlineStr"/>
-      <c r="AE46" t="inlineStr"/>
-      <c r="AF46" t="inlineStr"/>
-      <c r="AG46" t="inlineStr"/>
-      <c r="AH46" t="inlineStr"/>
+      <c r="AD46" t="n">
+        <v>0.1441761645707696</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0.106478244948234</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0.1219630105226598</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>0.0678900725913669</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>0.1323228527635822</v>
+      </c>
       <c r="AI46" t="inlineStr"/>
       <c r="AJ46" t="inlineStr"/>
       <c r="AK46" t="inlineStr"/>
+      <c r="AL46" t="inlineStr"/>
+      <c r="AM46" t="inlineStr"/>
+      <c r="AN46" t="inlineStr"/>
+      <c r="AO46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5589,14 +6035,24 @@
       <c r="AC47" t="n">
         <v>0.305423678648516</v>
       </c>
-      <c r="AD47" t="inlineStr"/>
-      <c r="AE47" t="inlineStr"/>
-      <c r="AF47" t="inlineStr"/>
+      <c r="AD47" t="n">
+        <v>0.1618392009132148</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0.1287032874731784</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0.1242312035362427</v>
+      </c>
       <c r="AG47" t="inlineStr"/>
       <c r="AH47" t="inlineStr"/>
       <c r="AI47" t="inlineStr"/>
       <c r="AJ47" t="inlineStr"/>
       <c r="AK47" t="inlineStr"/>
+      <c r="AL47" t="inlineStr"/>
+      <c r="AM47" t="inlineStr"/>
+      <c r="AN47" t="inlineStr"/>
+      <c r="AO47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5702,14 +6158,24 @@
       <c r="AC48" t="n">
         <v>0.0468384074941452</v>
       </c>
-      <c r="AD48" t="inlineStr"/>
-      <c r="AE48" t="inlineStr"/>
+      <c r="AD48" t="n">
+        <v>0.02764976958525345</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>0.07005122168787568</v>
+      </c>
       <c r="AF48" t="inlineStr"/>
-      <c r="AG48" t="inlineStr"/>
+      <c r="AG48" t="n">
+        <v>0.09162702243661765</v>
+      </c>
       <c r="AH48" t="inlineStr"/>
       <c r="AI48" t="inlineStr"/>
       <c r="AJ48" t="inlineStr"/>
       <c r="AK48" t="inlineStr"/>
+      <c r="AL48" t="inlineStr"/>
+      <c r="AM48" t="inlineStr"/>
+      <c r="AN48" t="inlineStr"/>
+      <c r="AO48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5817,14 +6283,22 @@
       <c r="AC49" t="n">
         <v>0.16738087065757</v>
       </c>
-      <c r="AD49" t="inlineStr"/>
-      <c r="AE49" t="inlineStr"/>
+      <c r="AD49" t="n">
+        <v>0.1015316909004617</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>0.1181339329177089</v>
+      </c>
       <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="inlineStr"/>
       <c r="AH49" t="inlineStr"/>
       <c r="AI49" t="inlineStr"/>
       <c r="AJ49" t="inlineStr"/>
       <c r="AK49" t="inlineStr"/>
+      <c r="AL49" t="inlineStr"/>
+      <c r="AM49" t="inlineStr"/>
+      <c r="AN49" t="inlineStr"/>
+      <c r="AO49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5946,19 +6420,31 @@
         <v>0.1636798721767126</v>
       </c>
       <c r="AG50" t="n">
+        <v>0.1853710167163704</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>0.3171895191932029</v>
+      </c>
+      <c r="AI50" t="n">
         <v>0.2911438995186389</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>0.1853710167163704</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>0.3171895191932029</v>
       </c>
       <c r="AJ50" t="n">
         <v>0.1780726981839394</v>
       </c>
       <c r="AK50" t="n">
         <v>0.2663370216165247</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>0.6440653081254586</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>0.138801390144461</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>0.3054865383865152</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>0.275376350719419</v>
       </c>
     </row>
     <row r="51">
@@ -6065,14 +6551,22 @@
       <c r="AC51" t="n">
         <v>0.405440863905397</v>
       </c>
-      <c r="AD51" t="inlineStr"/>
-      <c r="AE51" t="inlineStr"/>
+      <c r="AD51" t="n">
+        <v>0.1377868472426902</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>0.1325295311250662</v>
+      </c>
       <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="inlineStr"/>
       <c r="AH51" t="inlineStr"/>
       <c r="AI51" t="inlineStr"/>
       <c r="AJ51" t="inlineStr"/>
       <c r="AK51" t="inlineStr"/>
+      <c r="AL51" t="inlineStr"/>
+      <c r="AM51" t="inlineStr"/>
+      <c r="AN51" t="inlineStr"/>
+      <c r="AO51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6180,14 +6674,24 @@
       <c r="AC52" t="n">
         <v>0.297837761189614</v>
       </c>
-      <c r="AD52" t="inlineStr"/>
-      <c r="AE52" t="inlineStr"/>
-      <c r="AF52" t="inlineStr"/>
+      <c r="AD52" t="n">
+        <v>0.09633219587136636</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>0.1232698367426456</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>0.1382257020306139</v>
+      </c>
       <c r="AG52" t="inlineStr"/>
       <c r="AH52" t="inlineStr"/>
       <c r="AI52" t="inlineStr"/>
       <c r="AJ52" t="inlineStr"/>
       <c r="AK52" t="inlineStr"/>
+      <c r="AL52" t="inlineStr"/>
+      <c r="AM52" t="inlineStr"/>
+      <c r="AN52" t="inlineStr"/>
+      <c r="AO52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6299,14 +6803,28 @@
       <c r="AC53" t="n">
         <v>0.534818481496631</v>
       </c>
-      <c r="AD53" t="inlineStr"/>
-      <c r="AE53" t="inlineStr"/>
-      <c r="AF53" t="inlineStr"/>
-      <c r="AG53" t="inlineStr"/>
-      <c r="AH53" t="inlineStr"/>
+      <c r="AD53" t="n">
+        <v>0.2434001341291038</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>0.2093820931353268</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>0.2028243002326444</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>0.1130747833067426</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>0.2580421994624524</v>
+      </c>
       <c r="AI53" t="inlineStr"/>
       <c r="AJ53" t="inlineStr"/>
       <c r="AK53" t="inlineStr"/>
+      <c r="AL53" t="inlineStr"/>
+      <c r="AM53" t="inlineStr"/>
+      <c r="AN53" t="inlineStr"/>
+      <c r="AO53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6412,14 +6930,22 @@
       <c r="AC54" t="n">
         <v>0.259804276625009</v>
       </c>
-      <c r="AD54" t="inlineStr"/>
-      <c r="AE54" t="inlineStr"/>
+      <c r="AD54" t="n">
+        <v>0.1544932320649504</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>0.1098954271534917</v>
+      </c>
       <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="inlineStr"/>
       <c r="AH54" t="inlineStr"/>
       <c r="AI54" t="inlineStr"/>
       <c r="AJ54" t="inlineStr"/>
       <c r="AK54" t="inlineStr"/>
+      <c r="AL54" t="inlineStr"/>
+      <c r="AM54" t="inlineStr"/>
+      <c r="AN54" t="inlineStr"/>
+      <c r="AO54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6525,14 +7051,24 @@
       <c r="AC55" t="n">
         <v>0.260960778352083</v>
       </c>
-      <c r="AD55" t="inlineStr"/>
-      <c r="AE55" t="inlineStr"/>
+      <c r="AD55" t="n">
+        <v>0.1439553180591824</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>0.1274752870908102</v>
+      </c>
       <c r="AF55" t="inlineStr"/>
-      <c r="AG55" t="inlineStr"/>
+      <c r="AG55" t="n">
+        <v>0.06230307695737837</v>
+      </c>
       <c r="AH55" t="inlineStr"/>
       <c r="AI55" t="inlineStr"/>
       <c r="AJ55" t="inlineStr"/>
       <c r="AK55" t="inlineStr"/>
+      <c r="AL55" t="inlineStr"/>
+      <c r="AM55" t="inlineStr"/>
+      <c r="AN55" t="inlineStr"/>
+      <c r="AO55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6638,14 +7174,22 @@
       <c r="AC56" t="n">
         <v>0.267562026875445</v>
       </c>
-      <c r="AD56" t="inlineStr"/>
-      <c r="AE56" t="inlineStr"/>
+      <c r="AD56" t="n">
+        <v>0.1241236730876862</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>0.112586645925976</v>
+      </c>
       <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="inlineStr"/>
       <c r="AH56" t="inlineStr"/>
       <c r="AI56" t="inlineStr"/>
       <c r="AJ56" t="inlineStr"/>
       <c r="AK56" t="inlineStr"/>
+      <c r="AL56" t="inlineStr"/>
+      <c r="AM56" t="inlineStr"/>
+      <c r="AN56" t="inlineStr"/>
+      <c r="AO56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6753,14 +7297,24 @@
       <c r="AC57" t="n">
         <v>0.256111174365702</v>
       </c>
-      <c r="AD57" t="inlineStr"/>
-      <c r="AE57" t="inlineStr"/>
+      <c r="AD57" t="n">
+        <v>0.1287730652694156</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>0.1101351993109689</v>
+      </c>
       <c r="AF57" t="inlineStr"/>
-      <c r="AG57" t="inlineStr"/>
+      <c r="AG57" t="n">
+        <v>0.06628014842300557</v>
+      </c>
       <c r="AH57" t="inlineStr"/>
       <c r="AI57" t="inlineStr"/>
       <c r="AJ57" t="inlineStr"/>
       <c r="AK57" t="inlineStr"/>
+      <c r="AL57" t="inlineStr"/>
+      <c r="AM57" t="inlineStr"/>
+      <c r="AN57" t="inlineStr"/>
+      <c r="AO57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6866,14 +7420,22 @@
       <c r="AC58" t="n">
         <v>0.292285103874778</v>
       </c>
-      <c r="AD58" t="inlineStr"/>
-      <c r="AE58" t="inlineStr"/>
+      <c r="AD58" t="n">
+        <v>0.110212852997162</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>0.1134558412109432</v>
+      </c>
       <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="inlineStr"/>
       <c r="AH58" t="inlineStr"/>
       <c r="AI58" t="inlineStr"/>
       <c r="AJ58" t="inlineStr"/>
       <c r="AK58" t="inlineStr"/>
+      <c r="AL58" t="inlineStr"/>
+      <c r="AM58" t="inlineStr"/>
+      <c r="AN58" t="inlineStr"/>
+      <c r="AO58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6985,14 +7547,22 @@
       <c r="AC59" t="n">
         <v>0.545128887124999</v>
       </c>
-      <c r="AD59" t="inlineStr"/>
-      <c r="AE59" t="inlineStr"/>
+      <c r="AD59" t="n">
+        <v>0.2249541638451304</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>0.2855188634397188</v>
+      </c>
       <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="inlineStr"/>
       <c r="AH59" t="inlineStr"/>
       <c r="AI59" t="inlineStr"/>
       <c r="AJ59" t="inlineStr"/>
       <c r="AK59" t="inlineStr"/>
+      <c r="AL59" t="inlineStr"/>
+      <c r="AM59" t="inlineStr"/>
+      <c r="AN59" t="inlineStr"/>
+      <c r="AO59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7094,14 +7664,22 @@
       <c r="AC60" t="n">
         <v>0.43148216480696</v>
       </c>
-      <c r="AD60" t="inlineStr"/>
-      <c r="AE60" t="inlineStr"/>
+      <c r="AD60" t="n">
+        <v>0.1527538717942039</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>0.138461913970821</v>
+      </c>
       <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="inlineStr"/>
       <c r="AH60" t="inlineStr"/>
       <c r="AI60" t="inlineStr"/>
       <c r="AJ60" t="inlineStr"/>
       <c r="AK60" t="inlineStr"/>
+      <c r="AL60" t="inlineStr"/>
+      <c r="AM60" t="inlineStr"/>
+      <c r="AN60" t="inlineStr"/>
+      <c r="AO60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7195,14 +7773,22 @@
       <c r="AC61" t="n">
         <v>0.296318874982525</v>
       </c>
-      <c r="AD61" t="inlineStr"/>
-      <c r="AE61" t="inlineStr"/>
+      <c r="AD61" t="n">
+        <v>0.1224168679377838</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>0.1237457930084277</v>
+      </c>
       <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="inlineStr"/>
       <c r="AH61" t="inlineStr"/>
       <c r="AI61" t="inlineStr"/>
       <c r="AJ61" t="inlineStr"/>
       <c r="AK61" t="inlineStr"/>
+      <c r="AL61" t="inlineStr"/>
+      <c r="AM61" t="inlineStr"/>
+      <c r="AN61" t="inlineStr"/>
+      <c r="AO61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7300,14 +7886,22 @@
       <c r="AC62" t="n">
         <v>0.224158471163452</v>
       </c>
-      <c r="AD62" t="inlineStr"/>
-      <c r="AE62" t="inlineStr"/>
+      <c r="AD62" t="n">
+        <v>0.08397061449919847</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>0.1080440077208838</v>
+      </c>
       <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="inlineStr"/>
       <c r="AH62" t="inlineStr"/>
       <c r="AI62" t="inlineStr"/>
       <c r="AJ62" t="inlineStr"/>
       <c r="AK62" t="inlineStr"/>
+      <c r="AL62" t="inlineStr"/>
+      <c r="AM62" t="inlineStr"/>
+      <c r="AN62" t="inlineStr"/>
+      <c r="AO62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7413,14 +8007,24 @@
       <c r="AC63" t="n">
         <v>0.234115555408972</v>
       </c>
-      <c r="AD63" t="inlineStr"/>
-      <c r="AE63" t="inlineStr"/>
-      <c r="AF63" t="inlineStr"/>
+      <c r="AD63" t="n">
+        <v>0.1537348679542576</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>0.1224831290620764</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>0.1148005928356934</v>
+      </c>
       <c r="AG63" t="inlineStr"/>
       <c r="AH63" t="inlineStr"/>
       <c r="AI63" t="inlineStr"/>
       <c r="AJ63" t="inlineStr"/>
       <c r="AK63" t="inlineStr"/>
+      <c r="AL63" t="inlineStr"/>
+      <c r="AM63" t="inlineStr"/>
+      <c r="AN63" t="inlineStr"/>
+      <c r="AO63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7526,14 +8130,22 @@
       <c r="AC64" t="n">
         <v>0.201893858143858</v>
       </c>
-      <c r="AD64" t="inlineStr"/>
-      <c r="AE64" t="inlineStr"/>
+      <c r="AD64" t="n">
+        <v>0.1432619777579279</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>0.1021590860571614</v>
+      </c>
       <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="inlineStr"/>
       <c r="AH64" t="inlineStr"/>
       <c r="AI64" t="inlineStr"/>
       <c r="AJ64" t="inlineStr"/>
       <c r="AK64" t="inlineStr"/>
+      <c r="AL64" t="inlineStr"/>
+      <c r="AM64" t="inlineStr"/>
+      <c r="AN64" t="inlineStr"/>
+      <c r="AO64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7639,14 +8251,22 @@
       <c r="AC65" t="n">
         <v>0.534852806342245</v>
       </c>
-      <c r="AD65" t="inlineStr"/>
-      <c r="AE65" t="inlineStr"/>
+      <c r="AD65" t="n">
+        <v>0.2620784346127115</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>0.2701585451585451</v>
+      </c>
       <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="inlineStr"/>
       <c r="AH65" t="inlineStr"/>
       <c r="AI65" t="inlineStr"/>
       <c r="AJ65" t="inlineStr"/>
       <c r="AK65" t="inlineStr"/>
+      <c r="AL65" t="inlineStr"/>
+      <c r="AM65" t="inlineStr"/>
+      <c r="AN65" t="inlineStr"/>
+      <c r="AO65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7752,14 +8372,22 @@
       <c r="AC66" t="n">
         <v>0.360897845171588</v>
       </c>
-      <c r="AD66" t="inlineStr"/>
-      <c r="AE66" t="inlineStr"/>
+      <c r="AD66" t="n">
+        <v>0.1131918874776018</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>0.1688785050770531</v>
+      </c>
       <c r="AF66" t="inlineStr"/>
       <c r="AG66" t="inlineStr"/>
       <c r="AH66" t="inlineStr"/>
       <c r="AI66" t="inlineStr"/>
       <c r="AJ66" t="inlineStr"/>
       <c r="AK66" t="inlineStr"/>
+      <c r="AL66" t="inlineStr"/>
+      <c r="AM66" t="inlineStr"/>
+      <c r="AN66" t="inlineStr"/>
+      <c r="AO66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7869,14 +8497,26 @@
       <c r="AC67" t="n">
         <v>0.518546236457695</v>
       </c>
-      <c r="AD67" t="inlineStr"/>
-      <c r="AE67" t="inlineStr"/>
+      <c r="AD67" t="n">
+        <v>0.05173119133236819</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>0.192397193794404</v>
+      </c>
       <c r="AF67" t="inlineStr"/>
-      <c r="AG67" t="inlineStr"/>
-      <c r="AH67" t="inlineStr"/>
+      <c r="AG67" t="n">
+        <v>0.04099208167004777</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>0.1481316430625186</v>
+      </c>
       <c r="AI67" t="inlineStr"/>
       <c r="AJ67" t="inlineStr"/>
       <c r="AK67" t="inlineStr"/>
+      <c r="AL67" t="inlineStr"/>
+      <c r="AM67" t="inlineStr"/>
+      <c r="AN67" t="inlineStr"/>
+      <c r="AO67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7984,14 +8624,22 @@
       <c r="AC68" t="n">
         <v>0.372952636892852</v>
       </c>
-      <c r="AD68" t="inlineStr"/>
-      <c r="AE68" t="inlineStr"/>
+      <c r="AD68" t="n">
+        <v>0.1381196194076277</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>0.1182200317350983</v>
+      </c>
       <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="inlineStr"/>
       <c r="AH68" t="inlineStr"/>
       <c r="AI68" t="inlineStr"/>
       <c r="AJ68" t="inlineStr"/>
       <c r="AK68" t="inlineStr"/>
+      <c r="AL68" t="inlineStr"/>
+      <c r="AM68" t="inlineStr"/>
+      <c r="AN68" t="inlineStr"/>
+      <c r="AO68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8097,14 +8745,24 @@
       <c r="AC69" t="n">
         <v>0.241632590717005</v>
       </c>
-      <c r="AD69" t="inlineStr"/>
-      <c r="AE69" t="inlineStr"/>
+      <c r="AD69" t="n">
+        <v>0.1086778336778337</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>0.1058980258193244</v>
+      </c>
       <c r="AF69" t="inlineStr"/>
-      <c r="AG69" t="inlineStr"/>
+      <c r="AG69" t="n">
+        <v>0.06661663264353093</v>
+      </c>
       <c r="AH69" t="inlineStr"/>
       <c r="AI69" t="inlineStr"/>
       <c r="AJ69" t="inlineStr"/>
       <c r="AK69" t="inlineStr"/>
+      <c r="AL69" t="inlineStr"/>
+      <c r="AM69" t="inlineStr"/>
+      <c r="AN69" t="inlineStr"/>
+      <c r="AO69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8210,14 +8868,24 @@
       <c r="AC70" t="n">
         <v>0.115985007435868</v>
       </c>
-      <c r="AD70" t="inlineStr"/>
-      <c r="AE70" t="inlineStr"/>
-      <c r="AF70" t="inlineStr"/>
+      <c r="AD70" t="n">
+        <v>0.1128094532843344</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>0.1016609192690875</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>0.1267561400011575</v>
+      </c>
       <c r="AG70" t="inlineStr"/>
       <c r="AH70" t="inlineStr"/>
       <c r="AI70" t="inlineStr"/>
       <c r="AJ70" t="inlineStr"/>
       <c r="AK70" t="inlineStr"/>
+      <c r="AL70" t="inlineStr"/>
+      <c r="AM70" t="inlineStr"/>
+      <c r="AN70" t="inlineStr"/>
+      <c r="AO70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8339,18 +9007,22 @@
         <v>0.2671427568516562</v>
       </c>
       <c r="AG71" t="n">
+        <v>0.0583513961806252</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>0.2478651145337792</v>
+      </c>
+      <c r="AI71" t="n">
         <v>0.2254658132152445</v>
-      </c>
-      <c r="AH71" t="n">
-        <v>0.0583513961806252</v>
-      </c>
-      <c r="AI71" t="n">
-        <v>0.2478651145337792</v>
       </c>
       <c r="AJ71" t="n">
         <v>0.2021345090205171</v>
       </c>
       <c r="AK71" t="inlineStr"/>
+      <c r="AL71" t="inlineStr"/>
+      <c r="AM71" t="inlineStr"/>
+      <c r="AN71" t="inlineStr"/>
+      <c r="AO71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8446,14 +9118,22 @@
       <c r="AC72" t="n">
         <v>0.493779294195719</v>
       </c>
-      <c r="AD72" t="inlineStr"/>
-      <c r="AE72" t="inlineStr"/>
+      <c r="AD72" t="n">
+        <v>0.07370570321151715</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>0.2366663075216537</v>
+      </c>
       <c r="AF72" t="inlineStr"/>
       <c r="AG72" t="inlineStr"/>
       <c r="AH72" t="inlineStr"/>
       <c r="AI72" t="inlineStr"/>
       <c r="AJ72" t="inlineStr"/>
       <c r="AK72" t="inlineStr"/>
+      <c r="AL72" t="inlineStr"/>
+      <c r="AM72" t="inlineStr"/>
+      <c r="AN72" t="inlineStr"/>
+      <c r="AO72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8559,14 +9239,22 @@
       <c r="AC73" t="n">
         <v>0.323289907746236</v>
       </c>
-      <c r="AD73" t="inlineStr"/>
-      <c r="AE73" t="inlineStr"/>
+      <c r="AD73" t="n">
+        <v>0.1113477611988409</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>0.1072169059011164</v>
+      </c>
       <c r="AF73" t="inlineStr"/>
       <c r="AG73" t="inlineStr"/>
       <c r="AH73" t="inlineStr"/>
       <c r="AI73" t="inlineStr"/>
       <c r="AJ73" t="inlineStr"/>
       <c r="AK73" t="inlineStr"/>
+      <c r="AL73" t="inlineStr"/>
+      <c r="AM73" t="inlineStr"/>
+      <c r="AN73" t="inlineStr"/>
+      <c r="AO73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -8672,14 +9360,26 @@
       <c r="AC74" t="n">
         <v>0.28411659554838</v>
       </c>
-      <c r="AD74" t="inlineStr"/>
-      <c r="AE74" t="inlineStr"/>
+      <c r="AD74" t="n">
+        <v>0.06901608860861833</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>0.1187041718384119</v>
+      </c>
       <c r="AF74" t="inlineStr"/>
-      <c r="AG74" t="inlineStr"/>
-      <c r="AH74" t="inlineStr"/>
+      <c r="AG74" t="n">
+        <v>0.0779143494514377</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>0.1325857497772047</v>
+      </c>
       <c r="AI74" t="inlineStr"/>
       <c r="AJ74" t="inlineStr"/>
       <c r="AK74" t="inlineStr"/>
+      <c r="AL74" t="inlineStr"/>
+      <c r="AM74" t="inlineStr"/>
+      <c r="AN74" t="inlineStr"/>
+      <c r="AO74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8785,14 +9485,22 @@
       <c r="AC75" t="n">
         <v>0.07823129251700681</v>
       </c>
-      <c r="AD75" t="inlineStr"/>
-      <c r="AE75" t="inlineStr"/>
+      <c r="AD75" t="n">
+        <v>0.1214395267272801</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>0.1124277746060253</v>
+      </c>
       <c r="AF75" t="inlineStr"/>
       <c r="AG75" t="inlineStr"/>
       <c r="AH75" t="inlineStr"/>
       <c r="AI75" t="inlineStr"/>
       <c r="AJ75" t="inlineStr"/>
       <c r="AK75" t="inlineStr"/>
+      <c r="AL75" t="inlineStr"/>
+      <c r="AM75" t="inlineStr"/>
+      <c r="AN75" t="inlineStr"/>
+      <c r="AO75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -8902,14 +9610,24 @@
       <c r="AC76" t="n">
         <v>0.444979296066253</v>
       </c>
-      <c r="AD76" t="inlineStr"/>
-      <c r="AE76" t="inlineStr"/>
+      <c r="AD76" t="n">
+        <v>0.1037724180581323</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>0.1103111723057815</v>
+      </c>
       <c r="AF76" t="inlineStr"/>
-      <c r="AG76" t="inlineStr"/>
+      <c r="AG76" t="n">
+        <v>0.08933601609657948</v>
+      </c>
       <c r="AH76" t="inlineStr"/>
       <c r="AI76" t="inlineStr"/>
       <c r="AJ76" t="inlineStr"/>
       <c r="AK76" t="inlineStr"/>
+      <c r="AL76" t="inlineStr"/>
+      <c r="AM76" t="inlineStr"/>
+      <c r="AN76" t="inlineStr"/>
+      <c r="AO76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -9011,14 +9729,22 @@
       <c r="AC77" t="n">
         <v>0.401470217968086</v>
       </c>
-      <c r="AD77" t="inlineStr"/>
-      <c r="AE77" t="inlineStr"/>
+      <c r="AD77" t="n">
+        <v>0.1170749508444341</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>0.1400499240330189</v>
+      </c>
       <c r="AF77" t="inlineStr"/>
       <c r="AG77" t="inlineStr"/>
       <c r="AH77" t="inlineStr"/>
       <c r="AI77" t="inlineStr"/>
       <c r="AJ77" t="inlineStr"/>
       <c r="AK77" t="inlineStr"/>
+      <c r="AL77" t="inlineStr"/>
+      <c r="AM77" t="inlineStr"/>
+      <c r="AN77" t="inlineStr"/>
+      <c r="AO77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -9130,14 +9856,24 @@
       <c r="AC78" t="n">
         <v>0.519885392531937</v>
       </c>
-      <c r="AD78" t="inlineStr"/>
-      <c r="AE78" t="inlineStr"/>
+      <c r="AD78" t="n">
+        <v>0.2448050119218355</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>0.1943925211740673</v>
+      </c>
       <c r="AF78" t="inlineStr"/>
-      <c r="AG78" t="inlineStr"/>
+      <c r="AG78" t="n">
+        <v>0.1720031079777695</v>
+      </c>
       <c r="AH78" t="inlineStr"/>
       <c r="AI78" t="inlineStr"/>
       <c r="AJ78" t="inlineStr"/>
       <c r="AK78" t="inlineStr"/>
+      <c r="AL78" t="inlineStr"/>
+      <c r="AM78" t="inlineStr"/>
+      <c r="AN78" t="inlineStr"/>
+      <c r="AO78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -9243,14 +9979,22 @@
       <c r="AC79" t="n">
         <v>0.248778971281853</v>
       </c>
-      <c r="AD79" t="inlineStr"/>
-      <c r="AE79" t="inlineStr"/>
+      <c r="AD79" t="n">
+        <v>0.1002417182931354</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>0.1107317073170732</v>
+      </c>
       <c r="AF79" t="inlineStr"/>
       <c r="AG79" t="inlineStr"/>
       <c r="AH79" t="inlineStr"/>
       <c r="AI79" t="inlineStr"/>
       <c r="AJ79" t="inlineStr"/>
       <c r="AK79" t="inlineStr"/>
+      <c r="AL79" t="inlineStr"/>
+      <c r="AM79" t="inlineStr"/>
+      <c r="AN79" t="inlineStr"/>
+      <c r="AO79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -9358,14 +10102,22 @@
       <c r="AC80" t="n">
         <v>0.501257174586726</v>
       </c>
-      <c r="AD80" t="inlineStr"/>
-      <c r="AE80" t="inlineStr"/>
+      <c r="AD80" t="n">
+        <v>0.1711296175756106</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>0.1934888669628696</v>
+      </c>
       <c r="AF80" t="inlineStr"/>
       <c r="AG80" t="inlineStr"/>
       <c r="AH80" t="inlineStr"/>
       <c r="AI80" t="inlineStr"/>
       <c r="AJ80" t="inlineStr"/>
       <c r="AK80" t="inlineStr"/>
+      <c r="AL80" t="inlineStr"/>
+      <c r="AM80" t="inlineStr"/>
+      <c r="AN80" t="inlineStr"/>
+      <c r="AO80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -9471,14 +10223,24 @@
       <c r="AC81" t="n">
         <v>0.45227167959825</v>
       </c>
-      <c r="AD81" t="inlineStr"/>
-      <c r="AE81" t="inlineStr"/>
+      <c r="AD81" t="n">
+        <v>0.1336829177823152</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>0.1607258495772446</v>
+      </c>
       <c r="AF81" t="inlineStr"/>
-      <c r="AG81" t="inlineStr"/>
+      <c r="AG81" t="n">
+        <v>0.1022623838267702</v>
+      </c>
       <c r="AH81" t="inlineStr"/>
       <c r="AI81" t="inlineStr"/>
       <c r="AJ81" t="inlineStr"/>
       <c r="AK81" t="inlineStr"/>
+      <c r="AL81" t="inlineStr"/>
+      <c r="AM81" t="inlineStr"/>
+      <c r="AN81" t="inlineStr"/>
+      <c r="AO81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -9586,14 +10348,24 @@
       <c r="AC82" t="n">
         <v>0.458815804779457</v>
       </c>
-      <c r="AD82" t="inlineStr"/>
-      <c r="AE82" t="inlineStr"/>
-      <c r="AF82" t="inlineStr"/>
+      <c r="AD82" t="n">
+        <v>0.05807008363399341</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>0.1696493290791344</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>0.1748030239724592</v>
+      </c>
       <c r="AG82" t="inlineStr"/>
       <c r="AH82" t="inlineStr"/>
       <c r="AI82" t="inlineStr"/>
       <c r="AJ82" t="inlineStr"/>
       <c r="AK82" t="inlineStr"/>
+      <c r="AL82" t="inlineStr"/>
+      <c r="AM82" t="inlineStr"/>
+      <c r="AN82" t="inlineStr"/>
+      <c r="AO82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -9695,14 +10467,24 @@
       <c r="AC83" t="n">
         <v>0.137732919254658</v>
       </c>
-      <c r="AD83" t="inlineStr"/>
-      <c r="AE83" t="inlineStr"/>
-      <c r="AF83" t="inlineStr"/>
+      <c r="AD83" t="n">
+        <v>0.1108862796668877</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>0.1005658502128512</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>0.102181352724831</v>
+      </c>
       <c r="AG83" t="inlineStr"/>
       <c r="AH83" t="inlineStr"/>
       <c r="AI83" t="inlineStr"/>
       <c r="AJ83" t="inlineStr"/>
       <c r="AK83" t="inlineStr"/>
+      <c r="AL83" t="inlineStr"/>
+      <c r="AM83" t="inlineStr"/>
+      <c r="AN83" t="inlineStr"/>
+      <c r="AO83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -9804,14 +10586,24 @@
       <c r="AC84" t="n">
         <v>0.243238471961876</v>
       </c>
-      <c r="AD84" t="inlineStr"/>
-      <c r="AE84" t="inlineStr"/>
-      <c r="AF84" t="inlineStr"/>
+      <c r="AD84" t="n">
+        <v>0.1003064962248636</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>0.1096496174049606</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>0.1112862219567965</v>
+      </c>
       <c r="AG84" t="inlineStr"/>
       <c r="AH84" t="inlineStr"/>
       <c r="AI84" t="inlineStr"/>
       <c r="AJ84" t="inlineStr"/>
       <c r="AK84" t="inlineStr"/>
+      <c r="AL84" t="inlineStr"/>
+      <c r="AM84" t="inlineStr"/>
+      <c r="AN84" t="inlineStr"/>
+      <c r="AO84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -9913,14 +10705,22 @@
       <c r="AC85" t="n">
         <v>0.294853476994554</v>
       </c>
-      <c r="AD85" t="inlineStr"/>
-      <c r="AE85" t="inlineStr"/>
+      <c r="AD85" t="n">
+        <v>0.1157492111331203</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>0.1263847284409068</v>
+      </c>
       <c r="AF85" t="inlineStr"/>
       <c r="AG85" t="inlineStr"/>
       <c r="AH85" t="inlineStr"/>
       <c r="AI85" t="inlineStr"/>
       <c r="AJ85" t="inlineStr"/>
       <c r="AK85" t="inlineStr"/>
+      <c r="AL85" t="inlineStr"/>
+      <c r="AM85" t="inlineStr"/>
+      <c r="AN85" t="inlineStr"/>
+      <c r="AO85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -10030,14 +10830,24 @@
       <c r="AC86" t="n">
         <v>0.526591287620699</v>
       </c>
-      <c r="AD86" t="inlineStr"/>
-      <c r="AE86" t="inlineStr"/>
-      <c r="AF86" t="inlineStr"/>
+      <c r="AD86" t="n">
+        <v>0.07651891614380026</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>0.1712554028752893</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>0.1356070378857624</v>
+      </c>
       <c r="AG86" t="inlineStr"/>
       <c r="AH86" t="inlineStr"/>
       <c r="AI86" t="inlineStr"/>
       <c r="AJ86" t="inlineStr"/>
       <c r="AK86" t="inlineStr"/>
+      <c r="AL86" t="inlineStr"/>
+      <c r="AM86" t="inlineStr"/>
+      <c r="AN86" t="inlineStr"/>
+      <c r="AO86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -10143,14 +10953,24 @@
       <c r="AC87" t="n">
         <v>0.36034100183636</v>
       </c>
-      <c r="AD87" t="inlineStr"/>
-      <c r="AE87" t="inlineStr"/>
-      <c r="AF87" t="inlineStr"/>
+      <c r="AD87" t="n">
+        <v>0.1175850920157447</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>0.1035524473696823</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>0.1678295796367255</v>
+      </c>
       <c r="AG87" t="inlineStr"/>
       <c r="AH87" t="inlineStr"/>
       <c r="AI87" t="inlineStr"/>
       <c r="AJ87" t="inlineStr"/>
       <c r="AK87" t="inlineStr"/>
+      <c r="AL87" t="inlineStr"/>
+      <c r="AM87" t="inlineStr"/>
+      <c r="AN87" t="inlineStr"/>
+      <c r="AO87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -10256,14 +11076,24 @@
       <c r="AC88" t="n">
         <v>0.343234450290553</v>
       </c>
-      <c r="AD88" t="inlineStr"/>
-      <c r="AE88" t="inlineStr"/>
+      <c r="AD88" t="n">
+        <v>0.08612542988085166</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>0.1307625531836653</v>
+      </c>
       <c r="AF88" t="inlineStr"/>
-      <c r="AG88" t="inlineStr"/>
+      <c r="AG88" t="n">
+        <v>0.05979727712711236</v>
+      </c>
       <c r="AH88" t="inlineStr"/>
       <c r="AI88" t="inlineStr"/>
       <c r="AJ88" t="inlineStr"/>
       <c r="AK88" t="inlineStr"/>
+      <c r="AL88" t="inlineStr"/>
+      <c r="AM88" t="inlineStr"/>
+      <c r="AN88" t="inlineStr"/>
+      <c r="AO88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -10369,14 +11199,22 @@
       <c r="AC89" t="n">
         <v>0.114460403726708</v>
       </c>
-      <c r="AD89" t="inlineStr"/>
-      <c r="AE89" t="inlineStr"/>
+      <c r="AD89" t="n">
+        <v>0.07623197088207589</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>0.1190299496421945</v>
+      </c>
       <c r="AF89" t="inlineStr"/>
       <c r="AG89" t="inlineStr"/>
       <c r="AH89" t="inlineStr"/>
       <c r="AI89" t="inlineStr"/>
       <c r="AJ89" t="inlineStr"/>
       <c r="AK89" t="inlineStr"/>
+      <c r="AL89" t="inlineStr"/>
+      <c r="AM89" t="inlineStr"/>
+      <c r="AN89" t="inlineStr"/>
+      <c r="AO89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -10482,14 +11320,22 @@
       <c r="AC90" t="n">
         <v>0.203987029594446</v>
       </c>
-      <c r="AD90" t="inlineStr"/>
-      <c r="AE90" t="inlineStr"/>
+      <c r="AD90" t="n">
+        <v>0.1320755575543242</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>0.112286128435312</v>
+      </c>
       <c r="AF90" t="inlineStr"/>
       <c r="AG90" t="inlineStr"/>
       <c r="AH90" t="inlineStr"/>
       <c r="AI90" t="inlineStr"/>
       <c r="AJ90" t="inlineStr"/>
       <c r="AK90" t="inlineStr"/>
+      <c r="AL90" t="inlineStr"/>
+      <c r="AM90" t="inlineStr"/>
+      <c r="AN90" t="inlineStr"/>
+      <c r="AO90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -10583,14 +11429,22 @@
       <c r="AC91" t="n">
         <v>0.243347138117896</v>
       </c>
-      <c r="AD91" t="inlineStr"/>
-      <c r="AE91" t="inlineStr"/>
+      <c r="AD91" t="n">
+        <v>0.107496715556417</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>0.09883701092480994</v>
+      </c>
       <c r="AF91" t="inlineStr"/>
       <c r="AG91" t="inlineStr"/>
       <c r="AH91" t="inlineStr"/>
       <c r="AI91" t="inlineStr"/>
       <c r="AJ91" t="inlineStr"/>
       <c r="AK91" t="inlineStr"/>
+      <c r="AL91" t="inlineStr"/>
+      <c r="AM91" t="inlineStr"/>
+      <c r="AN91" t="inlineStr"/>
+      <c r="AO91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -10686,14 +11540,24 @@
       <c r="AC92" t="n">
         <v>0.450231223850545</v>
       </c>
-      <c r="AD92" t="inlineStr"/>
-      <c r="AE92" t="inlineStr"/>
-      <c r="AF92" t="inlineStr"/>
+      <c r="AD92" t="n">
+        <v>0.1880432265191921</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>0.1904015504146342</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>0.1889184336184717</v>
+      </c>
       <c r="AG92" t="inlineStr"/>
       <c r="AH92" t="inlineStr"/>
       <c r="AI92" t="inlineStr"/>
       <c r="AJ92" t="inlineStr"/>
       <c r="AK92" t="inlineStr"/>
+      <c r="AL92" t="inlineStr"/>
+      <c r="AM92" t="inlineStr"/>
+      <c r="AN92" t="inlineStr"/>
+      <c r="AO92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -10791,14 +11655,24 @@
       <c r="AC93" t="n">
         <v>0.143455035302861</v>
       </c>
-      <c r="AD93" t="inlineStr"/>
-      <c r="AE93" t="inlineStr"/>
+      <c r="AD93" t="n">
+        <v>0.1081383968504337</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>0.09831570318579641</v>
+      </c>
       <c r="AF93" t="inlineStr"/>
-      <c r="AG93" t="inlineStr"/>
+      <c r="AG93" t="n">
+        <v>0.03865067922737327</v>
+      </c>
       <c r="AH93" t="inlineStr"/>
       <c r="AI93" t="inlineStr"/>
       <c r="AJ93" t="inlineStr"/>
       <c r="AK93" t="inlineStr"/>
+      <c r="AL93" t="inlineStr"/>
+      <c r="AM93" t="inlineStr"/>
+      <c r="AN93" t="inlineStr"/>
+      <c r="AO93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -10904,14 +11778,22 @@
       <c r="AC94" t="n">
         <v>0.199697162697749</v>
       </c>
-      <c r="AD94" t="inlineStr"/>
-      <c r="AE94" t="inlineStr"/>
+      <c r="AD94" t="n">
+        <v>0.08880524533021837</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>0.1297986834170133</v>
+      </c>
       <c r="AF94" t="inlineStr"/>
       <c r="AG94" t="inlineStr"/>
       <c r="AH94" t="inlineStr"/>
       <c r="AI94" t="inlineStr"/>
       <c r="AJ94" t="inlineStr"/>
       <c r="AK94" t="inlineStr"/>
+      <c r="AL94" t="inlineStr"/>
+      <c r="AM94" t="inlineStr"/>
+      <c r="AN94" t="inlineStr"/>
+      <c r="AO94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -11021,14 +11903,22 @@
       <c r="AC95" t="n">
         <v>0.442147803546383</v>
       </c>
-      <c r="AD95" t="inlineStr"/>
-      <c r="AE95" t="inlineStr"/>
+      <c r="AD95" t="n">
+        <v>0.1361184276666332</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>0.09817535765011584</v>
+      </c>
       <c r="AF95" t="inlineStr"/>
       <c r="AG95" t="inlineStr"/>
       <c r="AH95" t="inlineStr"/>
       <c r="AI95" t="inlineStr"/>
       <c r="AJ95" t="inlineStr"/>
       <c r="AK95" t="inlineStr"/>
+      <c r="AL95" t="inlineStr"/>
+      <c r="AM95" t="inlineStr"/>
+      <c r="AN95" t="inlineStr"/>
+      <c r="AO95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -11138,14 +12028,24 @@
       <c r="AC96" t="n">
         <v>0.443822020198024</v>
       </c>
-      <c r="AD96" t="inlineStr"/>
-      <c r="AE96" t="inlineStr"/>
+      <c r="AD96" t="n">
+        <v>0.1255719537656911</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>0.08543764483524366</v>
+      </c>
       <c r="AF96" t="inlineStr"/>
-      <c r="AG96" t="inlineStr"/>
+      <c r="AG96" t="n">
+        <v>0.08208784904137745</v>
+      </c>
       <c r="AH96" t="inlineStr"/>
       <c r="AI96" t="inlineStr"/>
       <c r="AJ96" t="inlineStr"/>
       <c r="AK96" t="inlineStr"/>
+      <c r="AL96" t="inlineStr"/>
+      <c r="AM96" t="inlineStr"/>
+      <c r="AN96" t="inlineStr"/>
+      <c r="AO96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -11251,14 +12151,24 @@
       <c r="AC97" t="n">
         <v>0.194999850227654</v>
       </c>
-      <c r="AD97" t="inlineStr"/>
-      <c r="AE97" t="inlineStr"/>
-      <c r="AF97" t="inlineStr"/>
+      <c r="AD97" t="n">
+        <v>0.1237887011805715</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>0.109428127179747</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>0.1244773973000418</v>
+      </c>
       <c r="AG97" t="inlineStr"/>
       <c r="AH97" t="inlineStr"/>
       <c r="AI97" t="inlineStr"/>
       <c r="AJ97" t="inlineStr"/>
       <c r="AK97" t="inlineStr"/>
+      <c r="AL97" t="inlineStr"/>
+      <c r="AM97" t="inlineStr"/>
+      <c r="AN97" t="inlineStr"/>
+      <c r="AO97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -11360,14 +12270,22 @@
       <c r="AC98" t="n">
         <v>0.256766391158633</v>
       </c>
-      <c r="AD98" t="inlineStr"/>
-      <c r="AE98" t="inlineStr"/>
+      <c r="AD98" t="n">
+        <v>0.1157629422878106</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>0.110761689376739</v>
+      </c>
       <c r="AF98" t="inlineStr"/>
       <c r="AG98" t="inlineStr"/>
       <c r="AH98" t="inlineStr"/>
       <c r="AI98" t="inlineStr"/>
       <c r="AJ98" t="inlineStr"/>
       <c r="AK98" t="inlineStr"/>
+      <c r="AL98" t="inlineStr"/>
+      <c r="AM98" t="inlineStr"/>
+      <c r="AN98" t="inlineStr"/>
+      <c r="AO98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -11465,14 +12383,26 @@
       <c r="AC99" t="n">
         <v>0.260676873101911</v>
       </c>
-      <c r="AD99" t="inlineStr"/>
-      <c r="AE99" t="inlineStr"/>
-      <c r="AF99" t="inlineStr"/>
-      <c r="AG99" t="inlineStr"/>
+      <c r="AD99" t="n">
+        <v>0.1179399146305997</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>0.1313168855863353</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>0.1246172103147335</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>0.08263903000745107</v>
+      </c>
       <c r="AH99" t="inlineStr"/>
       <c r="AI99" t="inlineStr"/>
       <c r="AJ99" t="inlineStr"/>
       <c r="AK99" t="inlineStr"/>
+      <c r="AL99" t="inlineStr"/>
+      <c r="AM99" t="inlineStr"/>
+      <c r="AN99" t="inlineStr"/>
+      <c r="AO99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -11566,14 +12496,24 @@
       <c r="AC100" t="n">
         <v>0.0833259190808484</v>
       </c>
-      <c r="AD100" t="inlineStr"/>
-      <c r="AE100" t="inlineStr"/>
+      <c r="AD100" t="n">
+        <v>0.08012638702293876</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>0.1055835798437971</v>
+      </c>
       <c r="AF100" t="inlineStr"/>
-      <c r="AG100" t="inlineStr"/>
+      <c r="AG100" t="n">
+        <v>0.07556878188107423</v>
+      </c>
       <c r="AH100" t="inlineStr"/>
       <c r="AI100" t="inlineStr"/>
       <c r="AJ100" t="inlineStr"/>
       <c r="AK100" t="inlineStr"/>
+      <c r="AL100" t="inlineStr"/>
+      <c r="AM100" t="inlineStr"/>
+      <c r="AN100" t="inlineStr"/>
+      <c r="AO100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -11667,14 +12607,26 @@
       <c r="AC101" t="n">
         <v>0.286766381766382</v>
       </c>
-      <c r="AD101" t="inlineStr"/>
-      <c r="AE101" t="inlineStr"/>
+      <c r="AD101" t="n">
+        <v>0.1007197564861982</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>0.1283899957900224</v>
+      </c>
       <c r="AF101" t="inlineStr"/>
-      <c r="AG101" t="inlineStr"/>
-      <c r="AH101" t="inlineStr"/>
+      <c r="AG101" t="n">
+        <v>0.06596980255516841</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>0.14825159541918</v>
+      </c>
       <c r="AI101" t="inlineStr"/>
       <c r="AJ101" t="inlineStr"/>
       <c r="AK101" t="inlineStr"/>
+      <c r="AL101" t="inlineStr"/>
+      <c r="AM101" t="inlineStr"/>
+      <c r="AN101" t="inlineStr"/>
+      <c r="AO101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -11780,14 +12732,24 @@
       <c r="AC102" t="n">
         <v>0.313258090988807</v>
       </c>
-      <c r="AD102" t="inlineStr"/>
-      <c r="AE102" t="inlineStr"/>
-      <c r="AF102" t="inlineStr"/>
+      <c r="AD102" t="n">
+        <v>0.1333627736455458</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>0.1187740171004784</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>0.1610719455040696</v>
+      </c>
       <c r="AG102" t="inlineStr"/>
       <c r="AH102" t="inlineStr"/>
       <c r="AI102" t="inlineStr"/>
       <c r="AJ102" t="inlineStr"/>
       <c r="AK102" t="inlineStr"/>
+      <c r="AL102" t="inlineStr"/>
+      <c r="AM102" t="inlineStr"/>
+      <c r="AN102" t="inlineStr"/>
+      <c r="AO102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -11895,14 +12857,22 @@
       <c r="AC103" t="n">
         <v>0.21624668695626</v>
       </c>
-      <c r="AD103" t="inlineStr"/>
-      <c r="AE103" t="inlineStr"/>
+      <c r="AD103" t="n">
+        <v>0.0548085657048291</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>0.09699110413396128</v>
+      </c>
       <c r="AF103" t="inlineStr"/>
       <c r="AG103" t="inlineStr"/>
       <c r="AH103" t="inlineStr"/>
       <c r="AI103" t="inlineStr"/>
       <c r="AJ103" t="inlineStr"/>
       <c r="AK103" t="inlineStr"/>
+      <c r="AL103" t="inlineStr"/>
+      <c r="AM103" t="inlineStr"/>
+      <c r="AN103" t="inlineStr"/>
+      <c r="AO103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -12008,14 +12978,22 @@
       <c r="AC104" t="n">
         <v>0.208909913813857</v>
       </c>
-      <c r="AD104" t="inlineStr"/>
-      <c r="AE104" t="inlineStr"/>
+      <c r="AD104" t="n">
+        <v>0.1142450172847317</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>0.1087051213455708</v>
+      </c>
       <c r="AF104" t="inlineStr"/>
       <c r="AG104" t="inlineStr"/>
       <c r="AH104" t="inlineStr"/>
       <c r="AI104" t="inlineStr"/>
       <c r="AJ104" t="inlineStr"/>
       <c r="AK104" t="inlineStr"/>
+      <c r="AL104" t="inlineStr"/>
+      <c r="AM104" t="inlineStr"/>
+      <c r="AN104" t="inlineStr"/>
+      <c r="AO104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -12109,14 +13087,22 @@
       <c r="AC105" t="n">
         <v>0.42764944141908</v>
       </c>
-      <c r="AD105" t="inlineStr"/>
-      <c r="AE105" t="inlineStr"/>
+      <c r="AD105" t="n">
+        <v>0.1645250090889386</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>0.1631070783907215</v>
+      </c>
       <c r="AF105" t="inlineStr"/>
       <c r="AG105" t="inlineStr"/>
       <c r="AH105" t="inlineStr"/>
       <c r="AI105" t="inlineStr"/>
       <c r="AJ105" t="inlineStr"/>
       <c r="AK105" t="inlineStr"/>
+      <c r="AL105" t="inlineStr"/>
+      <c r="AM105" t="inlineStr"/>
+      <c r="AN105" t="inlineStr"/>
+      <c r="AO105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -12222,14 +13208,24 @@
       <c r="AC106" t="n">
         <v>0.363080195158615</v>
       </c>
-      <c r="AD106" t="inlineStr"/>
-      <c r="AE106" t="inlineStr"/>
-      <c r="AF106" t="inlineStr"/>
+      <c r="AD106" t="n">
+        <v>0.1088779561122337</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>0.1126409950953562</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>0.1145476531556306</v>
+      </c>
       <c r="AG106" t="inlineStr"/>
       <c r="AH106" t="inlineStr"/>
       <c r="AI106" t="inlineStr"/>
       <c r="AJ106" t="inlineStr"/>
       <c r="AK106" t="inlineStr"/>
+      <c r="AL106" t="inlineStr"/>
+      <c r="AM106" t="inlineStr"/>
+      <c r="AN106" t="inlineStr"/>
+      <c r="AO106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -12339,14 +13335,24 @@
       <c r="AC107" t="n">
         <v>0.450971431718381</v>
       </c>
-      <c r="AD107" t="inlineStr"/>
-      <c r="AE107" t="inlineStr"/>
-      <c r="AF107" t="inlineStr"/>
+      <c r="AD107" t="n">
+        <v>0.1260136688708117</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>0.139436014504376</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>0.168563764609778</v>
+      </c>
       <c r="AG107" t="inlineStr"/>
       <c r="AH107" t="inlineStr"/>
       <c r="AI107" t="inlineStr"/>
       <c r="AJ107" t="inlineStr"/>
       <c r="AK107" t="inlineStr"/>
+      <c r="AL107" t="inlineStr"/>
+      <c r="AM107" t="inlineStr"/>
+      <c r="AN107" t="inlineStr"/>
+      <c r="AO107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -12452,14 +13458,24 @@
       <c r="AC108" t="n">
         <v>0.33286723523445</v>
       </c>
-      <c r="AD108" t="inlineStr"/>
-      <c r="AE108" t="inlineStr"/>
-      <c r="AF108" t="inlineStr"/>
+      <c r="AD108" t="n">
+        <v>0.09506368117442519</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>0.1204368175822571</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>0.1114976421428034</v>
+      </c>
       <c r="AG108" t="inlineStr"/>
       <c r="AH108" t="inlineStr"/>
       <c r="AI108" t="inlineStr"/>
       <c r="AJ108" t="inlineStr"/>
       <c r="AK108" t="inlineStr"/>
+      <c r="AL108" t="inlineStr"/>
+      <c r="AM108" t="inlineStr"/>
+      <c r="AN108" t="inlineStr"/>
+      <c r="AO108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -12553,14 +13569,24 @@
       <c r="AC109" t="n">
         <v>0.450436980190777</v>
       </c>
-      <c r="AD109" t="inlineStr"/>
-      <c r="AE109" t="inlineStr"/>
+      <c r="AD109" t="n">
+        <v>0.1683812773579056</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>0.1435032298941679</v>
+      </c>
       <c r="AF109" t="inlineStr"/>
-      <c r="AG109" t="inlineStr"/>
+      <c r="AG109" t="n">
+        <v>0.1161816639983039</v>
+      </c>
       <c r="AH109" t="inlineStr"/>
       <c r="AI109" t="inlineStr"/>
       <c r="AJ109" t="inlineStr"/>
       <c r="AK109" t="inlineStr"/>
+      <c r="AL109" t="inlineStr"/>
+      <c r="AM109" t="inlineStr"/>
+      <c r="AN109" t="inlineStr"/>
+      <c r="AO109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -12654,14 +13680,22 @@
       <c r="AC110" t="n">
         <v>0.298514392370504</v>
       </c>
-      <c r="AD110" t="inlineStr"/>
-      <c r="AE110" t="inlineStr"/>
+      <c r="AD110" t="n">
+        <v>0.1098421835360042</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>0.1001154158088465</v>
+      </c>
       <c r="AF110" t="inlineStr"/>
       <c r="AG110" t="inlineStr"/>
       <c r="AH110" t="inlineStr"/>
       <c r="AI110" t="inlineStr"/>
       <c r="AJ110" t="inlineStr"/>
       <c r="AK110" t="inlineStr"/>
+      <c r="AL110" t="inlineStr"/>
+      <c r="AM110" t="inlineStr"/>
+      <c r="AN110" t="inlineStr"/>
+      <c r="AO110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -12767,14 +13801,22 @@
       <c r="AC111" t="n">
         <v>0.386369642886827</v>
       </c>
-      <c r="AD111" t="inlineStr"/>
-      <c r="AE111" t="inlineStr"/>
+      <c r="AD111" t="n">
+        <v>0.1547072875247991</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>0.1232820795333952</v>
+      </c>
       <c r="AF111" t="inlineStr"/>
       <c r="AG111" t="inlineStr"/>
       <c r="AH111" t="inlineStr"/>
       <c r="AI111" t="inlineStr"/>
       <c r="AJ111" t="inlineStr"/>
       <c r="AK111" t="inlineStr"/>
+      <c r="AL111" t="inlineStr"/>
+      <c r="AM111" t="inlineStr"/>
+      <c r="AN111" t="inlineStr"/>
+      <c r="AO111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -12876,14 +13918,26 @@
       <c r="AC112" t="n">
         <v>0.361897456010828</v>
       </c>
-      <c r="AD112" t="inlineStr"/>
-      <c r="AE112" t="inlineStr"/>
+      <c r="AD112" t="n">
+        <v>0.1099520569533037</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>0.12000567600104</v>
+      </c>
       <c r="AF112" t="inlineStr"/>
-      <c r="AG112" t="inlineStr"/>
-      <c r="AH112" t="inlineStr"/>
+      <c r="AG112" t="n">
+        <v>0.07883984104965028</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>0.1122045893981565</v>
+      </c>
       <c r="AI112" t="inlineStr"/>
       <c r="AJ112" t="inlineStr"/>
       <c r="AK112" t="inlineStr"/>
+      <c r="AL112" t="inlineStr"/>
+      <c r="AM112" t="inlineStr"/>
+      <c r="AN112" t="inlineStr"/>
+      <c r="AO112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -12993,14 +14047,24 @@
       <c r="AC113" t="n">
         <v>0.342802054606974</v>
       </c>
-      <c r="AD113" t="inlineStr"/>
-      <c r="AE113" t="inlineStr"/>
+      <c r="AD113" t="n">
+        <v>0.08352540198389427</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>0.1272415294337266</v>
+      </c>
       <c r="AF113" t="inlineStr"/>
-      <c r="AG113" t="inlineStr"/>
+      <c r="AG113" t="n">
+        <v>0.09391505512912761</v>
+      </c>
       <c r="AH113" t="inlineStr"/>
       <c r="AI113" t="inlineStr"/>
       <c r="AJ113" t="inlineStr"/>
       <c r="AK113" t="inlineStr"/>
+      <c r="AL113" t="inlineStr"/>
+      <c r="AM113" t="inlineStr"/>
+      <c r="AN113" t="inlineStr"/>
+      <c r="AO113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -13104,14 +14168,22 @@
       <c r="AC114" t="n">
         <v>0.277691293287763</v>
       </c>
-      <c r="AD114" t="inlineStr"/>
-      <c r="AE114" t="inlineStr"/>
+      <c r="AD114" t="n">
+        <v>0.1160025711620215</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>0.1366447307158547</v>
+      </c>
       <c r="AF114" t="inlineStr"/>
       <c r="AG114" t="inlineStr"/>
       <c r="AH114" t="inlineStr"/>
       <c r="AI114" t="inlineStr"/>
       <c r="AJ114" t="inlineStr"/>
       <c r="AK114" t="inlineStr"/>
+      <c r="AL114" t="inlineStr"/>
+      <c r="AM114" t="inlineStr"/>
+      <c r="AN114" t="inlineStr"/>
+      <c r="AO114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -13213,14 +14285,22 @@
       <c r="AC115" t="n">
         <v>0.327047947357278</v>
       </c>
-      <c r="AD115" t="inlineStr"/>
-      <c r="AE115" t="inlineStr"/>
+      <c r="AD115" t="n">
+        <v>0.1424205658899536</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>0.1421777633071435</v>
+      </c>
       <c r="AF115" t="inlineStr"/>
       <c r="AG115" t="inlineStr"/>
       <c r="AH115" t="inlineStr"/>
       <c r="AI115" t="inlineStr"/>
       <c r="AJ115" t="inlineStr"/>
       <c r="AK115" t="inlineStr"/>
+      <c r="AL115" t="inlineStr"/>
+      <c r="AM115" t="inlineStr"/>
+      <c r="AN115" t="inlineStr"/>
+      <c r="AO115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -13318,14 +14398,22 @@
       <c r="AC116" t="n">
         <v>0.323032033326151</v>
       </c>
-      <c r="AD116" t="inlineStr"/>
-      <c r="AE116" t="inlineStr"/>
+      <c r="AD116" t="n">
+        <v>0.08596711820925315</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>0.1081629609111151</v>
+      </c>
       <c r="AF116" t="inlineStr"/>
       <c r="AG116" t="inlineStr"/>
       <c r="AH116" t="inlineStr"/>
       <c r="AI116" t="inlineStr"/>
       <c r="AJ116" t="inlineStr"/>
       <c r="AK116" t="inlineStr"/>
+      <c r="AL116" t="inlineStr"/>
+      <c r="AM116" t="inlineStr"/>
+      <c r="AN116" t="inlineStr"/>
+      <c r="AO116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -13427,14 +14515,24 @@
       <c r="AC117" t="n">
         <v>0.505002619221101</v>
       </c>
-      <c r="AD117" t="inlineStr"/>
-      <c r="AE117" t="inlineStr"/>
-      <c r="AF117" t="inlineStr"/>
+      <c r="AD117" t="n">
+        <v>0.07903246179108248</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>0.2468151745824188</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>0.2441548124532525</v>
+      </c>
       <c r="AG117" t="inlineStr"/>
       <c r="AH117" t="inlineStr"/>
       <c r="AI117" t="inlineStr"/>
       <c r="AJ117" t="inlineStr"/>
       <c r="AK117" t="inlineStr"/>
+      <c r="AL117" t="inlineStr"/>
+      <c r="AM117" t="inlineStr"/>
+      <c r="AN117" t="inlineStr"/>
+      <c r="AO117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -13536,14 +14634,22 @@
       <c r="AC118" t="n">
         <v>0.50994958184869</v>
       </c>
-      <c r="AD118" t="inlineStr"/>
-      <c r="AE118" t="inlineStr"/>
+      <c r="AD118" t="n">
+        <v>0.06353646353646354</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>0.2503151106731669</v>
+      </c>
       <c r="AF118" t="inlineStr"/>
       <c r="AG118" t="inlineStr"/>
       <c r="AH118" t="inlineStr"/>
       <c r="AI118" t="inlineStr"/>
       <c r="AJ118" t="inlineStr"/>
       <c r="AK118" t="inlineStr"/>
+      <c r="AL118" t="inlineStr"/>
+      <c r="AM118" t="inlineStr"/>
+      <c r="AN118" t="inlineStr"/>
+      <c r="AO118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -13653,14 +14759,22 @@
       <c r="AC119" t="n">
         <v>0.515039682539683</v>
       </c>
-      <c r="AD119" t="inlineStr"/>
-      <c r="AE119" t="inlineStr"/>
+      <c r="AD119" t="n">
+        <v>0.08593596755265595</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>0.2363135207216035</v>
+      </c>
       <c r="AF119" t="inlineStr"/>
       <c r="AG119" t="inlineStr"/>
       <c r="AH119" t="inlineStr"/>
       <c r="AI119" t="inlineStr"/>
       <c r="AJ119" t="inlineStr"/>
       <c r="AK119" t="inlineStr"/>
+      <c r="AL119" t="inlineStr"/>
+      <c r="AM119" t="inlineStr"/>
+      <c r="AN119" t="inlineStr"/>
+      <c r="AO119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -13770,14 +14884,22 @@
       <c r="AC120" t="n">
         <v>0.506327784327672</v>
       </c>
-      <c r="AD120" t="inlineStr"/>
-      <c r="AE120" t="inlineStr"/>
+      <c r="AD120" t="n">
+        <v>0.09033420569439291</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>0.1903377049454333</v>
+      </c>
       <c r="AF120" t="inlineStr"/>
       <c r="AG120" t="inlineStr"/>
       <c r="AH120" t="inlineStr"/>
       <c r="AI120" t="inlineStr"/>
       <c r="AJ120" t="inlineStr"/>
       <c r="AK120" t="inlineStr"/>
+      <c r="AL120" t="inlineStr"/>
+      <c r="AM120" t="inlineStr"/>
+      <c r="AN120" t="inlineStr"/>
+      <c r="AO120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -13879,14 +15001,22 @@
       <c r="AC121" t="n">
         <v>0.101878273433267</v>
       </c>
-      <c r="AD121" t="inlineStr"/>
-      <c r="AE121" t="inlineStr"/>
+      <c r="AD121" t="n">
+        <v>0.06784097759979509</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>0.1127899959111548</v>
+      </c>
       <c r="AF121" t="inlineStr"/>
       <c r="AG121" t="inlineStr"/>
       <c r="AH121" t="inlineStr"/>
       <c r="AI121" t="inlineStr"/>
       <c r="AJ121" t="inlineStr"/>
       <c r="AK121" t="inlineStr"/>
+      <c r="AL121" t="inlineStr"/>
+      <c r="AM121" t="inlineStr"/>
+      <c r="AN121" t="inlineStr"/>
+      <c r="AO121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -13988,14 +15118,26 @@
       <c r="AC122" t="n">
         <v>0.429589099625864</v>
       </c>
-      <c r="AD122" t="inlineStr"/>
-      <c r="AE122" t="inlineStr"/>
-      <c r="AF122" t="inlineStr"/>
-      <c r="AG122" t="inlineStr"/>
+      <c r="AD122" t="n">
+        <v>0.181089287845464</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>0.1820107646429322</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>0.2399661261525668</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>0.1140561017710086</v>
+      </c>
       <c r="AH122" t="inlineStr"/>
       <c r="AI122" t="inlineStr"/>
       <c r="AJ122" t="inlineStr"/>
       <c r="AK122" t="inlineStr"/>
+      <c r="AL122" t="inlineStr"/>
+      <c r="AM122" t="inlineStr"/>
+      <c r="AN122" t="inlineStr"/>
+      <c r="AO122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -14101,14 +15243,22 @@
       <c r="AC123" t="n">
         <v>0.228991596638655</v>
       </c>
-      <c r="AD123" t="inlineStr"/>
-      <c r="AE123" t="inlineStr"/>
+      <c r="AD123" t="n">
+        <v>0.1543207001853618</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>0.09641110523463466</v>
+      </c>
       <c r="AF123" t="inlineStr"/>
       <c r="AG123" t="inlineStr"/>
       <c r="AH123" t="inlineStr"/>
       <c r="AI123" t="inlineStr"/>
       <c r="AJ123" t="inlineStr"/>
       <c r="AK123" t="inlineStr"/>
+      <c r="AL123" t="inlineStr"/>
+      <c r="AM123" t="inlineStr"/>
+      <c r="AN123" t="inlineStr"/>
+      <c r="AO123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -14214,14 +15364,22 @@
       <c r="AC124" t="n">
         <v>0.410138833901952</v>
       </c>
-      <c r="AD124" t="inlineStr"/>
-      <c r="AE124" t="inlineStr"/>
+      <c r="AD124" t="n">
+        <v>0.119085377457847</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>0.1134528340568148</v>
+      </c>
       <c r="AF124" t="inlineStr"/>
       <c r="AG124" t="inlineStr"/>
       <c r="AH124" t="inlineStr"/>
       <c r="AI124" t="inlineStr"/>
       <c r="AJ124" t="inlineStr"/>
       <c r="AK124" t="inlineStr"/>
+      <c r="AL124" t="inlineStr"/>
+      <c r="AM124" t="inlineStr"/>
+      <c r="AN124" t="inlineStr"/>
+      <c r="AO124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -14325,14 +15483,24 @@
       <c r="AC125" t="n">
         <v>0.230884681025908</v>
       </c>
-      <c r="AD125" t="inlineStr"/>
-      <c r="AE125" t="inlineStr"/>
+      <c r="AD125" t="n">
+        <v>0.05159596116600164</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>0.1266465187403641</v>
+      </c>
       <c r="AF125" t="inlineStr"/>
-      <c r="AG125" t="inlineStr"/>
+      <c r="AG125" t="n">
+        <v>0.02502946467340736</v>
+      </c>
       <c r="AH125" t="inlineStr"/>
       <c r="AI125" t="inlineStr"/>
       <c r="AJ125" t="inlineStr"/>
       <c r="AK125" t="inlineStr"/>
+      <c r="AL125" t="inlineStr"/>
+      <c r="AM125" t="inlineStr"/>
+      <c r="AN125" t="inlineStr"/>
+      <c r="AO125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -14434,14 +15602,22 @@
       <c r="AC126" t="n">
         <v>0.239522893078782</v>
       </c>
-      <c r="AD126" t="inlineStr"/>
-      <c r="AE126" t="inlineStr"/>
+      <c r="AD126" t="n">
+        <v>0.1246558617987189</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>0.1213322355809007</v>
+      </c>
       <c r="AF126" t="inlineStr"/>
       <c r="AG126" t="inlineStr"/>
       <c r="AH126" t="inlineStr"/>
       <c r="AI126" t="inlineStr"/>
       <c r="AJ126" t="inlineStr"/>
       <c r="AK126" t="inlineStr"/>
+      <c r="AL126" t="inlineStr"/>
+      <c r="AM126" t="inlineStr"/>
+      <c r="AN126" t="inlineStr"/>
+      <c r="AO126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -14547,14 +15723,26 @@
       <c r="AC127" t="n">
         <v>0.181880536695717</v>
       </c>
-      <c r="AD127" t="inlineStr"/>
-      <c r="AE127" t="inlineStr"/>
+      <c r="AD127" t="n">
+        <v>0.1181397260256188</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>0.134170330500824</v>
+      </c>
       <c r="AF127" t="inlineStr"/>
-      <c r="AG127" t="inlineStr"/>
-      <c r="AH127" t="inlineStr"/>
+      <c r="AG127" t="n">
+        <v>0.07125013099828557</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>0.1133651789016445</v>
+      </c>
       <c r="AI127" t="inlineStr"/>
       <c r="AJ127" t="inlineStr"/>
       <c r="AK127" t="inlineStr"/>
+      <c r="AL127" t="inlineStr"/>
+      <c r="AM127" t="inlineStr"/>
+      <c r="AN127" t="inlineStr"/>
+      <c r="AO127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -14662,14 +15850,22 @@
       <c r="AC128" t="n">
         <v>0.102529761904762</v>
       </c>
-      <c r="AD128" t="inlineStr"/>
-      <c r="AE128" t="inlineStr"/>
+      <c r="AD128" t="n">
+        <v>0.09831548138698896</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>0.05103383458646617</v>
+      </c>
       <c r="AF128" t="inlineStr"/>
       <c r="AG128" t="inlineStr"/>
       <c r="AH128" t="inlineStr"/>
       <c r="AI128" t="inlineStr"/>
       <c r="AJ128" t="inlineStr"/>
       <c r="AK128" t="inlineStr"/>
+      <c r="AL128" t="inlineStr"/>
+      <c r="AM128" t="inlineStr"/>
+      <c r="AN128" t="inlineStr"/>
+      <c r="AO128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -14775,14 +15971,22 @@
       <c r="AC129" t="n">
         <v>0.42645817135815</v>
       </c>
-      <c r="AD129" t="inlineStr"/>
-      <c r="AE129" t="inlineStr"/>
+      <c r="AD129" t="n">
+        <v>0.1384200761903678</v>
+      </c>
+      <c r="AE129" t="n">
+        <v>0.1358676916229447</v>
+      </c>
       <c r="AF129" t="inlineStr"/>
       <c r="AG129" t="inlineStr"/>
       <c r="AH129" t="inlineStr"/>
       <c r="AI129" t="inlineStr"/>
       <c r="AJ129" t="inlineStr"/>
       <c r="AK129" t="inlineStr"/>
+      <c r="AL129" t="inlineStr"/>
+      <c r="AM129" t="inlineStr"/>
+      <c r="AN129" t="inlineStr"/>
+      <c r="AO129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -14888,14 +16092,22 @@
       <c r="AC130" t="n">
         <v>0.374479336488158</v>
       </c>
-      <c r="AD130" t="inlineStr"/>
-      <c r="AE130" t="inlineStr"/>
+      <c r="AD130" t="n">
+        <v>0.1190982025349459</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>0.1304898804898805</v>
+      </c>
       <c r="AF130" t="inlineStr"/>
       <c r="AG130" t="inlineStr"/>
       <c r="AH130" t="inlineStr"/>
       <c r="AI130" t="inlineStr"/>
       <c r="AJ130" t="inlineStr"/>
       <c r="AK130" t="inlineStr"/>
+      <c r="AL130" t="inlineStr"/>
+      <c r="AM130" t="inlineStr"/>
+      <c r="AN130" t="inlineStr"/>
+      <c r="AO130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -15001,14 +16213,24 @@
       <c r="AC131" t="n">
         <v>0.387028329269709</v>
       </c>
-      <c r="AD131" t="inlineStr"/>
-      <c r="AE131" t="inlineStr"/>
-      <c r="AF131" t="inlineStr"/>
+      <c r="AD131" t="n">
+        <v>0.1132032710336759</v>
+      </c>
+      <c r="AE131" t="n">
+        <v>0.1359491044277284</v>
+      </c>
+      <c r="AF131" t="n">
+        <v>0.1428193002731339</v>
+      </c>
       <c r="AG131" t="inlineStr"/>
       <c r="AH131" t="inlineStr"/>
       <c r="AI131" t="inlineStr"/>
       <c r="AJ131" t="inlineStr"/>
       <c r="AK131" t="inlineStr"/>
+      <c r="AL131" t="inlineStr"/>
+      <c r="AM131" t="inlineStr"/>
+      <c r="AN131" t="inlineStr"/>
+      <c r="AO131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -15120,18 +16342,22 @@
         <v>0.4270882773005112</v>
       </c>
       <c r="AG132" t="n">
+        <v>0.09991137206679089</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>0.1868935657999109</v>
+      </c>
+      <c r="AI132" t="n">
         <v>0.1947474747474748</v>
-      </c>
-      <c r="AH132" t="n">
-        <v>0.09991137206679089</v>
-      </c>
-      <c r="AI132" t="n">
-        <v>0.1868935657999109</v>
       </c>
       <c r="AJ132" t="n">
         <v>0.3364823907467831</v>
       </c>
       <c r="AK132" t="inlineStr"/>
+      <c r="AL132" t="inlineStr"/>
+      <c r="AM132" t="inlineStr"/>
+      <c r="AN132" t="inlineStr"/>
+      <c r="AO132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -15237,14 +16463,22 @@
       <c r="AC133" t="n">
         <v>0.425791002254091</v>
       </c>
-      <c r="AD133" t="inlineStr"/>
-      <c r="AE133" t="inlineStr"/>
+      <c r="AD133" t="n">
+        <v>0.09497044885387866</v>
+      </c>
+      <c r="AE133" t="n">
+        <v>0.1473578101659553</v>
+      </c>
       <c r="AF133" t="inlineStr"/>
       <c r="AG133" t="inlineStr"/>
       <c r="AH133" t="inlineStr"/>
       <c r="AI133" t="inlineStr"/>
       <c r="AJ133" t="inlineStr"/>
       <c r="AK133" t="inlineStr"/>
+      <c r="AL133" t="inlineStr"/>
+      <c r="AM133" t="inlineStr"/>
+      <c r="AN133" t="inlineStr"/>
+      <c r="AO133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -15338,14 +16572,24 @@
       <c r="AC134" t="n">
         <v>0.144420418131967</v>
       </c>
-      <c r="AD134" t="inlineStr"/>
-      <c r="AE134" t="inlineStr"/>
-      <c r="AF134" t="inlineStr"/>
+      <c r="AD134" t="n">
+        <v>0.1007605006591528</v>
+      </c>
+      <c r="AE134" t="n">
+        <v>0.09237256970498429</v>
+      </c>
+      <c r="AF134" t="n">
+        <v>0.1112198459137235</v>
+      </c>
       <c r="AG134" t="inlineStr"/>
       <c r="AH134" t="inlineStr"/>
       <c r="AI134" t="inlineStr"/>
       <c r="AJ134" t="inlineStr"/>
       <c r="AK134" t="inlineStr"/>
+      <c r="AL134" t="inlineStr"/>
+      <c r="AM134" t="inlineStr"/>
+      <c r="AN134" t="inlineStr"/>
+      <c r="AO134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -15455,14 +16699,22 @@
       <c r="AC135" t="n">
         <v>0.39841207578762</v>
       </c>
-      <c r="AD135" t="inlineStr"/>
-      <c r="AE135" t="inlineStr"/>
+      <c r="AD135" t="n">
+        <v>0.1283284546355856</v>
+      </c>
+      <c r="AE135" t="n">
+        <v>0.1115976030572304</v>
+      </c>
       <c r="AF135" t="inlineStr"/>
       <c r="AG135" t="inlineStr"/>
       <c r="AH135" t="inlineStr"/>
       <c r="AI135" t="inlineStr"/>
       <c r="AJ135" t="inlineStr"/>
       <c r="AK135" t="inlineStr"/>
+      <c r="AL135" t="inlineStr"/>
+      <c r="AM135" t="inlineStr"/>
+      <c r="AN135" t="inlineStr"/>
+      <c r="AO135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -15568,14 +16820,22 @@
       <c r="AC136" t="n">
         <v>0.497370885260481</v>
       </c>
-      <c r="AD136" t="inlineStr"/>
-      <c r="AE136" t="inlineStr"/>
+      <c r="AD136" t="n">
+        <v>0.1504227595865227</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>0.1890850433503986</v>
+      </c>
       <c r="AF136" t="inlineStr"/>
       <c r="AG136" t="inlineStr"/>
       <c r="AH136" t="inlineStr"/>
       <c r="AI136" t="inlineStr"/>
       <c r="AJ136" t="inlineStr"/>
       <c r="AK136" t="inlineStr"/>
+      <c r="AL136" t="inlineStr"/>
+      <c r="AM136" t="inlineStr"/>
+      <c r="AN136" t="inlineStr"/>
+      <c r="AO136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -15677,14 +16937,24 @@
       <c r="AC137" t="n">
         <v>0.537519583695547</v>
       </c>
-      <c r="AD137" t="inlineStr"/>
-      <c r="AE137" t="inlineStr"/>
-      <c r="AF137" t="inlineStr"/>
+      <c r="AD137" t="n">
+        <v>0.141303309899369</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>0.1898593333154941</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>0.1935275488027422</v>
+      </c>
       <c r="AG137" t="inlineStr"/>
       <c r="AH137" t="inlineStr"/>
       <c r="AI137" t="inlineStr"/>
       <c r="AJ137" t="inlineStr"/>
       <c r="AK137" t="inlineStr"/>
+      <c r="AL137" t="inlineStr"/>
+      <c r="AM137" t="inlineStr"/>
+      <c r="AN137" t="inlineStr"/>
+      <c r="AO137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -15786,14 +17056,24 @@
       <c r="AC138" t="n">
         <v>0.404639626145859</v>
       </c>
-      <c r="AD138" t="inlineStr"/>
-      <c r="AE138" t="inlineStr"/>
-      <c r="AF138" t="inlineStr"/>
+      <c r="AD138" t="n">
+        <v>0.1503722243614427</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>0.1522391264032601</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>0.1621719475408348</v>
+      </c>
       <c r="AG138" t="inlineStr"/>
       <c r="AH138" t="inlineStr"/>
       <c r="AI138" t="inlineStr"/>
       <c r="AJ138" t="inlineStr"/>
       <c r="AK138" t="inlineStr"/>
+      <c r="AL138" t="inlineStr"/>
+      <c r="AM138" t="inlineStr"/>
+      <c r="AN138" t="inlineStr"/>
+      <c r="AO138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -15903,14 +17183,24 @@
       <c r="AC139" t="n">
         <v>0.513507211543004</v>
       </c>
-      <c r="AD139" t="inlineStr"/>
-      <c r="AE139" t="inlineStr"/>
+      <c r="AD139" t="n">
+        <v>0.1219082626174714</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>0.2191362693692338</v>
+      </c>
       <c r="AF139" t="inlineStr"/>
-      <c r="AG139" t="inlineStr"/>
+      <c r="AG139" t="n">
+        <v>0.1232399969191833</v>
+      </c>
       <c r="AH139" t="inlineStr"/>
       <c r="AI139" t="inlineStr"/>
       <c r="AJ139" t="inlineStr"/>
       <c r="AK139" t="inlineStr"/>
+      <c r="AL139" t="inlineStr"/>
+      <c r="AM139" t="inlineStr"/>
+      <c r="AN139" t="inlineStr"/>
+      <c r="AO139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -16012,14 +17302,24 @@
       <c r="AC140" t="n">
         <v>0.452520512973293</v>
       </c>
-      <c r="AD140" t="inlineStr"/>
-      <c r="AE140" t="inlineStr"/>
-      <c r="AF140" t="inlineStr"/>
+      <c r="AD140" t="n">
+        <v>0.1527690647507427</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>0.216252495523928</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>0.2005523953399877</v>
+      </c>
       <c r="AG140" t="inlineStr"/>
       <c r="AH140" t="inlineStr"/>
       <c r="AI140" t="inlineStr"/>
       <c r="AJ140" t="inlineStr"/>
       <c r="AK140" t="inlineStr"/>
+      <c r="AL140" t="inlineStr"/>
+      <c r="AM140" t="inlineStr"/>
+      <c r="AN140" t="inlineStr"/>
+      <c r="AO140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -16117,14 +17417,22 @@
       <c r="AC141" t="n">
         <v>0.295199564661189</v>
       </c>
-      <c r="AD141" t="inlineStr"/>
-      <c r="AE141" t="inlineStr"/>
+      <c r="AD141" t="n">
+        <v>0.06145261444739459</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>0.1189729375984588</v>
+      </c>
       <c r="AF141" t="inlineStr"/>
       <c r="AG141" t="inlineStr"/>
       <c r="AH141" t="inlineStr"/>
       <c r="AI141" t="inlineStr"/>
       <c r="AJ141" t="inlineStr"/>
       <c r="AK141" t="inlineStr"/>
+      <c r="AL141" t="inlineStr"/>
+      <c r="AM141" t="inlineStr"/>
+      <c r="AN141" t="inlineStr"/>
+      <c r="AO141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -16232,18 +17540,22 @@
         <v>0.158454888018858</v>
       </c>
       <c r="AG142" t="n">
+        <v>0.06643866386935401</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>0.1021005866114562</v>
+      </c>
+      <c r="AI142" t="n">
         <v>0.1567009402691819</v>
-      </c>
-      <c r="AH142" t="n">
-        <v>0.06643866386935401</v>
-      </c>
-      <c r="AI142" t="n">
-        <v>0.1021005866114562</v>
       </c>
       <c r="AJ142" t="n">
         <v>0.07028610487257105</v>
       </c>
       <c r="AK142" t="inlineStr"/>
+      <c r="AL142" t="inlineStr"/>
+      <c r="AM142" t="inlineStr"/>
+      <c r="AN142" t="inlineStr"/>
+      <c r="AO142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -16337,14 +17649,22 @@
       <c r="AC143" t="n">
         <v>0.291118963717728</v>
       </c>
-      <c r="AD143" t="inlineStr"/>
-      <c r="AE143" t="inlineStr"/>
+      <c r="AD143" t="n">
+        <v>0.1127153504887527</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>0.1115202629021191</v>
+      </c>
       <c r="AF143" t="inlineStr"/>
       <c r="AG143" t="inlineStr"/>
       <c r="AH143" t="inlineStr"/>
       <c r="AI143" t="inlineStr"/>
       <c r="AJ143" t="inlineStr"/>
       <c r="AK143" t="inlineStr"/>
+      <c r="AL143" t="inlineStr"/>
+      <c r="AM143" t="inlineStr"/>
+      <c r="AN143" t="inlineStr"/>
+      <c r="AO143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -16450,14 +17770,22 @@
       <c r="AC144" t="n">
         <v>0.330314864397929</v>
       </c>
-      <c r="AD144" t="inlineStr"/>
-      <c r="AE144" t="inlineStr"/>
+      <c r="AD144" t="n">
+        <v>0.08881936861389758</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>0.1248144429621276</v>
+      </c>
       <c r="AF144" t="inlineStr"/>
       <c r="AG144" t="inlineStr"/>
       <c r="AH144" t="inlineStr"/>
       <c r="AI144" t="inlineStr"/>
       <c r="AJ144" t="inlineStr"/>
       <c r="AK144" t="inlineStr"/>
+      <c r="AL144" t="inlineStr"/>
+      <c r="AM144" t="inlineStr"/>
+      <c r="AN144" t="inlineStr"/>
+      <c r="AO144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -16569,14 +17897,22 @@
       <c r="AC145" t="n">
         <v>0.526884270516346</v>
       </c>
-      <c r="AD145" t="inlineStr"/>
-      <c r="AE145" t="inlineStr"/>
+      <c r="AD145" t="n">
+        <v>0.2487276194176677</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>0.2385415775962663</v>
+      </c>
       <c r="AF145" t="inlineStr"/>
       <c r="AG145" t="inlineStr"/>
       <c r="AH145" t="inlineStr"/>
       <c r="AI145" t="inlineStr"/>
       <c r="AJ145" t="inlineStr"/>
       <c r="AK145" t="inlineStr"/>
+      <c r="AL145" t="inlineStr"/>
+      <c r="AM145" t="inlineStr"/>
+      <c r="AN145" t="inlineStr"/>
+      <c r="AO145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -16670,14 +18006,22 @@
       <c r="AC146" t="n">
         <v>0.341308003643641</v>
       </c>
-      <c r="AD146" t="inlineStr"/>
-      <c r="AE146" t="inlineStr"/>
+      <c r="AD146" t="n">
+        <v>0.05900780124795313</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>0.130872836328564</v>
+      </c>
       <c r="AF146" t="inlineStr"/>
       <c r="AG146" t="inlineStr"/>
       <c r="AH146" t="inlineStr"/>
       <c r="AI146" t="inlineStr"/>
       <c r="AJ146" t="inlineStr"/>
       <c r="AK146" t="inlineStr"/>
+      <c r="AL146" t="inlineStr"/>
+      <c r="AM146" t="inlineStr"/>
+      <c r="AN146" t="inlineStr"/>
+      <c r="AO146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -16773,14 +18117,24 @@
       <c r="AC147" t="n">
         <v>0.26618722922399</v>
       </c>
-      <c r="AD147" t="inlineStr"/>
-      <c r="AE147" t="inlineStr"/>
-      <c r="AF147" t="inlineStr"/>
+      <c r="AD147" t="n">
+        <v>0.1221089626078763</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>0.1390644432694233</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>0.1272677310208697</v>
+      </c>
       <c r="AG147" t="inlineStr"/>
       <c r="AH147" t="inlineStr"/>
       <c r="AI147" t="inlineStr"/>
       <c r="AJ147" t="inlineStr"/>
       <c r="AK147" t="inlineStr"/>
+      <c r="AL147" t="inlineStr"/>
+      <c r="AM147" t="inlineStr"/>
+      <c r="AN147" t="inlineStr"/>
+      <c r="AO147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -16886,14 +18240,22 @@
       <c r="AC148" t="n">
         <v>0.481391088994557</v>
       </c>
-      <c r="AD148" t="inlineStr"/>
-      <c r="AE148" t="inlineStr"/>
+      <c r="AD148" t="n">
+        <v>0.2046068963716023</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>0.1421790062700085</v>
+      </c>
       <c r="AF148" t="inlineStr"/>
       <c r="AG148" t="inlineStr"/>
       <c r="AH148" t="inlineStr"/>
       <c r="AI148" t="inlineStr"/>
       <c r="AJ148" t="inlineStr"/>
       <c r="AK148" t="inlineStr"/>
+      <c r="AL148" t="inlineStr"/>
+      <c r="AM148" t="inlineStr"/>
+      <c r="AN148" t="inlineStr"/>
+      <c r="AO148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -17003,14 +18365,22 @@
       <c r="AC149" t="n">
         <v>0.4628478557642</v>
       </c>
-      <c r="AD149" t="inlineStr"/>
-      <c r="AE149" t="inlineStr"/>
+      <c r="AD149" t="n">
+        <v>0.1117243633012619</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>0.108108676582578</v>
+      </c>
       <c r="AF149" t="inlineStr"/>
       <c r="AG149" t="inlineStr"/>
       <c r="AH149" t="inlineStr"/>
       <c r="AI149" t="inlineStr"/>
       <c r="AJ149" t="inlineStr"/>
       <c r="AK149" t="inlineStr"/>
+      <c r="AL149" t="inlineStr"/>
+      <c r="AM149" t="inlineStr"/>
+      <c r="AN149" t="inlineStr"/>
+      <c r="AO149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -17118,14 +18488,22 @@
       <c r="AC150" t="n">
         <v>0.414032854923359</v>
       </c>
-      <c r="AD150" t="inlineStr"/>
-      <c r="AE150" t="inlineStr"/>
+      <c r="AD150" t="n">
+        <v>0.099894552561309</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>0.09753630120879102</v>
+      </c>
       <c r="AF150" t="inlineStr"/>
       <c r="AG150" t="inlineStr"/>
       <c r="AH150" t="inlineStr"/>
       <c r="AI150" t="inlineStr"/>
       <c r="AJ150" t="inlineStr"/>
       <c r="AK150" t="inlineStr"/>
+      <c r="AL150" t="inlineStr"/>
+      <c r="AM150" t="inlineStr"/>
+      <c r="AN150" t="inlineStr"/>
+      <c r="AO150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -17231,14 +18609,24 @@
       <c r="AC151" t="n">
         <v>0.30172785739606</v>
       </c>
-      <c r="AD151" t="inlineStr"/>
-      <c r="AE151" t="inlineStr"/>
-      <c r="AF151" t="inlineStr"/>
+      <c r="AD151" t="n">
+        <v>0.1124331411278953</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>0.1203905793743603</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>0.1364873160413957</v>
+      </c>
       <c r="AG151" t="inlineStr"/>
       <c r="AH151" t="inlineStr"/>
       <c r="AI151" t="inlineStr"/>
       <c r="AJ151" t="inlineStr"/>
       <c r="AK151" t="inlineStr"/>
+      <c r="AL151" t="inlineStr"/>
+      <c r="AM151" t="inlineStr"/>
+      <c r="AN151" t="inlineStr"/>
+      <c r="AO151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -17344,14 +18732,22 @@
       <c r="AC152" t="n">
         <v>0.467322770737455</v>
       </c>
-      <c r="AD152" t="inlineStr"/>
-      <c r="AE152" t="inlineStr"/>
+      <c r="AD152" t="n">
+        <v>0.08074057461812564</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>0.1630111511627656</v>
+      </c>
       <c r="AF152" t="inlineStr"/>
       <c r="AG152" t="inlineStr"/>
       <c r="AH152" t="inlineStr"/>
       <c r="AI152" t="inlineStr"/>
       <c r="AJ152" t="inlineStr"/>
       <c r="AK152" t="inlineStr"/>
+      <c r="AL152" t="inlineStr"/>
+      <c r="AM152" t="inlineStr"/>
+      <c r="AN152" t="inlineStr"/>
+      <c r="AO152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -17453,14 +18849,22 @@
       <c r="AC153" t="n">
         <v>0.0468384074941452</v>
       </c>
-      <c r="AD153" t="inlineStr"/>
-      <c r="AE153" t="inlineStr"/>
+      <c r="AD153" t="n">
+        <v>0.09012575610214861</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>0.1180827575785559</v>
+      </c>
       <c r="AF153" t="inlineStr"/>
       <c r="AG153" t="inlineStr"/>
       <c r="AH153" t="inlineStr"/>
       <c r="AI153" t="inlineStr"/>
       <c r="AJ153" t="inlineStr"/>
       <c r="AK153" t="inlineStr"/>
+      <c r="AL153" t="inlineStr"/>
+      <c r="AM153" t="inlineStr"/>
+      <c r="AN153" t="inlineStr"/>
+      <c r="AO153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -17562,14 +18966,22 @@
       <c r="AC154" t="n">
         <v>0.377914380991639</v>
       </c>
-      <c r="AD154" t="inlineStr"/>
-      <c r="AE154" t="inlineStr"/>
+      <c r="AD154" t="n">
+        <v>0.1583334703209122</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>0.1712462484151059</v>
+      </c>
       <c r="AF154" t="inlineStr"/>
       <c r="AG154" t="inlineStr"/>
       <c r="AH154" t="inlineStr"/>
       <c r="AI154" t="inlineStr"/>
       <c r="AJ154" t="inlineStr"/>
       <c r="AK154" t="inlineStr"/>
+      <c r="AL154" t="inlineStr"/>
+      <c r="AM154" t="inlineStr"/>
+      <c r="AN154" t="inlineStr"/>
+      <c r="AO154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -17671,14 +19083,24 @@
       <c r="AC155" t="n">
         <v>0.201982386704483</v>
       </c>
-      <c r="AD155" t="inlineStr"/>
-      <c r="AE155" t="inlineStr"/>
-      <c r="AF155" t="inlineStr"/>
+      <c r="AD155" t="n">
+        <v>0.1224267993525903</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>0.06746157068737714</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>0.09176261768037815</v>
+      </c>
       <c r="AG155" t="inlineStr"/>
       <c r="AH155" t="inlineStr"/>
       <c r="AI155" t="inlineStr"/>
       <c r="AJ155" t="inlineStr"/>
       <c r="AK155" t="inlineStr"/>
+      <c r="AL155" t="inlineStr"/>
+      <c r="AM155" t="inlineStr"/>
+      <c r="AN155" t="inlineStr"/>
+      <c r="AO155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -17784,14 +19206,24 @@
       <c r="AC156" t="n">
         <v>0.104605478555058</v>
       </c>
-      <c r="AD156" t="inlineStr"/>
-      <c r="AE156" t="inlineStr"/>
+      <c r="AD156" t="n">
+        <v>0.1179675822702583</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>0.1122007700259024</v>
+      </c>
       <c r="AF156" t="inlineStr"/>
-      <c r="AG156" t="inlineStr"/>
+      <c r="AG156" t="n">
+        <v>0.04432249894470241</v>
+      </c>
       <c r="AH156" t="inlineStr"/>
       <c r="AI156" t="inlineStr"/>
       <c r="AJ156" t="inlineStr"/>
       <c r="AK156" t="inlineStr"/>
+      <c r="AL156" t="inlineStr"/>
+      <c r="AM156" t="inlineStr"/>
+      <c r="AN156" t="inlineStr"/>
+      <c r="AO156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -17897,14 +19329,22 @@
       <c r="AC157" t="n">
         <v>0.345487867378346</v>
       </c>
-      <c r="AD157" t="inlineStr"/>
-      <c r="AE157" t="inlineStr"/>
+      <c r="AD157" t="n">
+        <v>0.0965844248209826</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>0.1205737324531022</v>
+      </c>
       <c r="AF157" t="inlineStr"/>
       <c r="AG157" t="inlineStr"/>
       <c r="AH157" t="inlineStr"/>
       <c r="AI157" t="inlineStr"/>
       <c r="AJ157" t="inlineStr"/>
       <c r="AK157" t="inlineStr"/>
+      <c r="AL157" t="inlineStr"/>
+      <c r="AM157" t="inlineStr"/>
+      <c r="AN157" t="inlineStr"/>
+      <c r="AO157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -18010,14 +19450,22 @@
       <c r="AC158" t="n">
         <v>0.354326375379007</v>
       </c>
-      <c r="AD158" t="inlineStr"/>
-      <c r="AE158" t="inlineStr"/>
+      <c r="AD158" t="n">
+        <v>0.1376589439974647</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>0.146166076450934</v>
+      </c>
       <c r="AF158" t="inlineStr"/>
       <c r="AG158" t="inlineStr"/>
       <c r="AH158" t="inlineStr"/>
       <c r="AI158" t="inlineStr"/>
       <c r="AJ158" t="inlineStr"/>
       <c r="AK158" t="inlineStr"/>
+      <c r="AL158" t="inlineStr"/>
+      <c r="AM158" t="inlineStr"/>
+      <c r="AN158" t="inlineStr"/>
+      <c r="AO158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -18123,14 +19571,22 @@
       <c r="AC159" t="n">
         <v>0.205635336070119</v>
       </c>
-      <c r="AD159" t="inlineStr"/>
-      <c r="AE159" t="inlineStr"/>
+      <c r="AD159" t="n">
+        <v>0.09643678939345032</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>0.1032685952040791</v>
+      </c>
       <c r="AF159" t="inlineStr"/>
       <c r="AG159" t="inlineStr"/>
       <c r="AH159" t="inlineStr"/>
       <c r="AI159" t="inlineStr"/>
       <c r="AJ159" t="inlineStr"/>
       <c r="AK159" t="inlineStr"/>
+      <c r="AL159" t="inlineStr"/>
+      <c r="AM159" t="inlineStr"/>
+      <c r="AN159" t="inlineStr"/>
+      <c r="AO159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -18240,14 +19696,22 @@
       <c r="AC160" t="n">
         <v>0.462959538735936</v>
       </c>
-      <c r="AD160" t="inlineStr"/>
-      <c r="AE160" t="inlineStr"/>
+      <c r="AD160" t="n">
+        <v>0.1171579018652685</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>0.1466024622766962</v>
+      </c>
       <c r="AF160" t="inlineStr"/>
       <c r="AG160" t="inlineStr"/>
       <c r="AH160" t="inlineStr"/>
       <c r="AI160" t="inlineStr"/>
       <c r="AJ160" t="inlineStr"/>
       <c r="AK160" t="inlineStr"/>
+      <c r="AL160" t="inlineStr"/>
+      <c r="AM160" t="inlineStr"/>
+      <c r="AN160" t="inlineStr"/>
+      <c r="AO160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -18353,14 +19817,26 @@
       <c r="AC161" t="n">
         <v>0.273153440822614</v>
       </c>
-      <c r="AD161" t="inlineStr"/>
-      <c r="AE161" t="inlineStr"/>
-      <c r="AF161" t="inlineStr"/>
+      <c r="AD161" t="n">
+        <v>0.09314737376634634</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>0.1062581590296701</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>0.09435573068685889</v>
+      </c>
       <c r="AG161" t="inlineStr"/>
-      <c r="AH161" t="inlineStr"/>
+      <c r="AH161" t="n">
+        <v>0.09961229447960426</v>
+      </c>
       <c r="AI161" t="inlineStr"/>
       <c r="AJ161" t="inlineStr"/>
       <c r="AK161" t="inlineStr"/>
+      <c r="AL161" t="inlineStr"/>
+      <c r="AM161" t="inlineStr"/>
+      <c r="AN161" t="inlineStr"/>
+      <c r="AO161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -18466,14 +19942,22 @@
       <c r="AC162" t="n">
         <v>0.300422781527894</v>
       </c>
-      <c r="AD162" t="inlineStr"/>
-      <c r="AE162" t="inlineStr"/>
+      <c r="AD162" t="n">
+        <v>0.1073441295269157</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>0.1055465280148824</v>
+      </c>
       <c r="AF162" t="inlineStr"/>
       <c r="AG162" t="inlineStr"/>
       <c r="AH162" t="inlineStr"/>
       <c r="AI162" t="inlineStr"/>
       <c r="AJ162" t="inlineStr"/>
       <c r="AK162" t="inlineStr"/>
+      <c r="AL162" t="inlineStr"/>
+      <c r="AM162" t="inlineStr"/>
+      <c r="AN162" t="inlineStr"/>
+      <c r="AO162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -18583,14 +20067,26 @@
       <c r="AC163" t="n">
         <v>0.408148879074512</v>
       </c>
-      <c r="AD163" t="inlineStr"/>
-      <c r="AE163" t="inlineStr"/>
+      <c r="AD163" t="n">
+        <v>0.1023016506063864</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>0.141207357166175</v>
+      </c>
       <c r="AF163" t="inlineStr"/>
-      <c r="AG163" t="inlineStr"/>
-      <c r="AH163" t="inlineStr"/>
+      <c r="AG163" t="n">
+        <v>0.06400184862885931</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>0.0903096903096903</v>
+      </c>
       <c r="AI163" t="inlineStr"/>
       <c r="AJ163" t="inlineStr"/>
       <c r="AK163" t="inlineStr"/>
+      <c r="AL163" t="inlineStr"/>
+      <c r="AM163" t="inlineStr"/>
+      <c r="AN163" t="inlineStr"/>
+      <c r="AO163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -18702,14 +20198,22 @@
       <c r="AC164" t="n">
         <v>0.5578218696664869</v>
       </c>
-      <c r="AD164" t="inlineStr"/>
-      <c r="AE164" t="inlineStr"/>
+      <c r="AD164" t="n">
+        <v>0.252054473261237</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>0.1992584736088265</v>
+      </c>
       <c r="AF164" t="inlineStr"/>
       <c r="AG164" t="inlineStr"/>
       <c r="AH164" t="inlineStr"/>
       <c r="AI164" t="inlineStr"/>
       <c r="AJ164" t="inlineStr"/>
       <c r="AK164" t="inlineStr"/>
+      <c r="AL164" t="inlineStr"/>
+      <c r="AM164" t="inlineStr"/>
+      <c r="AN164" t="inlineStr"/>
+      <c r="AO164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -18815,14 +20319,22 @@
       <c r="AC165" t="n">
         <v>0.432920958269336</v>
       </c>
-      <c r="AD165" t="inlineStr"/>
-      <c r="AE165" t="inlineStr"/>
+      <c r="AD165" t="n">
+        <v>0.1128467623883017</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>0.1734634244595231</v>
+      </c>
       <c r="AF165" t="inlineStr"/>
       <c r="AG165" t="inlineStr"/>
       <c r="AH165" t="inlineStr"/>
       <c r="AI165" t="inlineStr"/>
       <c r="AJ165" t="inlineStr"/>
       <c r="AK165" t="inlineStr"/>
+      <c r="AL165" t="inlineStr"/>
+      <c r="AM165" t="inlineStr"/>
+      <c r="AN165" t="inlineStr"/>
+      <c r="AO165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -18928,14 +20440,24 @@
       <c r="AC166" t="n">
         <v>0.271944450116185</v>
       </c>
-      <c r="AD166" t="inlineStr"/>
-      <c r="AE166" t="inlineStr"/>
-      <c r="AF166" t="inlineStr"/>
+      <c r="AD166" t="n">
+        <v>0.1275311040617495</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>0.09471211796229621</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>0.1595175250906387</v>
+      </c>
       <c r="AG166" t="inlineStr"/>
       <c r="AH166" t="inlineStr"/>
       <c r="AI166" t="inlineStr"/>
       <c r="AJ166" t="inlineStr"/>
       <c r="AK166" t="inlineStr"/>
+      <c r="AL166" t="inlineStr"/>
+      <c r="AM166" t="inlineStr"/>
+      <c r="AN166" t="inlineStr"/>
+      <c r="AO166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -19041,14 +20563,24 @@
       <c r="AC167" t="n">
         <v>0.301420381620604</v>
       </c>
-      <c r="AD167" t="inlineStr"/>
-      <c r="AE167" t="inlineStr"/>
-      <c r="AF167" t="inlineStr"/>
+      <c r="AD167" t="n">
+        <v>0.1147491159075188</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>0.1201216256642682</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>0.09839263899943315</v>
+      </c>
       <c r="AG167" t="inlineStr"/>
       <c r="AH167" t="inlineStr"/>
       <c r="AI167" t="inlineStr"/>
       <c r="AJ167" t="inlineStr"/>
       <c r="AK167" t="inlineStr"/>
+      <c r="AL167" t="inlineStr"/>
+      <c r="AM167" t="inlineStr"/>
+      <c r="AN167" t="inlineStr"/>
+      <c r="AO167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -19154,14 +20686,22 @@
       <c r="AC168" t="n">
         <v>0.444643130589121</v>
       </c>
-      <c r="AD168" t="inlineStr"/>
-      <c r="AE168" t="inlineStr"/>
+      <c r="AD168" t="n">
+        <v>0.1790286154947809</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>0.1623918098863682</v>
+      </c>
       <c r="AF168" t="inlineStr"/>
       <c r="AG168" t="inlineStr"/>
       <c r="AH168" t="inlineStr"/>
       <c r="AI168" t="inlineStr"/>
       <c r="AJ168" t="inlineStr"/>
       <c r="AK168" t="inlineStr"/>
+      <c r="AL168" t="inlineStr"/>
+      <c r="AM168" t="inlineStr"/>
+      <c r="AN168" t="inlineStr"/>
+      <c r="AO168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -19267,14 +20807,22 @@
       <c r="AC169" t="n">
         <v>0.395500848219893</v>
       </c>
-      <c r="AD169" t="inlineStr"/>
-      <c r="AE169" t="inlineStr"/>
+      <c r="AD169" t="n">
+        <v>0.1190170941664184</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>0.1616264619217302</v>
+      </c>
       <c r="AF169" t="inlineStr"/>
       <c r="AG169" t="inlineStr"/>
       <c r="AH169" t="inlineStr"/>
       <c r="AI169" t="inlineStr"/>
       <c r="AJ169" t="inlineStr"/>
       <c r="AK169" t="inlineStr"/>
+      <c r="AL169" t="inlineStr"/>
+      <c r="AM169" t="inlineStr"/>
+      <c r="AN169" t="inlineStr"/>
+      <c r="AO169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -19378,14 +20926,26 @@
       <c r="AC170" t="n">
         <v>0.502909647208043</v>
       </c>
-      <c r="AD170" t="inlineStr"/>
-      <c r="AE170" t="inlineStr"/>
-      <c r="AF170" t="inlineStr"/>
-      <c r="AG170" t="inlineStr"/>
+      <c r="AD170" t="n">
+        <v>0.2043355056433527</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>0.11151412738151</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>0.18272390037752</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>0.104411837212928</v>
+      </c>
       <c r="AH170" t="inlineStr"/>
       <c r="AI170" t="inlineStr"/>
       <c r="AJ170" t="inlineStr"/>
       <c r="AK170" t="inlineStr"/>
+      <c r="AL170" t="inlineStr"/>
+      <c r="AM170" t="inlineStr"/>
+      <c r="AN170" t="inlineStr"/>
+      <c r="AO170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -19479,14 +21039,22 @@
       <c r="AC171" t="n">
         <v>0.314300225272111</v>
       </c>
-      <c r="AD171" t="inlineStr"/>
-      <c r="AE171" t="inlineStr"/>
+      <c r="AD171" t="n">
+        <v>0.09336477635590364</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>0.1371779410444946</v>
+      </c>
       <c r="AF171" t="inlineStr"/>
       <c r="AG171" t="inlineStr"/>
       <c r="AH171" t="inlineStr"/>
       <c r="AI171" t="inlineStr"/>
       <c r="AJ171" t="inlineStr"/>
       <c r="AK171" t="inlineStr"/>
+      <c r="AL171" t="inlineStr"/>
+      <c r="AM171" t="inlineStr"/>
+      <c r="AN171" t="inlineStr"/>
+      <c r="AO171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -19598,14 +21166,22 @@
       <c r="AC172" t="n">
         <v>0.508182233696179</v>
       </c>
-      <c r="AD172" t="inlineStr"/>
-      <c r="AE172" t="inlineStr"/>
+      <c r="AD172" t="n">
+        <v>0.1722649331344983</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>0.1468596893400885</v>
+      </c>
       <c r="AF172" t="inlineStr"/>
       <c r="AG172" t="inlineStr"/>
       <c r="AH172" t="inlineStr"/>
       <c r="AI172" t="inlineStr"/>
       <c r="AJ172" t="inlineStr"/>
       <c r="AK172" t="inlineStr"/>
+      <c r="AL172" t="inlineStr"/>
+      <c r="AM172" t="inlineStr"/>
+      <c r="AN172" t="inlineStr"/>
+      <c r="AO172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -19699,14 +21275,22 @@
       <c r="AC173" t="n">
         <v>0.280993814948399</v>
       </c>
-      <c r="AD173" t="inlineStr"/>
-      <c r="AE173" t="inlineStr"/>
+      <c r="AD173" t="n">
+        <v>0.1420563459972327</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>0.1215819718565346</v>
+      </c>
       <c r="AF173" t="inlineStr"/>
       <c r="AG173" t="inlineStr"/>
       <c r="AH173" t="inlineStr"/>
       <c r="AI173" t="inlineStr"/>
       <c r="AJ173" t="inlineStr"/>
       <c r="AK173" t="inlineStr"/>
+      <c r="AL173" t="inlineStr"/>
+      <c r="AM173" t="inlineStr"/>
+      <c r="AN173" t="inlineStr"/>
+      <c r="AO173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -19800,14 +21384,22 @@
       <c r="AC174" t="n">
         <v>0.09026988651913941</v>
       </c>
-      <c r="AD174" t="inlineStr"/>
-      <c r="AE174" t="inlineStr"/>
+      <c r="AD174" t="n">
+        <v>0.108759289194593</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>0.0477146640656131</v>
+      </c>
       <c r="AF174" t="inlineStr"/>
       <c r="AG174" t="inlineStr"/>
       <c r="AH174" t="inlineStr"/>
       <c r="AI174" t="inlineStr"/>
       <c r="AJ174" t="inlineStr"/>
       <c r="AK174" t="inlineStr"/>
+      <c r="AL174" t="inlineStr"/>
+      <c r="AM174" t="inlineStr"/>
+      <c r="AN174" t="inlineStr"/>
+      <c r="AO174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -19913,14 +21505,22 @@
       <c r="AC175" t="n">
         <v>0.192152777777778</v>
       </c>
-      <c r="AD175" t="inlineStr"/>
-      <c r="AE175" t="inlineStr"/>
+      <c r="AD175" t="n">
+        <v>0.1374848185545463</v>
+      </c>
+      <c r="AE175" t="n">
+        <v>0.1138700273459649</v>
+      </c>
       <c r="AF175" t="inlineStr"/>
       <c r="AG175" t="inlineStr"/>
       <c r="AH175" t="inlineStr"/>
       <c r="AI175" t="inlineStr"/>
       <c r="AJ175" t="inlineStr"/>
       <c r="AK175" t="inlineStr"/>
+      <c r="AL175" t="inlineStr"/>
+      <c r="AM175" t="inlineStr"/>
+      <c r="AN175" t="inlineStr"/>
+      <c r="AO175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -20032,14 +21632,22 @@
       <c r="AC176" t="n">
         <v>0.5112754544526</v>
       </c>
-      <c r="AD176" t="inlineStr"/>
-      <c r="AE176" t="inlineStr"/>
+      <c r="AD176" t="n">
+        <v>0.122746304183286</v>
+      </c>
+      <c r="AE176" t="n">
+        <v>0.2163377814894074</v>
+      </c>
       <c r="AF176" t="inlineStr"/>
       <c r="AG176" t="inlineStr"/>
       <c r="AH176" t="inlineStr"/>
       <c r="AI176" t="inlineStr"/>
       <c r="AJ176" t="inlineStr"/>
       <c r="AK176" t="inlineStr"/>
+      <c r="AL176" t="inlineStr"/>
+      <c r="AM176" t="inlineStr"/>
+      <c r="AN176" t="inlineStr"/>
+      <c r="AO176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -20145,14 +21753,24 @@
       <c r="AC177" t="n">
         <v>0.150060641972407</v>
       </c>
-      <c r="AD177" t="inlineStr"/>
-      <c r="AE177" t="inlineStr"/>
+      <c r="AD177" t="n">
+        <v>0.1171968152679219</v>
+      </c>
+      <c r="AE177" t="n">
+        <v>0.08828420846676426</v>
+      </c>
       <c r="AF177" t="inlineStr"/>
-      <c r="AG177" t="inlineStr"/>
+      <c r="AG177" t="n">
+        <v>0.04600506501856737</v>
+      </c>
       <c r="AH177" t="inlineStr"/>
       <c r="AI177" t="inlineStr"/>
       <c r="AJ177" t="inlineStr"/>
       <c r="AK177" t="inlineStr"/>
+      <c r="AL177" t="inlineStr"/>
+      <c r="AM177" t="inlineStr"/>
+      <c r="AN177" t="inlineStr"/>
+      <c r="AO177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -20258,14 +21876,22 @@
       <c r="AC178" t="n">
         <v>0.398441062465769</v>
       </c>
-      <c r="AD178" t="inlineStr"/>
-      <c r="AE178" t="inlineStr"/>
+      <c r="AD178" t="n">
+        <v>0.128775572292178</v>
+      </c>
+      <c r="AE178" t="n">
+        <v>0.1374599703728645</v>
+      </c>
       <c r="AF178" t="inlineStr"/>
       <c r="AG178" t="inlineStr"/>
       <c r="AH178" t="inlineStr"/>
       <c r="AI178" t="inlineStr"/>
       <c r="AJ178" t="inlineStr"/>
       <c r="AK178" t="inlineStr"/>
+      <c r="AL178" t="inlineStr"/>
+      <c r="AM178" t="inlineStr"/>
+      <c r="AN178" t="inlineStr"/>
+      <c r="AO178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -20373,14 +21999,22 @@
       <c r="AC179" t="n">
         <v>0.144614440093361</v>
       </c>
-      <c r="AD179" t="inlineStr"/>
-      <c r="AE179" t="inlineStr"/>
+      <c r="AD179" t="n">
+        <v>0.1092665183362865</v>
+      </c>
+      <c r="AE179" t="n">
+        <v>0.1134510886437849</v>
+      </c>
       <c r="AF179" t="inlineStr"/>
       <c r="AG179" t="inlineStr"/>
       <c r="AH179" t="inlineStr"/>
       <c r="AI179" t="inlineStr"/>
       <c r="AJ179" t="inlineStr"/>
       <c r="AK179" t="inlineStr"/>
+      <c r="AL179" t="inlineStr"/>
+      <c r="AM179" t="inlineStr"/>
+      <c r="AN179" t="inlineStr"/>
+      <c r="AO179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -20486,14 +22120,24 @@
       <c r="AC180" t="n">
         <v>0.0860835966185638</v>
       </c>
-      <c r="AD180" t="inlineStr"/>
-      <c r="AE180" t="inlineStr"/>
-      <c r="AF180" t="inlineStr"/>
+      <c r="AD180" t="n">
+        <v>0.1185848410848411</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>0.09222436961376339</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>0.1737080659061166</v>
+      </c>
       <c r="AG180" t="inlineStr"/>
       <c r="AH180" t="inlineStr"/>
       <c r="AI180" t="inlineStr"/>
       <c r="AJ180" t="inlineStr"/>
       <c r="AK180" t="inlineStr"/>
+      <c r="AL180" t="inlineStr"/>
+      <c r="AM180" t="inlineStr"/>
+      <c r="AN180" t="inlineStr"/>
+      <c r="AO180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -20595,14 +22239,22 @@
       <c r="AC181" t="n">
         <v>0.379645071850754</v>
       </c>
-      <c r="AD181" t="inlineStr"/>
-      <c r="AE181" t="inlineStr"/>
+      <c r="AD181" t="n">
+        <v>0.1022279941367913</v>
+      </c>
+      <c r="AE181" t="n">
+        <v>0.1404683085355354</v>
+      </c>
       <c r="AF181" t="inlineStr"/>
       <c r="AG181" t="inlineStr"/>
       <c r="AH181" t="inlineStr"/>
       <c r="AI181" t="inlineStr"/>
       <c r="AJ181" t="inlineStr"/>
       <c r="AK181" t="inlineStr"/>
+      <c r="AL181" t="inlineStr"/>
+      <c r="AM181" t="inlineStr"/>
+      <c r="AN181" t="inlineStr"/>
+      <c r="AO181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -20712,14 +22364,22 @@
       <c r="AC182" t="n">
         <v>0.421861388011921</v>
       </c>
-      <c r="AD182" t="inlineStr"/>
-      <c r="AE182" t="inlineStr"/>
+      <c r="AD182" t="n">
+        <v>0.1133174215414546</v>
+      </c>
+      <c r="AE182" t="n">
+        <v>0.1205433554044113</v>
+      </c>
       <c r="AF182" t="inlineStr"/>
       <c r="AG182" t="inlineStr"/>
       <c r="AH182" t="inlineStr"/>
       <c r="AI182" t="inlineStr"/>
       <c r="AJ182" t="inlineStr"/>
       <c r="AK182" t="inlineStr"/>
+      <c r="AL182" t="inlineStr"/>
+      <c r="AM182" t="inlineStr"/>
+      <c r="AN182" t="inlineStr"/>
+      <c r="AO182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -20829,14 +22489,22 @@
       <c r="AC183" t="n">
         <v>0.410147691828341</v>
       </c>
-      <c r="AD183" t="inlineStr"/>
-      <c r="AE183" t="inlineStr"/>
+      <c r="AD183" t="n">
+        <v>0.100928273204488</v>
+      </c>
+      <c r="AE183" t="n">
+        <v>0.1137143222914455</v>
+      </c>
       <c r="AF183" t="inlineStr"/>
       <c r="AG183" t="inlineStr"/>
       <c r="AH183" t="inlineStr"/>
       <c r="AI183" t="inlineStr"/>
       <c r="AJ183" t="inlineStr"/>
       <c r="AK183" t="inlineStr"/>
+      <c r="AL183" t="inlineStr"/>
+      <c r="AM183" t="inlineStr"/>
+      <c r="AN183" t="inlineStr"/>
+      <c r="AO183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -20942,14 +22610,22 @@
       <c r="AC184" t="n">
         <v>0.291839461592865</v>
       </c>
-      <c r="AD184" t="inlineStr"/>
-      <c r="AE184" t="inlineStr"/>
+      <c r="AD184" t="n">
+        <v>0.08687021464867241</v>
+      </c>
+      <c r="AE184" t="n">
+        <v>0.1300771334337261</v>
+      </c>
       <c r="AF184" t="inlineStr"/>
       <c r="AG184" t="inlineStr"/>
       <c r="AH184" t="inlineStr"/>
       <c r="AI184" t="inlineStr"/>
       <c r="AJ184" t="inlineStr"/>
       <c r="AK184" t="inlineStr"/>
+      <c r="AL184" t="inlineStr"/>
+      <c r="AM184" t="inlineStr"/>
+      <c r="AN184" t="inlineStr"/>
+      <c r="AO184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -21055,14 +22731,22 @@
       <c r="AC185" t="n">
         <v>0.435954248668968</v>
       </c>
-      <c r="AD185" t="inlineStr"/>
-      <c r="AE185" t="inlineStr"/>
+      <c r="AD185" t="n">
+        <v>0.09802128763820603</v>
+      </c>
+      <c r="AE185" t="n">
+        <v>0.1107050584159917</v>
+      </c>
       <c r="AF185" t="inlineStr"/>
       <c r="AG185" t="inlineStr"/>
       <c r="AH185" t="inlineStr"/>
       <c r="AI185" t="inlineStr"/>
       <c r="AJ185" t="inlineStr"/>
       <c r="AK185" t="inlineStr"/>
+      <c r="AL185" t="inlineStr"/>
+      <c r="AM185" t="inlineStr"/>
+      <c r="AN185" t="inlineStr"/>
+      <c r="AO185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -21170,14 +22854,24 @@
       <c r="AC186" t="n">
         <v>0.339737041310854</v>
       </c>
-      <c r="AD186" t="inlineStr"/>
-      <c r="AE186" t="inlineStr"/>
-      <c r="AF186" t="inlineStr"/>
+      <c r="AD186" t="n">
+        <v>0.08728948356607931</v>
+      </c>
+      <c r="AE186" t="n">
+        <v>0.1392820344118095</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>0.1042857125070856</v>
+      </c>
       <c r="AG186" t="inlineStr"/>
       <c r="AH186" t="inlineStr"/>
       <c r="AI186" t="inlineStr"/>
       <c r="AJ186" t="inlineStr"/>
       <c r="AK186" t="inlineStr"/>
+      <c r="AL186" t="inlineStr"/>
+      <c r="AM186" t="inlineStr"/>
+      <c r="AN186" t="inlineStr"/>
+      <c r="AO186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -21285,14 +22979,26 @@
       <c r="AC187" t="n">
         <v>0.41533326844921</v>
       </c>
-      <c r="AD187" t="inlineStr"/>
-      <c r="AE187" t="inlineStr"/>
+      <c r="AD187" t="n">
+        <v>0.1212512270951472</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>0.1340918147538357</v>
+      </c>
       <c r="AF187" t="inlineStr"/>
-      <c r="AG187" t="inlineStr"/>
-      <c r="AH187" t="inlineStr"/>
+      <c r="AG187" t="n">
+        <v>0.0555328798185941</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>0.1020370565322666</v>
+      </c>
       <c r="AI187" t="inlineStr"/>
       <c r="AJ187" t="inlineStr"/>
       <c r="AK187" t="inlineStr"/>
+      <c r="AL187" t="inlineStr"/>
+      <c r="AM187" t="inlineStr"/>
+      <c r="AN187" t="inlineStr"/>
+      <c r="AO187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -21388,14 +23094,22 @@
       <c r="AC188" t="n">
         <v>0.0674311026217185</v>
       </c>
-      <c r="AD188" t="inlineStr"/>
-      <c r="AE188" t="inlineStr"/>
+      <c r="AD188" t="n">
+        <v>0.09200639851900358</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>0.06364844607594339</v>
+      </c>
       <c r="AF188" t="inlineStr"/>
       <c r="AG188" t="inlineStr"/>
       <c r="AH188" t="inlineStr"/>
       <c r="AI188" t="inlineStr"/>
       <c r="AJ188" t="inlineStr"/>
       <c r="AK188" t="inlineStr"/>
+      <c r="AL188" t="inlineStr"/>
+      <c r="AM188" t="inlineStr"/>
+      <c r="AN188" t="inlineStr"/>
+      <c r="AO188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -21501,14 +23215,22 @@
       <c r="AC189" t="n">
         <v>0.143082439617766</v>
       </c>
-      <c r="AD189" t="inlineStr"/>
-      <c r="AE189" t="inlineStr"/>
+      <c r="AD189" t="n">
+        <v>0.1099704205130965</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>0.1298264737864568</v>
+      </c>
       <c r="AF189" t="inlineStr"/>
       <c r="AG189" t="inlineStr"/>
       <c r="AH189" t="inlineStr"/>
       <c r="AI189" t="inlineStr"/>
       <c r="AJ189" t="inlineStr"/>
       <c r="AK189" t="inlineStr"/>
+      <c r="AL189" t="inlineStr"/>
+      <c r="AM189" t="inlineStr"/>
+      <c r="AN189" t="inlineStr"/>
+      <c r="AO189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -21614,14 +23336,24 @@
       <c r="AC190" t="n">
         <v>0.301780602914606</v>
       </c>
-      <c r="AD190" t="inlineStr"/>
-      <c r="AE190" t="inlineStr"/>
-      <c r="AF190" t="inlineStr"/>
+      <c r="AD190" t="n">
+        <v>0.122419220810611</v>
+      </c>
+      <c r="AE190" t="n">
+        <v>0.1101774539603075</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>0.1148979213501356</v>
+      </c>
       <c r="AG190" t="inlineStr"/>
       <c r="AH190" t="inlineStr"/>
       <c r="AI190" t="inlineStr"/>
       <c r="AJ190" t="inlineStr"/>
       <c r="AK190" t="inlineStr"/>
+      <c r="AL190" t="inlineStr"/>
+      <c r="AM190" t="inlineStr"/>
+      <c r="AN190" t="inlineStr"/>
+      <c r="AO190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -21723,14 +23455,24 @@
       <c r="AC191" t="n">
         <v>0.221486408678527</v>
       </c>
-      <c r="AD191" t="inlineStr"/>
-      <c r="AE191" t="inlineStr"/>
-      <c r="AF191" t="inlineStr"/>
+      <c r="AD191" t="n">
+        <v>0.09663838126635969</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>0.0806473371656822</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>0.1274400268170758</v>
+      </c>
       <c r="AG191" t="inlineStr"/>
       <c r="AH191" t="inlineStr"/>
       <c r="AI191" t="inlineStr"/>
       <c r="AJ191" t="inlineStr"/>
       <c r="AK191" t="inlineStr"/>
+      <c r="AL191" t="inlineStr"/>
+      <c r="AM191" t="inlineStr"/>
+      <c r="AN191" t="inlineStr"/>
+      <c r="AO191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -21842,14 +23584,22 @@
       <c r="AC192" t="n">
         <v>0.508301090000791</v>
       </c>
-      <c r="AD192" t="inlineStr"/>
-      <c r="AE192" t="inlineStr"/>
+      <c r="AD192" t="n">
+        <v>0.1215639142557227</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>0.2560183632429464</v>
+      </c>
       <c r="AF192" t="inlineStr"/>
       <c r="AG192" t="inlineStr"/>
       <c r="AH192" t="inlineStr"/>
       <c r="AI192" t="inlineStr"/>
       <c r="AJ192" t="inlineStr"/>
       <c r="AK192" t="inlineStr"/>
+      <c r="AL192" t="inlineStr"/>
+      <c r="AM192" t="inlineStr"/>
+      <c r="AN192" t="inlineStr"/>
+      <c r="AO192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -21947,14 +23697,24 @@
       <c r="AC193" t="n">
         <v>0.262631307063215</v>
       </c>
-      <c r="AD193" t="inlineStr"/>
-      <c r="AE193" t="inlineStr"/>
-      <c r="AF193" t="inlineStr"/>
+      <c r="AD193" t="n">
+        <v>0.1166142236468915</v>
+      </c>
+      <c r="AE193" t="n">
+        <v>0.1223952357592911</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>0.116295047346138</v>
+      </c>
       <c r="AG193" t="inlineStr"/>
       <c r="AH193" t="inlineStr"/>
       <c r="AI193" t="inlineStr"/>
       <c r="AJ193" t="inlineStr"/>
       <c r="AK193" t="inlineStr"/>
+      <c r="AL193" t="inlineStr"/>
+      <c r="AM193" t="inlineStr"/>
+      <c r="AN193" t="inlineStr"/>
+      <c r="AO193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -22048,14 +23808,24 @@
       <c r="AC194" t="n">
         <v>0.429469525579517</v>
       </c>
-      <c r="AD194" t="inlineStr"/>
-      <c r="AE194" t="inlineStr"/>
-      <c r="AF194" t="inlineStr"/>
+      <c r="AD194" t="n">
+        <v>0.1695628556390942</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>0.1935479122924791</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>0.20502903330638</v>
+      </c>
       <c r="AG194" t="inlineStr"/>
       <c r="AH194" t="inlineStr"/>
       <c r="AI194" t="inlineStr"/>
       <c r="AJ194" t="inlineStr"/>
       <c r="AK194" t="inlineStr"/>
+      <c r="AL194" t="inlineStr"/>
+      <c r="AM194" t="inlineStr"/>
+      <c r="AN194" t="inlineStr"/>
+      <c r="AO194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -22167,14 +23937,24 @@
       <c r="AC195" t="n">
         <v>0.539050765126347</v>
       </c>
-      <c r="AD195" t="inlineStr"/>
-      <c r="AE195" t="inlineStr"/>
+      <c r="AD195" t="n">
+        <v>0.2616439138193001</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>0.2487706193588546</v>
+      </c>
       <c r="AF195" t="inlineStr"/>
-      <c r="AG195" t="inlineStr"/>
+      <c r="AG195" t="n">
+        <v>0.2015480839010251</v>
+      </c>
       <c r="AH195" t="inlineStr"/>
       <c r="AI195" t="inlineStr"/>
       <c r="AJ195" t="inlineStr"/>
       <c r="AK195" t="inlineStr"/>
+      <c r="AL195" t="inlineStr"/>
+      <c r="AM195" t="inlineStr"/>
+      <c r="AN195" t="inlineStr"/>
+      <c r="AO195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -22276,14 +24056,22 @@
       <c r="AC196" t="n">
         <v>0.401590428563267</v>
       </c>
-      <c r="AD196" t="inlineStr"/>
-      <c r="AE196" t="inlineStr"/>
+      <c r="AD196" t="n">
+        <v>0.1634947435941858</v>
+      </c>
+      <c r="AE196" t="n">
+        <v>0.1589978278472893</v>
+      </c>
       <c r="AF196" t="inlineStr"/>
       <c r="AG196" t="inlineStr"/>
       <c r="AH196" t="inlineStr"/>
       <c r="AI196" t="inlineStr"/>
       <c r="AJ196" t="inlineStr"/>
       <c r="AK196" t="inlineStr"/>
+      <c r="AL196" t="inlineStr"/>
+      <c r="AM196" t="inlineStr"/>
+      <c r="AN196" t="inlineStr"/>
+      <c r="AO196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -22393,14 +24181,24 @@
       <c r="AC197" t="n">
         <v>0.385144300374292</v>
       </c>
-      <c r="AD197" t="inlineStr"/>
-      <c r="AE197" t="inlineStr"/>
+      <c r="AD197" t="n">
+        <v>0.1034175034443954</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>0.1001796338560458</v>
+      </c>
       <c r="AF197" t="inlineStr"/>
-      <c r="AG197" t="inlineStr"/>
+      <c r="AG197" t="n">
+        <v>0.04519846625109784</v>
+      </c>
       <c r="AH197" t="inlineStr"/>
       <c r="AI197" t="inlineStr"/>
       <c r="AJ197" t="inlineStr"/>
       <c r="AK197" t="inlineStr"/>
+      <c r="AL197" t="inlineStr"/>
+      <c r="AM197" t="inlineStr"/>
+      <c r="AN197" t="inlineStr"/>
+      <c r="AO197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -22510,14 +24308,22 @@
       <c r="AC198" t="n">
         <v>0.409093736098984</v>
       </c>
-      <c r="AD198" t="inlineStr"/>
-      <c r="AE198" t="inlineStr"/>
+      <c r="AD198" t="n">
+        <v>0.1083960586537234</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>0.107260355608462</v>
+      </c>
       <c r="AF198" t="inlineStr"/>
       <c r="AG198" t="inlineStr"/>
       <c r="AH198" t="inlineStr"/>
       <c r="AI198" t="inlineStr"/>
       <c r="AJ198" t="inlineStr"/>
       <c r="AK198" t="inlineStr"/>
+      <c r="AL198" t="inlineStr"/>
+      <c r="AM198" t="inlineStr"/>
+      <c r="AN198" t="inlineStr"/>
+      <c r="AO198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -22615,14 +24421,22 @@
       <c r="AC199" t="n">
         <v>0.107782227760213</v>
       </c>
-      <c r="AD199" t="inlineStr"/>
-      <c r="AE199" t="inlineStr"/>
+      <c r="AD199" t="n">
+        <v>0.1291603467596466</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>0.09501981352824684</v>
+      </c>
       <c r="AF199" t="inlineStr"/>
       <c r="AG199" t="inlineStr"/>
       <c r="AH199" t="inlineStr"/>
       <c r="AI199" t="inlineStr"/>
       <c r="AJ199" t="inlineStr"/>
       <c r="AK199" t="inlineStr"/>
+      <c r="AL199" t="inlineStr"/>
+      <c r="AM199" t="inlineStr"/>
+      <c r="AN199" t="inlineStr"/>
+      <c r="AO199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -22732,14 +24546,22 @@
       <c r="AC200" t="n">
         <v>0.437727601381159</v>
       </c>
-      <c r="AD200" t="inlineStr"/>
-      <c r="AE200" t="inlineStr"/>
+      <c r="AD200" t="n">
+        <v>0.1160315385754586</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>0.1029064829593165</v>
+      </c>
       <c r="AF200" t="inlineStr"/>
       <c r="AG200" t="inlineStr"/>
       <c r="AH200" t="inlineStr"/>
       <c r="AI200" t="inlineStr"/>
       <c r="AJ200" t="inlineStr"/>
       <c r="AK200" t="inlineStr"/>
+      <c r="AL200" t="inlineStr"/>
+      <c r="AM200" t="inlineStr"/>
+      <c r="AN200" t="inlineStr"/>
+      <c r="AO200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -22835,14 +24657,22 @@
       <c r="AC201" t="n">
         <v>0.499336724113173</v>
       </c>
-      <c r="AD201" t="inlineStr"/>
-      <c r="AE201" t="inlineStr"/>
+      <c r="AD201" t="n">
+        <v>0.1715686732358847</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>0.281001675292582</v>
+      </c>
       <c r="AF201" t="inlineStr"/>
       <c r="AG201" t="inlineStr"/>
       <c r="AH201" t="inlineStr"/>
       <c r="AI201" t="inlineStr"/>
       <c r="AJ201" t="inlineStr"/>
       <c r="AK201" t="inlineStr"/>
+      <c r="AL201" t="inlineStr"/>
+      <c r="AM201" t="inlineStr"/>
+      <c r="AN201" t="inlineStr"/>
+      <c r="AO201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -22954,14 +24784,22 @@
       <c r="AC202" t="n">
         <v>0.508120333613755</v>
       </c>
-      <c r="AD202" t="inlineStr"/>
-      <c r="AE202" t="inlineStr"/>
+      <c r="AD202" t="n">
+        <v>0.2163065063927133</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>0.2813639359657059</v>
+      </c>
       <c r="AF202" t="inlineStr"/>
       <c r="AG202" t="inlineStr"/>
       <c r="AH202" t="inlineStr"/>
       <c r="AI202" t="inlineStr"/>
       <c r="AJ202" t="inlineStr"/>
       <c r="AK202" t="inlineStr"/>
+      <c r="AL202" t="inlineStr"/>
+      <c r="AM202" t="inlineStr"/>
+      <c r="AN202" t="inlineStr"/>
+      <c r="AO202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -23069,14 +24907,24 @@
       <c r="AC203" t="n">
         <v>0.520345172039545</v>
       </c>
-      <c r="AD203" t="inlineStr"/>
-      <c r="AE203" t="inlineStr"/>
+      <c r="AD203" t="n">
+        <v>0.173996891238025</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>0.2796526846255303</v>
+      </c>
       <c r="AF203" t="inlineStr"/>
-      <c r="AG203" t="inlineStr"/>
+      <c r="AG203" t="n">
+        <v>0.07545641493009914</v>
+      </c>
       <c r="AH203" t="inlineStr"/>
       <c r="AI203" t="inlineStr"/>
       <c r="AJ203" t="inlineStr"/>
       <c r="AK203" t="inlineStr"/>
+      <c r="AL203" t="inlineStr"/>
+      <c r="AM203" t="inlineStr"/>
+      <c r="AN203" t="inlineStr"/>
+      <c r="AO203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -23174,14 +25022,24 @@
       <c r="AC204" t="n">
         <v>0.495171407929426</v>
       </c>
-      <c r="AD204" t="inlineStr"/>
-      <c r="AE204" t="inlineStr"/>
+      <c r="AD204" t="n">
+        <v>0.2171987699372025</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>0.1398729384877565</v>
+      </c>
       <c r="AF204" t="inlineStr"/>
-      <c r="AG204" t="inlineStr"/>
+      <c r="AG204" t="n">
+        <v>0.1659966352132251</v>
+      </c>
       <c r="AH204" t="inlineStr"/>
       <c r="AI204" t="inlineStr"/>
       <c r="AJ204" t="inlineStr"/>
       <c r="AK204" t="inlineStr"/>
+      <c r="AL204" t="inlineStr"/>
+      <c r="AM204" t="inlineStr"/>
+      <c r="AN204" t="inlineStr"/>
+      <c r="AO204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -23291,14 +25149,24 @@
       <c r="AC205" t="n">
         <v>0.408460248804203</v>
       </c>
-      <c r="AD205" t="inlineStr"/>
-      <c r="AE205" t="inlineStr"/>
-      <c r="AF205" t="inlineStr"/>
+      <c r="AD205" t="n">
+        <v>0.1415716180001894</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>0.122666844834419</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>0.1476873186550606</v>
+      </c>
       <c r="AG205" t="inlineStr"/>
       <c r="AH205" t="inlineStr"/>
       <c r="AI205" t="inlineStr"/>
       <c r="AJ205" t="inlineStr"/>
       <c r="AK205" t="inlineStr"/>
+      <c r="AL205" t="inlineStr"/>
+      <c r="AM205" t="inlineStr"/>
+      <c r="AN205" t="inlineStr"/>
+      <c r="AO205" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/SIB-200 languages - ACL.xlsx
+++ b/SIB-200 languages - ACL.xlsx
@@ -6435,7 +6435,7 @@
         <v>0.2663370216165247</v>
       </c>
       <c r="AL50" t="n">
-        <v>0.6440653081254586</v>
+        <v>0.2877310599303877</v>
       </c>
       <c r="AM50" t="n">
         <v>0.138801390144461</v>

--- a/SIB-200 languages - ACL.xlsx
+++ b/SIB-200 languages - ACL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO205"/>
+  <dimension ref="A1:AQ205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,6 +639,16 @@
           <t>F1 bloomz-560m generate 2-shot</t>
         </is>
       </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F1 bloomz-3b generate 2-shot</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>F1 bloomz-7b1 generate 2-shot</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -758,6 +768,12 @@
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="n">
+        <v>0.06083094394782707</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.1058786624004015</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -875,6 +891,12 @@
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="n">
+        <v>0.4543890359417669</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.6354753707016061</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -986,6 +1008,12 @@
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="n">
+        <v>0.5809407376329083</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.704608896839062</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1097,6 +1125,12 @@
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="n">
+        <v>0.5812318373769367</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.6632073393128336</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1212,6 +1246,12 @@
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="n">
+        <v>0.1176902193851346</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.647663263939126</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1335,6 +1375,12 @@
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="n">
+        <v>0.4596800609138635</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.6132178172620925</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1446,6 +1492,12 @@
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="n">
+        <v>0.6557943596711581</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.7060015256068279</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1573,6 +1625,12 @@
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="n">
+        <v>0.1952934566156846</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.5865106276692836</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1686,6 +1744,12 @@
       <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="n">
+        <v>0.294143798712714</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.4585339513188016</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1807,6 +1871,12 @@
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="n">
+        <v>0.06083094394782707</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.07732772691789085</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1924,6 +1994,12 @@
       <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="n">
+        <v>0.643092775837103</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.709775592371401</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2041,6 +2117,12 @@
       <c r="AM13" t="inlineStr"/>
       <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="n">
+        <v>0.5813027095701867</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0.6870236313508317</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2150,6 +2232,12 @@
       <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="inlineStr"/>
       <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="n">
+        <v>0.1700364141791897</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.3010588526507779</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2263,6 +2351,12 @@
       <c r="AM15" t="inlineStr"/>
       <c r="AN15" t="inlineStr"/>
       <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="n">
+        <v>0.5665604514670844</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0.6878995908579876</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2376,6 +2470,12 @@
       <c r="AM16" t="inlineStr"/>
       <c r="AN16" t="inlineStr"/>
       <c r="AO16" t="inlineStr"/>
+      <c r="AP16" t="n">
+        <v>0.17458103452135</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.7252509148804104</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2485,6 +2585,12 @@
       <c r="AM17" t="inlineStr"/>
       <c r="AN17" t="inlineStr"/>
       <c r="AO17" t="inlineStr"/>
+      <c r="AP17" t="n">
+        <v>0.6076048785468712</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0.7039906136966214</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2608,6 +2714,12 @@
       <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="inlineStr"/>
       <c r="AO18" t="inlineStr"/>
+      <c r="AP18" t="n">
+        <v>0.5896366199947842</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0.6759906533457993</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2727,6 +2839,12 @@
       <c r="AM19" t="inlineStr"/>
       <c r="AN19" t="inlineStr"/>
       <c r="AO19" t="inlineStr"/>
+      <c r="AP19" t="n">
+        <v>0.7032764416336652</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.7414368102203752</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2844,6 +2962,12 @@
       <c r="AM20" t="inlineStr"/>
       <c r="AN20" t="inlineStr"/>
       <c r="AO20" t="inlineStr"/>
+      <c r="AP20" t="n">
+        <v>0.5377087322698338</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.6527953319514171</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2955,6 +3079,12 @@
       <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="inlineStr"/>
       <c r="AO21" t="inlineStr"/>
+      <c r="AP21" t="n">
+        <v>0.2405334041278742</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0.3327277985172722</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3064,6 +3194,12 @@
       <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="inlineStr"/>
       <c r="AO22" t="inlineStr"/>
+      <c r="AP22" t="n">
+        <v>0.1436611089864326</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0.3113160714775536</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3173,6 +3309,12 @@
       <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="inlineStr"/>
       <c r="AO23" t="inlineStr"/>
+      <c r="AP23" t="n">
+        <v>0.2129421042340768</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0.4848028861287249</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3298,6 +3440,12 @@
       <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="inlineStr"/>
       <c r="AO24" t="inlineStr"/>
+      <c r="AP24" t="n">
+        <v>0.06083094394782707</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0.1491485634585319</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3423,6 +3571,12 @@
       <c r="AM25" t="inlineStr"/>
       <c r="AN25" t="inlineStr"/>
       <c r="AO25" t="inlineStr"/>
+      <c r="AP25" t="n">
+        <v>0.0962876782512168</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0.4182667478876517</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3544,6 +3698,12 @@
       <c r="AM26" t="inlineStr"/>
       <c r="AN26" t="inlineStr"/>
       <c r="AO26" t="inlineStr"/>
+      <c r="AP26" t="n">
+        <v>0.532367753338398</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0.6599449322210391</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3665,6 +3825,12 @@
       <c r="AM27" t="inlineStr"/>
       <c r="AN27" t="inlineStr"/>
       <c r="AO27" t="inlineStr"/>
+      <c r="AP27" t="n">
+        <v>0.06083094394782707</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0.1874884298899561</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3784,6 +3950,12 @@
       <c r="AM28" t="inlineStr"/>
       <c r="AN28" t="inlineStr"/>
       <c r="AO28" t="inlineStr"/>
+      <c r="AP28" t="n">
+        <v>0.3945959965553916</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0.5414649484102599</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3911,6 +4083,12 @@
       <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="inlineStr"/>
       <c r="AO29" t="inlineStr"/>
+      <c r="AP29" t="n">
+        <v>0.623990326841007</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0.6853388002711732</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4030,6 +4208,12 @@
       <c r="AM30" t="inlineStr"/>
       <c r="AN30" t="inlineStr"/>
       <c r="AO30" t="inlineStr"/>
+      <c r="AP30" t="n">
+        <v>0.5412290939441454</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0.6588846663392769</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4139,6 +4323,12 @@
       <c r="AM31" t="inlineStr"/>
       <c r="AN31" t="inlineStr"/>
       <c r="AO31" t="inlineStr"/>
+      <c r="AP31" t="n">
+        <v>0.0468384074941452</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>0.0578075123529669</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4248,6 +4438,12 @@
       <c r="AM32" t="inlineStr"/>
       <c r="AN32" t="inlineStr"/>
       <c r="AO32" t="inlineStr"/>
+      <c r="AP32" t="n">
+        <v>0.5405996209119283</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0.6427473739115472</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4369,6 +4565,12 @@
       <c r="AM33" t="inlineStr"/>
       <c r="AN33" t="inlineStr"/>
       <c r="AO33" t="inlineStr"/>
+      <c r="AP33" t="n">
+        <v>0.05973575712143929</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0.1088871250685361</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4494,6 +4696,12 @@
       <c r="AM34" t="inlineStr"/>
       <c r="AN34" t="inlineStr"/>
       <c r="AO34" t="inlineStr"/>
+      <c r="AP34" t="n">
+        <v>0.3747261906679359</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>0.5495698481412766</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4611,6 +4819,12 @@
       <c r="AM35" t="inlineStr"/>
       <c r="AN35" t="inlineStr"/>
       <c r="AO35" t="inlineStr"/>
+      <c r="AP35" t="n">
+        <v>0.4326993588428699</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0.5209321576070345</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4736,6 +4950,12 @@
       <c r="AM36" t="inlineStr"/>
       <c r="AN36" t="inlineStr"/>
       <c r="AO36" t="inlineStr"/>
+      <c r="AP36" t="n">
+        <v>0.1774613481756339</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0.4356462878239881</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4863,6 +5083,12 @@
       <c r="AM37" t="inlineStr"/>
       <c r="AN37" t="inlineStr"/>
       <c r="AO37" t="inlineStr"/>
+      <c r="AP37" t="n">
+        <v>0.7023569408121055</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0.6895431467227998</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4986,6 +5212,12 @@
       <c r="AM38" t="inlineStr"/>
       <c r="AN38" t="inlineStr"/>
       <c r="AO38" t="inlineStr"/>
+      <c r="AP38" t="n">
+        <v>0.4770855864535236</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0.5783569150490626</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5109,6 +5341,12 @@
       <c r="AM39" t="inlineStr"/>
       <c r="AN39" t="inlineStr"/>
       <c r="AO39" t="inlineStr"/>
+      <c r="AP39" t="n">
+        <v>0.3424345095498524</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0.5477760235860432</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5220,6 +5458,12 @@
       <c r="AM40" t="inlineStr"/>
       <c r="AN40" t="inlineStr"/>
       <c r="AO40" t="inlineStr"/>
+      <c r="AP40" t="n">
+        <v>0.3358372101164342</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0.425364639719004</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5329,6 +5573,12 @@
       <c r="AM41" t="inlineStr"/>
       <c r="AN41" t="inlineStr"/>
       <c r="AO41" t="inlineStr"/>
+      <c r="AP41" t="n">
+        <v>0.04722550177095632</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0.09230495496255788</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5446,6 +5696,12 @@
       <c r="AM42" t="inlineStr"/>
       <c r="AN42" t="inlineStr"/>
       <c r="AO42" t="inlineStr"/>
+      <c r="AP42" t="n">
+        <v>0.2596332275972105</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0.4550390042004783</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5569,6 +5825,12 @@
       <c r="AM43" t="inlineStr"/>
       <c r="AN43" t="inlineStr"/>
       <c r="AO43" t="inlineStr"/>
+      <c r="AP43" t="n">
+        <v>0.2625888499146121</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>0.3702508515833238</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5690,6 +5952,12 @@
       <c r="AM44" t="inlineStr"/>
       <c r="AN44" t="inlineStr"/>
       <c r="AO44" t="inlineStr"/>
+      <c r="AP44" t="n">
+        <v>0.4807236871550974</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0.5943761081709388</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5819,6 +6087,12 @@
       <c r="AM45" t="inlineStr"/>
       <c r="AN45" t="inlineStr"/>
       <c r="AO45" t="inlineStr"/>
+      <c r="AP45" t="n">
+        <v>0.4932015496197691</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0.6407102421388134</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5934,6 +6208,12 @@
       <c r="AM46" t="inlineStr"/>
       <c r="AN46" t="inlineStr"/>
       <c r="AO46" t="inlineStr"/>
+      <c r="AP46" t="n">
+        <v>0.3348712956551398</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>0.442093355408133</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6053,6 +6333,12 @@
       <c r="AM47" t="inlineStr"/>
       <c r="AN47" t="inlineStr"/>
       <c r="AO47" t="inlineStr"/>
+      <c r="AP47" t="n">
+        <v>0.3322798341632556</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>0.4251123254950276</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6176,6 +6462,12 @@
       <c r="AM48" t="inlineStr"/>
       <c r="AN48" t="inlineStr"/>
       <c r="AO48" t="inlineStr"/>
+      <c r="AP48" t="n">
+        <v>0.0510524740622506</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>0.05417203797023321</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6299,6 +6591,12 @@
       <c r="AM49" t="inlineStr"/>
       <c r="AN49" t="inlineStr"/>
       <c r="AO49" t="inlineStr"/>
+      <c r="AP49" t="n">
+        <v>0.07339548418386592</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>0.1855177958811558</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6445,6 +6743,12 @@
       </c>
       <c r="AO50" t="n">
         <v>0.275376350719419</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>0.6741923432873583</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>0.6610180995380134</v>
       </c>
     </row>
     <row r="51">
@@ -6567,6 +6871,12 @@
       <c r="AM51" t="inlineStr"/>
       <c r="AN51" t="inlineStr"/>
       <c r="AO51" t="inlineStr"/>
+      <c r="AP51" t="n">
+        <v>0.5110153735153735</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>0.5635847860221387</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6692,6 +7002,12 @@
       <c r="AM52" t="inlineStr"/>
       <c r="AN52" t="inlineStr"/>
       <c r="AO52" t="inlineStr"/>
+      <c r="AP52" t="n">
+        <v>0.3337515999380406</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>0.477007938170499</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6825,6 +7141,12 @@
       <c r="AM53" t="inlineStr"/>
       <c r="AN53" t="inlineStr"/>
       <c r="AO53" t="inlineStr"/>
+      <c r="AP53" t="n">
+        <v>0.6530352045425983</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>0.7357605611888884</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6946,6 +7268,12 @@
       <c r="AM54" t="inlineStr"/>
       <c r="AN54" t="inlineStr"/>
       <c r="AO54" t="inlineStr"/>
+      <c r="AP54" t="n">
+        <v>0.3161117493126086</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>0.421237534843673</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7069,6 +7397,12 @@
       <c r="AM55" t="inlineStr"/>
       <c r="AN55" t="inlineStr"/>
       <c r="AO55" t="inlineStr"/>
+      <c r="AP55" t="n">
+        <v>0.2885719493694787</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>0.4399255419724973</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7190,6 +7524,12 @@
       <c r="AM56" t="inlineStr"/>
       <c r="AN56" t="inlineStr"/>
       <c r="AO56" t="inlineStr"/>
+      <c r="AP56" t="n">
+        <v>0.2952778569054741</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>0.4233480831331722</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7315,6 +7655,12 @@
       <c r="AM57" t="inlineStr"/>
       <c r="AN57" t="inlineStr"/>
       <c r="AO57" t="inlineStr"/>
+      <c r="AP57" t="n">
+        <v>0.2132085441944597</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>0.3776978289587499</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7436,6 +7782,12 @@
       <c r="AM58" t="inlineStr"/>
       <c r="AN58" t="inlineStr"/>
       <c r="AO58" t="inlineStr"/>
+      <c r="AP58" t="n">
+        <v>0.3156888390892884</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>0.4614666754151583</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7563,6 +7915,12 @@
       <c r="AM59" t="inlineStr"/>
       <c r="AN59" t="inlineStr"/>
       <c r="AO59" t="inlineStr"/>
+      <c r="AP59" t="n">
+        <v>0.6087802758355657</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>0.6462357437147352</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7680,6 +8038,12 @@
       <c r="AM60" t="inlineStr"/>
       <c r="AN60" t="inlineStr"/>
       <c r="AO60" t="inlineStr"/>
+      <c r="AP60" t="n">
+        <v>0.4978754157322784</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>0.6426532729796064</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7789,6 +8153,12 @@
       <c r="AM61" t="inlineStr"/>
       <c r="AN61" t="inlineStr"/>
       <c r="AO61" t="inlineStr"/>
+      <c r="AP61" t="n">
+        <v>0.3186148701655053</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>0.4081245271460989</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7902,6 +8272,12 @@
       <c r="AM62" t="inlineStr"/>
       <c r="AN62" t="inlineStr"/>
       <c r="AO62" t="inlineStr"/>
+      <c r="AP62" t="n">
+        <v>0.1479676096797846</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>0.2659569600042544</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8025,6 +8401,12 @@
       <c r="AM63" t="inlineStr"/>
       <c r="AN63" t="inlineStr"/>
       <c r="AO63" t="inlineStr"/>
+      <c r="AP63" t="n">
+        <v>0.2360547553030816</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>0.3364908240406489</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8146,6 +8528,12 @@
       <c r="AM64" t="inlineStr"/>
       <c r="AN64" t="inlineStr"/>
       <c r="AO64" t="inlineStr"/>
+      <c r="AP64" t="n">
+        <v>0.2469498055236595</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>0.3448875958069527</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8267,6 +8655,12 @@
       <c r="AM65" t="inlineStr"/>
       <c r="AN65" t="inlineStr"/>
       <c r="AO65" t="inlineStr"/>
+      <c r="AP65" t="n">
+        <v>0.1328152134603748</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>0.6583508988879831</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8388,6 +8782,12 @@
       <c r="AM66" t="inlineStr"/>
       <c r="AN66" t="inlineStr"/>
       <c r="AO66" t="inlineStr"/>
+      <c r="AP66" t="n">
+        <v>0.4145967884108302</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>0.5533410333830501</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8517,6 +8917,12 @@
       <c r="AM67" t="inlineStr"/>
       <c r="AN67" t="inlineStr"/>
       <c r="AO67" t="inlineStr"/>
+      <c r="AP67" t="n">
+        <v>0.5881449364705272</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>0.6865318845580168</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8640,6 +9046,12 @@
       <c r="AM68" t="inlineStr"/>
       <c r="AN68" t="inlineStr"/>
       <c r="AO68" t="inlineStr"/>
+      <c r="AP68" t="n">
+        <v>0.3734809314736526</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>0.5807089143928091</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8763,6 +9175,12 @@
       <c r="AM69" t="inlineStr"/>
       <c r="AN69" t="inlineStr"/>
       <c r="AO69" t="inlineStr"/>
+      <c r="AP69" t="n">
+        <v>0.2975370226601753</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>0.4335351607753516</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8886,6 +9304,12 @@
       <c r="AM70" t="inlineStr"/>
       <c r="AN70" t="inlineStr"/>
       <c r="AO70" t="inlineStr"/>
+      <c r="AP70" t="n">
+        <v>0.05805663870179999</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>0.1214436661878572</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -9023,6 +9447,12 @@
       <c r="AM71" t="inlineStr"/>
       <c r="AN71" t="inlineStr"/>
       <c r="AO71" t="inlineStr"/>
+      <c r="AP71" t="n">
+        <v>0.1275212206267204</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>0.6247631096631213</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9134,6 +9564,12 @@
       <c r="AM72" t="inlineStr"/>
       <c r="AN72" t="inlineStr"/>
       <c r="AO72" t="inlineStr"/>
+      <c r="AP72" t="n">
+        <v>0.5349468894771923</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>0.6272622985163935</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9255,6 +9691,12 @@
       <c r="AM73" t="inlineStr"/>
       <c r="AN73" t="inlineStr"/>
       <c r="AO73" t="inlineStr"/>
+      <c r="AP73" t="n">
+        <v>0.330404456574858</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>0.4841310050024503</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9380,6 +9822,12 @@
       <c r="AM74" t="inlineStr"/>
       <c r="AN74" t="inlineStr"/>
       <c r="AO74" t="inlineStr"/>
+      <c r="AP74" t="n">
+        <v>0.2991220290293976</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>0.4295365149958162</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -9501,6 +9949,12 @@
       <c r="AM75" t="inlineStr"/>
       <c r="AN75" t="inlineStr"/>
       <c r="AO75" t="inlineStr"/>
+      <c r="AP75" t="n">
+        <v>0.0468384074941452</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>0.04703115814226926</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -9628,6 +10082,12 @@
       <c r="AM76" t="inlineStr"/>
       <c r="AN76" t="inlineStr"/>
       <c r="AO76" t="inlineStr"/>
+      <c r="AP76" t="n">
+        <v>0.4970158794079059</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>0.6750888985511115</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -9745,6 +10205,12 @@
       <c r="AM77" t="inlineStr"/>
       <c r="AN77" t="inlineStr"/>
       <c r="AO77" t="inlineStr"/>
+      <c r="AP77" t="n">
+        <v>0.3641294143076826</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>0.5502966630239673</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -9874,6 +10340,12 @@
       <c r="AM78" t="inlineStr"/>
       <c r="AN78" t="inlineStr"/>
       <c r="AO78" t="inlineStr"/>
+      <c r="AP78" t="n">
+        <v>0.6555122787425061</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>0.659894546142908</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -9995,6 +10467,12 @@
       <c r="AM79" t="inlineStr"/>
       <c r="AN79" t="inlineStr"/>
       <c r="AO79" t="inlineStr"/>
+      <c r="AP79" t="n">
+        <v>0.255240281941285</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>0.3131643820626199</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -10118,6 +10596,12 @@
       <c r="AM80" t="inlineStr"/>
       <c r="AN80" t="inlineStr"/>
       <c r="AO80" t="inlineStr"/>
+      <c r="AP80" t="n">
+        <v>0.1090158650387315</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>0.616146049169555</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -10241,6 +10725,12 @@
       <c r="AM81" t="inlineStr"/>
       <c r="AN81" t="inlineStr"/>
       <c r="AO81" t="inlineStr"/>
+      <c r="AP81" t="n">
+        <v>0.4996922359540862</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>0.6882347833531212</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -10366,6 +10856,12 @@
       <c r="AM82" t="inlineStr"/>
       <c r="AN82" t="inlineStr"/>
       <c r="AO82" t="inlineStr"/>
+      <c r="AP82" t="n">
+        <v>0.4788258953439843</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>0.570780091497434</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -10485,6 +10981,12 @@
       <c r="AM83" t="inlineStr"/>
       <c r="AN83" t="inlineStr"/>
       <c r="AO83" t="inlineStr"/>
+      <c r="AP83" t="n">
+        <v>0.1294422233327781</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>0.1541105331021297</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -10604,6 +11106,12 @@
       <c r="AM84" t="inlineStr"/>
       <c r="AN84" t="inlineStr"/>
       <c r="AO84" t="inlineStr"/>
+      <c r="AP84" t="n">
+        <v>0.2087871707822914</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>0.3873218653433051</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -10721,6 +11229,12 @@
       <c r="AM85" t="inlineStr"/>
       <c r="AN85" t="inlineStr"/>
       <c r="AO85" t="inlineStr"/>
+      <c r="AP85" t="n">
+        <v>0.3616484914063606</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>0.4687572305668721</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -10848,6 +11362,12 @@
       <c r="AM86" t="inlineStr"/>
       <c r="AN86" t="inlineStr"/>
       <c r="AO86" t="inlineStr"/>
+      <c r="AP86" t="n">
+        <v>0.5065892567267956</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>0.7258388047493892</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -10971,6 +11491,12 @@
       <c r="AM87" t="inlineStr"/>
       <c r="AN87" t="inlineStr"/>
       <c r="AO87" t="inlineStr"/>
+      <c r="AP87" t="n">
+        <v>0.2258343384428477</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>0.4402937156325524</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -11094,6 +11620,12 @@
       <c r="AM88" t="inlineStr"/>
       <c r="AN88" t="inlineStr"/>
       <c r="AO88" t="inlineStr"/>
+      <c r="AP88" t="n">
+        <v>0.252823479596935</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>0.5015772737575291</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -11215,6 +11747,12 @@
       <c r="AM89" t="inlineStr"/>
       <c r="AN89" t="inlineStr"/>
       <c r="AO89" t="inlineStr"/>
+      <c r="AP89" t="n">
+        <v>0.08814179148327142</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>0.1219104139351924</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -11336,6 +11874,12 @@
       <c r="AM90" t="inlineStr"/>
       <c r="AN90" t="inlineStr"/>
       <c r="AO90" t="inlineStr"/>
+      <c r="AP90" t="n">
+        <v>0.07062825130052021</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>0.17682394595265</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -11445,6 +11989,12 @@
       <c r="AM91" t="inlineStr"/>
       <c r="AN91" t="inlineStr"/>
       <c r="AO91" t="inlineStr"/>
+      <c r="AP91" t="n">
+        <v>0.0676270590606021</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>0.1879673726414063</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -11558,6 +12108,12 @@
       <c r="AM92" t="inlineStr"/>
       <c r="AN92" t="inlineStr"/>
       <c r="AO92" t="inlineStr"/>
+      <c r="AP92" t="n">
+        <v>0.4705866633220936</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>0.6020519940777497</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -11673,6 +12229,12 @@
       <c r="AM93" t="inlineStr"/>
       <c r="AN93" t="inlineStr"/>
       <c r="AO93" t="inlineStr"/>
+      <c r="AP93" t="n">
+        <v>0.0468384074941452</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>0.09924085576259488</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -11794,6 +12356,12 @@
       <c r="AM94" t="inlineStr"/>
       <c r="AN94" t="inlineStr"/>
       <c r="AO94" t="inlineStr"/>
+      <c r="AP94" t="n">
+        <v>0.1078361306298468</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>0.1334251793022408</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -11919,6 +12487,12 @@
       <c r="AM95" t="inlineStr"/>
       <c r="AN95" t="inlineStr"/>
       <c r="AO95" t="inlineStr"/>
+      <c r="AP95" t="n">
+        <v>0.1127685537491833</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>0.5510123710177425</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -12046,6 +12620,12 @@
       <c r="AM96" t="inlineStr"/>
       <c r="AN96" t="inlineStr"/>
       <c r="AO96" t="inlineStr"/>
+      <c r="AP96" t="n">
+        <v>0.4172087839120741</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>0.6445015204261908</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -12169,6 +12749,12 @@
       <c r="AM97" t="inlineStr"/>
       <c r="AN97" t="inlineStr"/>
       <c r="AO97" t="inlineStr"/>
+      <c r="AP97" t="n">
+        <v>0.05885093167701864</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>0.1576708527865616</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -12286,6 +12872,12 @@
       <c r="AM98" t="inlineStr"/>
       <c r="AN98" t="inlineStr"/>
       <c r="AO98" t="inlineStr"/>
+      <c r="AP98" t="n">
+        <v>0.3394920227397762</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>0.4405457927127269</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -12403,6 +12995,12 @@
       <c r="AM99" t="inlineStr"/>
       <c r="AN99" t="inlineStr"/>
       <c r="AO99" t="inlineStr"/>
+      <c r="AP99" t="n">
+        <v>0.3106274530423137</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>0.411223020729019</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -12514,6 +13112,12 @@
       <c r="AM100" t="inlineStr"/>
       <c r="AN100" t="inlineStr"/>
       <c r="AO100" t="inlineStr"/>
+      <c r="AP100" t="n">
+        <v>0.07977799056637232</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>0.08381522848637349</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -12627,6 +13231,12 @@
       <c r="AM101" t="inlineStr"/>
       <c r="AN101" t="inlineStr"/>
       <c r="AO101" t="inlineStr"/>
+      <c r="AP101" t="n">
+        <v>0.08702791461412152</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>0.4708214424499396</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -12750,6 +13360,12 @@
       <c r="AM102" t="inlineStr"/>
       <c r="AN102" t="inlineStr"/>
       <c r="AO102" t="inlineStr"/>
+      <c r="AP102" t="n">
+        <v>0.3976396812633746</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>0.5668278428236516</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -12873,6 +13489,12 @@
       <c r="AM103" t="inlineStr"/>
       <c r="AN103" t="inlineStr"/>
       <c r="AO103" t="inlineStr"/>
+      <c r="AP103" t="n">
+        <v>0.1396715820434802</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>0.3377273898908263</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -12994,6 +13616,12 @@
       <c r="AM104" t="inlineStr"/>
       <c r="AN104" t="inlineStr"/>
       <c r="AO104" t="inlineStr"/>
+      <c r="AP104" t="n">
+        <v>0.02197802197802198</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>0.06772486772486772</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -13103,6 +13731,12 @@
       <c r="AM105" t="inlineStr"/>
       <c r="AN105" t="inlineStr"/>
       <c r="AO105" t="inlineStr"/>
+      <c r="AP105" t="n">
+        <v>0.5164266143615077</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>0.6484286546019039</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -13226,6 +13860,12 @@
       <c r="AM106" t="inlineStr"/>
       <c r="AN106" t="inlineStr"/>
       <c r="AO106" t="inlineStr"/>
+      <c r="AP106" t="n">
+        <v>0.0925170068027211</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>0.5857346221184476</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -13353,6 +13993,12 @@
       <c r="AM107" t="inlineStr"/>
       <c r="AN107" t="inlineStr"/>
       <c r="AO107" t="inlineStr"/>
+      <c r="AP107" t="n">
+        <v>0.4968088568426841</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>0.7017453084481895</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -13476,6 +14122,12 @@
       <c r="AM108" t="inlineStr"/>
       <c r="AN108" t="inlineStr"/>
       <c r="AO108" t="inlineStr"/>
+      <c r="AP108" t="n">
+        <v>0.3220333746259771</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>0.427758713470153</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -13587,6 +14239,12 @@
       <c r="AM109" t="inlineStr"/>
       <c r="AN109" t="inlineStr"/>
       <c r="AO109" t="inlineStr"/>
+      <c r="AP109" t="n">
+        <v>0.101512871776903</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>0.579481933420418</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -13696,6 +14354,12 @@
       <c r="AM110" t="inlineStr"/>
       <c r="AN110" t="inlineStr"/>
       <c r="AO110" t="inlineStr"/>
+      <c r="AP110" t="n">
+        <v>0.2668122691599052</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>0.4755326354272157</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -13817,6 +14481,12 @@
       <c r="AM111" t="inlineStr"/>
       <c r="AN111" t="inlineStr"/>
       <c r="AO111" t="inlineStr"/>
+      <c r="AP111" t="n">
+        <v>0.3846356011609571</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>0.5724506038010595</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -13938,6 +14608,12 @@
       <c r="AM112" t="inlineStr"/>
       <c r="AN112" t="inlineStr"/>
       <c r="AO112" t="inlineStr"/>
+      <c r="AP112" t="n">
+        <v>0.3932958813256376</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>0.5415725578769057</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -14065,6 +14741,12 @@
       <c r="AM113" t="inlineStr"/>
       <c r="AN113" t="inlineStr"/>
       <c r="AO113" t="inlineStr"/>
+      <c r="AP113" t="n">
+        <v>0.4016678470459983</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>0.6261498620070503</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -14184,6 +14866,12 @@
       <c r="AM114" t="inlineStr"/>
       <c r="AN114" t="inlineStr"/>
       <c r="AO114" t="inlineStr"/>
+      <c r="AP114" t="n">
+        <v>0.3692735224351149</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>0.4812736910733079</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -14301,6 +14989,12 @@
       <c r="AM115" t="inlineStr"/>
       <c r="AN115" t="inlineStr"/>
       <c r="AO115" t="inlineStr"/>
+      <c r="AP115" t="n">
+        <v>0.3953191552365239</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>0.5799649729245936</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -14414,6 +15108,12 @@
       <c r="AM116" t="inlineStr"/>
       <c r="AN116" t="inlineStr"/>
       <c r="AO116" t="inlineStr"/>
+      <c r="AP116" t="n">
+        <v>0.07407998486836662</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>0.4854740911262651</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -14533,6 +15233,12 @@
       <c r="AM117" t="inlineStr"/>
       <c r="AN117" t="inlineStr"/>
       <c r="AO117" t="inlineStr"/>
+      <c r="AP117" t="n">
+        <v>0.5794045423760306</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>0.6736265124851949</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -14650,6 +15356,12 @@
       <c r="AM118" t="inlineStr"/>
       <c r="AN118" t="inlineStr"/>
       <c r="AO118" t="inlineStr"/>
+      <c r="AP118" t="n">
+        <v>0.5729742939506899</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>0.6935374301055043</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -14775,6 +15487,12 @@
       <c r="AM119" t="inlineStr"/>
       <c r="AN119" t="inlineStr"/>
       <c r="AO119" t="inlineStr"/>
+      <c r="AP119" t="n">
+        <v>0.5742580548702998</v>
+      </c>
+      <c r="AQ119" t="n">
+        <v>0.7433424389316764</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -14900,6 +15618,12 @@
       <c r="AM120" t="inlineStr"/>
       <c r="AN120" t="inlineStr"/>
       <c r="AO120" t="inlineStr"/>
+      <c r="AP120" t="n">
+        <v>0.5632560201649133</v>
+      </c>
+      <c r="AQ120" t="n">
+        <v>0.7055029519315233</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -15017,6 +15741,12 @@
       <c r="AM121" t="inlineStr"/>
       <c r="AN121" t="inlineStr"/>
       <c r="AO121" t="inlineStr"/>
+      <c r="AP121" t="n">
+        <v>0.0468384074941452</v>
+      </c>
+      <c r="AQ121" t="n">
+        <v>0.07233124018838304</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -15138,6 +15868,12 @@
       <c r="AM122" t="inlineStr"/>
       <c r="AN122" t="inlineStr"/>
       <c r="AO122" t="inlineStr"/>
+      <c r="AP122" t="n">
+        <v>0.5030476340459323</v>
+      </c>
+      <c r="AQ122" t="n">
+        <v>0.6346833749281612</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -15259,6 +15995,12 @@
       <c r="AM123" t="inlineStr"/>
       <c r="AN123" t="inlineStr"/>
       <c r="AO123" t="inlineStr"/>
+      <c r="AP123" t="n">
+        <v>0.1308535735677004</v>
+      </c>
+      <c r="AQ123" t="n">
+        <v>0.3969922692348057</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -15380,6 +16122,12 @@
       <c r="AM124" t="inlineStr"/>
       <c r="AN124" t="inlineStr"/>
       <c r="AO124" t="inlineStr"/>
+      <c r="AP124" t="n">
+        <v>0.3299661572827648</v>
+      </c>
+      <c r="AQ124" t="n">
+        <v>0.5782244463672892</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -15501,6 +16249,12 @@
       <c r="AM125" t="inlineStr"/>
       <c r="AN125" t="inlineStr"/>
       <c r="AO125" t="inlineStr"/>
+      <c r="AP125" t="n">
+        <v>0.1638731039350845</v>
+      </c>
+      <c r="AQ125" t="n">
+        <v>0.3175500210625337</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -15618,6 +16372,12 @@
       <c r="AM126" t="inlineStr"/>
       <c r="AN126" t="inlineStr"/>
       <c r="AO126" t="inlineStr"/>
+      <c r="AP126" t="n">
+        <v>0.240424293055872</v>
+      </c>
+      <c r="AQ126" t="n">
+        <v>0.407833827370674</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -15743,6 +16503,12 @@
       <c r="AM127" t="inlineStr"/>
       <c r="AN127" t="inlineStr"/>
       <c r="AO127" t="inlineStr"/>
+      <c r="AP127" t="n">
+        <v>0.2704651467703464</v>
+      </c>
+      <c r="AQ127" t="n">
+        <v>0.3746344602442163</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -15866,6 +16632,12 @@
       <c r="AM128" t="inlineStr"/>
       <c r="AN128" t="inlineStr"/>
       <c r="AO128" t="inlineStr"/>
+      <c r="AP128" t="n">
+        <v>0.03034134007585335</v>
+      </c>
+      <c r="AQ128" t="n">
+        <v>0.07290725918176899</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -15987,6 +16759,12 @@
       <c r="AM129" t="inlineStr"/>
       <c r="AN129" t="inlineStr"/>
       <c r="AO129" t="inlineStr"/>
+      <c r="AP129" t="n">
+        <v>0.4486106239268867</v>
+      </c>
+      <c r="AQ129" t="n">
+        <v>0.5890114227509187</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -16108,6 +16886,12 @@
       <c r="AM130" t="inlineStr"/>
       <c r="AN130" t="inlineStr"/>
       <c r="AO130" t="inlineStr"/>
+      <c r="AP130" t="n">
+        <v>0.07803370310779914</v>
+      </c>
+      <c r="AQ130" t="n">
+        <v>0.6211648845711774</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -16231,6 +17015,12 @@
       <c r="AM131" t="inlineStr"/>
       <c r="AN131" t="inlineStr"/>
       <c r="AO131" t="inlineStr"/>
+      <c r="AP131" t="n">
+        <v>0.4572353422324961</v>
+      </c>
+      <c r="AQ131" t="n">
+        <v>0.5647660893379266</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -16358,6 +17148,12 @@
       <c r="AM132" t="inlineStr"/>
       <c r="AN132" t="inlineStr"/>
       <c r="AO132" t="inlineStr"/>
+      <c r="AP132" t="n">
+        <v>0.1292414959294755</v>
+      </c>
+      <c r="AQ132" t="n">
+        <v>0.6745996674752559</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -16479,6 +17275,12 @@
       <c r="AM133" t="inlineStr"/>
       <c r="AN133" t="inlineStr"/>
       <c r="AO133" t="inlineStr"/>
+      <c r="AP133" t="n">
+        <v>0.4685674070767239</v>
+      </c>
+      <c r="AQ133" t="n">
+        <v>0.5988106594066431</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -16590,6 +17392,12 @@
       <c r="AM134" t="inlineStr"/>
       <c r="AN134" t="inlineStr"/>
       <c r="AO134" t="inlineStr"/>
+      <c r="AP134" t="n">
+        <v>0.1095494889788448</v>
+      </c>
+      <c r="AQ134" t="n">
+        <v>0.223769620524266</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -16715,6 +17523,12 @@
       <c r="AM135" t="inlineStr"/>
       <c r="AN135" t="inlineStr"/>
       <c r="AO135" t="inlineStr"/>
+      <c r="AP135" t="n">
+        <v>0.4804195899470956</v>
+      </c>
+      <c r="AQ135" t="n">
+        <v>0.6644827113884471</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -16836,6 +17650,12 @@
       <c r="AM136" t="inlineStr"/>
       <c r="AN136" t="inlineStr"/>
       <c r="AO136" t="inlineStr"/>
+      <c r="AP136" t="n">
+        <v>0.6062809326178361</v>
+      </c>
+      <c r="AQ136" t="n">
+        <v>0.6574965987681505</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -16955,6 +17775,12 @@
       <c r="AM137" t="inlineStr"/>
       <c r="AN137" t="inlineStr"/>
       <c r="AO137" t="inlineStr"/>
+      <c r="AP137" t="n">
+        <v>0.6461005949978446</v>
+      </c>
+      <c r="AQ137" t="n">
+        <v>0.6876607440911406</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -17074,6 +17900,12 @@
       <c r="AM138" t="inlineStr"/>
       <c r="AN138" t="inlineStr"/>
       <c r="AO138" t="inlineStr"/>
+      <c r="AP138" t="n">
+        <v>0.5190850286368428</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>0.5885499069444344</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -17201,6 +18033,12 @@
       <c r="AM139" t="inlineStr"/>
       <c r="AN139" t="inlineStr"/>
       <c r="AO139" t="inlineStr"/>
+      <c r="AP139" t="n">
+        <v>0.5470928372179085</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>0.7057166063949715</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -17320,6 +18158,12 @@
       <c r="AM140" t="inlineStr"/>
       <c r="AN140" t="inlineStr"/>
       <c r="AO140" t="inlineStr"/>
+      <c r="AP140" t="n">
+        <v>0.428036765744407</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>0.6207281144781145</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -17433,6 +18277,12 @@
       <c r="AM141" t="inlineStr"/>
       <c r="AN141" t="inlineStr"/>
       <c r="AO141" t="inlineStr"/>
+      <c r="AP141" t="n">
+        <v>0.2002817288531575</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>0.4163384194866642</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -17556,6 +18406,12 @@
       <c r="AM142" t="inlineStr"/>
       <c r="AN142" t="inlineStr"/>
       <c r="AO142" t="inlineStr"/>
+      <c r="AP142" t="n">
+        <v>0.2619199437936812</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>0.5409426780116434</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -17665,6 +18521,12 @@
       <c r="AM143" t="inlineStr"/>
       <c r="AN143" t="inlineStr"/>
       <c r="AO143" t="inlineStr"/>
+      <c r="AP143" t="n">
+        <v>0.3160992783934283</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>0.4451210525445353</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -17786,6 +18648,12 @@
       <c r="AM144" t="inlineStr"/>
       <c r="AN144" t="inlineStr"/>
       <c r="AO144" t="inlineStr"/>
+      <c r="AP144" t="n">
+        <v>0.3596678610586804</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>0.5346053725588676</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -17913,6 +18781,12 @@
       <c r="AM145" t="inlineStr"/>
       <c r="AN145" t="inlineStr"/>
       <c r="AO145" t="inlineStr"/>
+      <c r="AP145" t="n">
+        <v>0.6551947351386341</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>0.6296424091573007</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -18022,6 +18896,12 @@
       <c r="AM146" t="inlineStr"/>
       <c r="AN146" t="inlineStr"/>
       <c r="AO146" t="inlineStr"/>
+      <c r="AP146" t="n">
+        <v>0.248015001154528</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>0.5741343526220577</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -18135,6 +19015,12 @@
       <c r="AM147" t="inlineStr"/>
       <c r="AN147" t="inlineStr"/>
       <c r="AO147" t="inlineStr"/>
+      <c r="AP147" t="n">
+        <v>0.3816019936863028</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>0.4686373038836901</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -18256,6 +19142,12 @@
       <c r="AM148" t="inlineStr"/>
       <c r="AN148" t="inlineStr"/>
       <c r="AO148" t="inlineStr"/>
+      <c r="AP148" t="n">
+        <v>0.4615816146583976</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>0.5888324206578032</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -18381,6 +19273,12 @@
       <c r="AM149" t="inlineStr"/>
       <c r="AN149" t="inlineStr"/>
       <c r="AO149" t="inlineStr"/>
+      <c r="AP149" t="n">
+        <v>0.4681782796337025</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>0.662102359527081</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -18504,6 +19402,12 @@
       <c r="AM150" t="inlineStr"/>
       <c r="AN150" t="inlineStr"/>
       <c r="AO150" t="inlineStr"/>
+      <c r="AP150" t="n">
+        <v>0.1883303539444593</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>0.5371886567538742</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -18627,6 +19531,12 @@
       <c r="AM151" t="inlineStr"/>
       <c r="AN151" t="inlineStr"/>
       <c r="AO151" t="inlineStr"/>
+      <c r="AP151" t="n">
+        <v>0.2975777881774179</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>0.4425290537372008</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -18748,6 +19658,12 @@
       <c r="AM152" t="inlineStr"/>
       <c r="AN152" t="inlineStr"/>
       <c r="AO152" t="inlineStr"/>
+      <c r="AP152" t="n">
+        <v>0.4641323044293663</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>0.686750547213421</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -18865,6 +19781,12 @@
       <c r="AM153" t="inlineStr"/>
       <c r="AN153" t="inlineStr"/>
       <c r="AO153" t="inlineStr"/>
+      <c r="AP153" t="n">
+        <v>0.02445302445302445</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>0.06835776440325418</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -18982,6 +19904,12 @@
       <c r="AM154" t="inlineStr"/>
       <c r="AN154" t="inlineStr"/>
       <c r="AO154" t="inlineStr"/>
+      <c r="AP154" t="n">
+        <v>0.4245526087091981</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>0.5838053601001343</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -19101,6 +20029,12 @@
       <c r="AM155" t="inlineStr"/>
       <c r="AN155" t="inlineStr"/>
       <c r="AO155" t="inlineStr"/>
+      <c r="AP155" t="n">
+        <v>0.05096937458514639</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>0.04304531473059885</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -19224,6 +20158,12 @@
       <c r="AM156" t="inlineStr"/>
       <c r="AN156" t="inlineStr"/>
       <c r="AO156" t="inlineStr"/>
+      <c r="AP156" t="n">
+        <v>0.0303030303030303</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>0.06403745212086821</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -19345,6 +20285,12 @@
       <c r="AM157" t="inlineStr"/>
       <c r="AN157" t="inlineStr"/>
       <c r="AO157" t="inlineStr"/>
+      <c r="AP157" t="n">
+        <v>0.3451290300644677</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>0.5141063649609015</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -19466,6 +20412,12 @@
       <c r="AM158" t="inlineStr"/>
       <c r="AN158" t="inlineStr"/>
       <c r="AO158" t="inlineStr"/>
+      <c r="AP158" t="n">
+        <v>0.3777696312539519</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>0.5364208485326498</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -19587,6 +20539,12 @@
       <c r="AM159" t="inlineStr"/>
       <c r="AN159" t="inlineStr"/>
       <c r="AO159" t="inlineStr"/>
+      <c r="AP159" t="n">
+        <v>0.2721808750261924</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>0.3821397990326848</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -19712,6 +20670,12 @@
       <c r="AM160" t="inlineStr"/>
       <c r="AN160" t="inlineStr"/>
       <c r="AO160" t="inlineStr"/>
+      <c r="AP160" t="n">
+        <v>0.5060607826825697</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>0.5874929972868224</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -19837,6 +20801,12 @@
       <c r="AM161" t="inlineStr"/>
       <c r="AN161" t="inlineStr"/>
       <c r="AO161" t="inlineStr"/>
+      <c r="AP161" t="n">
+        <v>0.1285646720429329</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>0.3413920232288229</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -19958,6 +20928,12 @@
       <c r="AM162" t="inlineStr"/>
       <c r="AN162" t="inlineStr"/>
       <c r="AO162" t="inlineStr"/>
+      <c r="AP162" t="n">
+        <v>0.2260310390612274</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>0.349557416302147</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -20087,6 +21063,12 @@
       <c r="AM163" t="inlineStr"/>
       <c r="AN163" t="inlineStr"/>
       <c r="AO163" t="inlineStr"/>
+      <c r="AP163" t="n">
+        <v>0.4602907502067166</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>0.5912817275706324</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -20214,6 +21196,12 @@
       <c r="AM164" t="inlineStr"/>
       <c r="AN164" t="inlineStr"/>
       <c r="AO164" t="inlineStr"/>
+      <c r="AP164" t="n">
+        <v>0.6458694208133198</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>0.6543764005382566</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -20335,6 +21323,12 @@
       <c r="AM165" t="inlineStr"/>
       <c r="AN165" t="inlineStr"/>
       <c r="AO165" t="inlineStr"/>
+      <c r="AP165" t="n">
+        <v>0.5511166466323064</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>0.6256248851541921</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -20458,6 +21452,12 @@
       <c r="AM166" t="inlineStr"/>
       <c r="AN166" t="inlineStr"/>
       <c r="AO166" t="inlineStr"/>
+      <c r="AP166" t="n">
+        <v>0.1261672243004885</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>0.4085829195346439</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -20581,6 +21581,12 @@
       <c r="AM167" t="inlineStr"/>
       <c r="AN167" t="inlineStr"/>
       <c r="AO167" t="inlineStr"/>
+      <c r="AP167" t="n">
+        <v>0.3736789388801772</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>0.5976567292356767</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -20702,6 +21708,12 @@
       <c r="AM168" t="inlineStr"/>
       <c r="AN168" t="inlineStr"/>
       <c r="AO168" t="inlineStr"/>
+      <c r="AP168" t="n">
+        <v>0.4937869167957177</v>
+      </c>
+      <c r="AQ168" t="n">
+        <v>0.6360625221141392</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -20823,6 +21835,12 @@
       <c r="AM169" t="inlineStr"/>
       <c r="AN169" t="inlineStr"/>
       <c r="AO169" t="inlineStr"/>
+      <c r="AP169" t="n">
+        <v>0.1105519633490234</v>
+      </c>
+      <c r="AQ169" t="n">
+        <v>0.5519770563359578</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -20946,6 +21964,12 @@
       <c r="AM170" t="inlineStr"/>
       <c r="AN170" t="inlineStr"/>
       <c r="AO170" t="inlineStr"/>
+      <c r="AP170" t="n">
+        <v>0.4983301070257592</v>
+      </c>
+      <c r="AQ170" t="n">
+        <v>0.6691514846762463</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -21055,6 +22079,12 @@
       <c r="AM171" t="inlineStr"/>
       <c r="AN171" t="inlineStr"/>
       <c r="AO171" t="inlineStr"/>
+      <c r="AP171" t="n">
+        <v>0.3350484676142571</v>
+      </c>
+      <c r="AQ171" t="n">
+        <v>0.5018961000549288</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -21182,6 +22212,12 @@
       <c r="AM172" t="inlineStr"/>
       <c r="AN172" t="inlineStr"/>
       <c r="AO172" t="inlineStr"/>
+      <c r="AP172" t="n">
+        <v>0.1416064222515835</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>0.6747498609899044</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -21291,6 +22327,12 @@
       <c r="AM173" t="inlineStr"/>
       <c r="AN173" t="inlineStr"/>
       <c r="AO173" t="inlineStr"/>
+      <c r="AP173" t="n">
+        <v>0.2587894016465445</v>
+      </c>
+      <c r="AQ173" t="n">
+        <v>0.3971439119886325</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -21400,6 +22442,12 @@
       <c r="AM174" t="inlineStr"/>
       <c r="AN174" t="inlineStr"/>
       <c r="AO174" t="inlineStr"/>
+      <c r="AP174" t="n">
+        <v>0.03300756922487304</v>
+      </c>
+      <c r="AQ174" t="n">
+        <v>0.09109105180533751</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -21521,6 +22569,12 @@
       <c r="AM175" t="inlineStr"/>
       <c r="AN175" t="inlineStr"/>
       <c r="AO175" t="inlineStr"/>
+      <c r="AP175" t="n">
+        <v>0.06040847119685295</v>
+      </c>
+      <c r="AQ175" t="n">
+        <v>0.1495090171955633</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -21648,6 +22702,12 @@
       <c r="AM176" t="inlineStr"/>
       <c r="AN176" t="inlineStr"/>
       <c r="AO176" t="inlineStr"/>
+      <c r="AP176" t="n">
+        <v>0.5335469695124427</v>
+      </c>
+      <c r="AQ176" t="n">
+        <v>0.7591339785080562</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -21771,6 +22831,12 @@
       <c r="AM177" t="inlineStr"/>
       <c r="AN177" t="inlineStr"/>
       <c r="AO177" t="inlineStr"/>
+      <c r="AP177" t="n">
+        <v>0.0468384074941452</v>
+      </c>
+      <c r="AQ177" t="n">
+        <v>0.1303958307888912</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -21892,6 +22958,12 @@
       <c r="AM178" t="inlineStr"/>
       <c r="AN178" t="inlineStr"/>
       <c r="AO178" t="inlineStr"/>
+      <c r="AP178" t="n">
+        <v>0.3761963212950797</v>
+      </c>
+      <c r="AQ178" t="n">
+        <v>0.586338757327618</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -22015,6 +23087,12 @@
       <c r="AM179" t="inlineStr"/>
       <c r="AN179" t="inlineStr"/>
       <c r="AO179" t="inlineStr"/>
+      <c r="AP179" t="n">
+        <v>0.05576533109572758</v>
+      </c>
+      <c r="AQ179" t="n">
+        <v>0.09740007113956693</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -22138,6 +23216,12 @@
       <c r="AM180" t="inlineStr"/>
       <c r="AN180" t="inlineStr"/>
       <c r="AO180" t="inlineStr"/>
+      <c r="AP180" t="n">
+        <v>0.05644381646463896</v>
+      </c>
+      <c r="AQ180" t="n">
+        <v>0.1057739178256858</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -22255,6 +23339,12 @@
       <c r="AM181" t="inlineStr"/>
       <c r="AN181" t="inlineStr"/>
       <c r="AO181" t="inlineStr"/>
+      <c r="AP181" t="n">
+        <v>0.4725159191080807</v>
+      </c>
+      <c r="AQ181" t="n">
+        <v>0.5647640205537345</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -22380,6 +23470,12 @@
       <c r="AM182" t="inlineStr"/>
       <c r="AN182" t="inlineStr"/>
       <c r="AO182" t="inlineStr"/>
+      <c r="AP182" t="n">
+        <v>0.4336109424700468</v>
+      </c>
+      <c r="AQ182" t="n">
+        <v>0.5878104522136643</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -22505,6 +23601,12 @@
       <c r="AM183" t="inlineStr"/>
       <c r="AN183" t="inlineStr"/>
       <c r="AO183" t="inlineStr"/>
+      <c r="AP183" t="n">
+        <v>0.4205663483021508</v>
+      </c>
+      <c r="AQ183" t="n">
+        <v>0.6067754159519365</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -22626,6 +23728,12 @@
       <c r="AM184" t="inlineStr"/>
       <c r="AN184" t="inlineStr"/>
       <c r="AO184" t="inlineStr"/>
+      <c r="AP184" t="n">
+        <v>0.2738318531832623</v>
+      </c>
+      <c r="AQ184" t="n">
+        <v>0.4346384165069298</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -22747,6 +23855,12 @@
       <c r="AM185" t="inlineStr"/>
       <c r="AN185" t="inlineStr"/>
       <c r="AO185" t="inlineStr"/>
+      <c r="AP185" t="n">
+        <v>0.4212719026278348</v>
+      </c>
+      <c r="AQ185" t="n">
+        <v>0.6151911445298365</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -22872,6 +23986,12 @@
       <c r="AM186" t="inlineStr"/>
       <c r="AN186" t="inlineStr"/>
       <c r="AO186" t="inlineStr"/>
+      <c r="AP186" t="n">
+        <v>0.3017222602468082</v>
+      </c>
+      <c r="AQ186" t="n">
+        <v>0.5227134622483459</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -22999,6 +24119,12 @@
       <c r="AM187" t="inlineStr"/>
       <c r="AN187" t="inlineStr"/>
       <c r="AO187" t="inlineStr"/>
+      <c r="AP187" t="n">
+        <v>0.1957528828104049</v>
+      </c>
+      <c r="AQ187" t="n">
+        <v>0.6384163711352652</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -23110,6 +24236,12 @@
       <c r="AM188" t="inlineStr"/>
       <c r="AN188" t="inlineStr"/>
       <c r="AO188" t="inlineStr"/>
+      <c r="AP188" t="n">
+        <v>0.02291105121293801</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>0.0777906290570046</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -23231,6 +24363,12 @@
       <c r="AM189" t="inlineStr"/>
       <c r="AN189" t="inlineStr"/>
       <c r="AO189" t="inlineStr"/>
+      <c r="AP189" t="n">
+        <v>0.0468384074941452</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>0.09460722477338826</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -23354,6 +24492,12 @@
       <c r="AM190" t="inlineStr"/>
       <c r="AN190" t="inlineStr"/>
       <c r="AO190" t="inlineStr"/>
+      <c r="AP190" t="n">
+        <v>0.108060615550568</v>
+      </c>
+      <c r="AQ190" t="n">
+        <v>0.3413981663143849</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -23473,6 +24617,12 @@
       <c r="AM191" t="inlineStr"/>
       <c r="AN191" t="inlineStr"/>
       <c r="AO191" t="inlineStr"/>
+      <c r="AP191" t="n">
+        <v>0.3146070269991933</v>
+      </c>
+      <c r="AQ191" t="n">
+        <v>0.396599979867541</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -23600,6 +24750,12 @@
       <c r="AM192" t="inlineStr"/>
       <c r="AN192" t="inlineStr"/>
       <c r="AO192" t="inlineStr"/>
+      <c r="AP192" t="n">
+        <v>0.143482905982906</v>
+      </c>
+      <c r="AQ192" t="n">
+        <v>0.6866030804504873</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -23715,6 +24871,12 @@
       <c r="AM193" t="inlineStr"/>
       <c r="AN193" t="inlineStr"/>
       <c r="AO193" t="inlineStr"/>
+      <c r="AP193" t="n">
+        <v>0.2796033416989386</v>
+      </c>
+      <c r="AQ193" t="n">
+        <v>0.3590984900897344</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -23826,6 +24988,12 @@
       <c r="AM194" t="inlineStr"/>
       <c r="AN194" t="inlineStr"/>
       <c r="AO194" t="inlineStr"/>
+      <c r="AP194" t="n">
+        <v>0.560187333145301</v>
+      </c>
+      <c r="AQ194" t="n">
+        <v>0.6451090280335263</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -23955,6 +25123,12 @@
       <c r="AM195" t="inlineStr"/>
       <c r="AN195" t="inlineStr"/>
       <c r="AO195" t="inlineStr"/>
+      <c r="AP195" t="n">
+        <v>0.6364977184366802</v>
+      </c>
+      <c r="AQ195" t="n">
+        <v>0.7177693142625931</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -24072,6 +25246,12 @@
       <c r="AM196" t="inlineStr"/>
       <c r="AN196" t="inlineStr"/>
       <c r="AO196" t="inlineStr"/>
+      <c r="AP196" t="n">
+        <v>0.4477730061152708</v>
+      </c>
+      <c r="AQ196" t="n">
+        <v>0.5587078229099506</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -24199,6 +25379,12 @@
       <c r="AM197" t="inlineStr"/>
       <c r="AN197" t="inlineStr"/>
       <c r="AO197" t="inlineStr"/>
+      <c r="AP197" t="n">
+        <v>0.3615904267689982</v>
+      </c>
+      <c r="AQ197" t="n">
+        <v>0.5480853091422807</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -24324,6 +25510,12 @@
       <c r="AM198" t="inlineStr"/>
       <c r="AN198" t="inlineStr"/>
       <c r="AO198" t="inlineStr"/>
+      <c r="AP198" t="n">
+        <v>0.4266443976185084</v>
+      </c>
+      <c r="AQ198" t="n">
+        <v>0.6212772554887749</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -24437,6 +25629,12 @@
       <c r="AM199" t="inlineStr"/>
       <c r="AN199" t="inlineStr"/>
       <c r="AO199" t="inlineStr"/>
+      <c r="AP199" t="n">
+        <v>0.0468384074941452</v>
+      </c>
+      <c r="AQ199" t="n">
+        <v>0.1096594270822946</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -24562,6 +25760,12 @@
       <c r="AM200" t="inlineStr"/>
       <c r="AN200" t="inlineStr"/>
       <c r="AO200" t="inlineStr"/>
+      <c r="AP200" t="n">
+        <v>0.4153565160629284</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>0.6397492496642277</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -24673,6 +25877,12 @@
       <c r="AM201" t="inlineStr"/>
       <c r="AN201" t="inlineStr"/>
       <c r="AO201" t="inlineStr"/>
+      <c r="AP201" t="n">
+        <v>0.5895268477438239</v>
+      </c>
+      <c r="AQ201" t="n">
+        <v>0.5990690742641294</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -24800,6 +26010,12 @@
       <c r="AM202" t="inlineStr"/>
       <c r="AN202" t="inlineStr"/>
       <c r="AO202" t="inlineStr"/>
+      <c r="AP202" t="n">
+        <v>0.5954522266767165</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>0.650736752974502</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -24925,6 +26141,12 @@
       <c r="AM203" t="inlineStr"/>
       <c r="AN203" t="inlineStr"/>
       <c r="AO203" t="inlineStr"/>
+      <c r="AP203" t="n">
+        <v>0.5660535578875775</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>0.6327792819321901</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -25040,6 +26262,12 @@
       <c r="AM204" t="inlineStr"/>
       <c r="AN204" t="inlineStr"/>
       <c r="AO204" t="inlineStr"/>
+      <c r="AP204" t="n">
+        <v>0.6573429327214046</v>
+      </c>
+      <c r="AQ204" t="n">
+        <v>0.6552950403017638</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -25167,6 +26395,12 @@
       <c r="AM205" t="inlineStr"/>
       <c r="AN205" t="inlineStr"/>
       <c r="AO205" t="inlineStr"/>
+      <c r="AP205" t="n">
+        <v>0.4522036803649155</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>0.6178883754483152</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
